--- a/data/fc-typology-data-generator-rev1.xlsx
+++ b/data/fc-typology-data-generator-rev1.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/FCA-grammar-typology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/FCA-grammar-typology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D4C9AF-E9DB-984C-8AC1-E7F8082453B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8083B2-BC30-D943-9A4F-18B3B008AA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27820" windowHeight="17500" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6020" yWindow="500" windowWidth="32700" windowHeight="17700" tabRatio="730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="typology.data26c" sheetId="1" r:id="rId1"/>
+    <sheet name="typology.data27a" sheetId="2" r:id="rId1"/>
+    <sheet name="typology.data26c" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +36,386 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kow KURODA</author>
+    <author>Kow Kuroda</author>
+    <author>tc={55826923-6CA2-C94C-84CC-3A673871B098}</author>
+    <author>tc={8A783A40-AA4E-554B-9889-FD68A533D0F8}</author>
+    <author>Kuroda, Kow</author>
+    <author>tc={C3B07047-1F5C-DE45-B23C-D9974E443C4A}</author>
+    <author>tc={1B993306-62DB-EA4B-9392-79D623AE7072}</author>
+  </authors>
+  <commentList>
+    <comment ref="AA3" authorId="0" shapeId="0" xr:uid="{AADB9F8C-9E9B-FC46-8CA3-BF907D5FDDC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Kow KURODA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>dubious</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA4" authorId="1" shapeId="0" xr:uid="{CB1AE5F2-62BF-1A44-BD3A-E7B5B42C5E09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kow Kuroda:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>questionable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{E9C77B34-4377-0E4F-B3B8-D54B88BE446F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Kow KURODA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>on orthography alone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{93E43B53-8EFD-6544-B2E9-23B0CEF51FE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Kow KURODA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+on orthography alone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA5" authorId="2" shapeId="0" xr:uid="{55826923-6CA2-C94C-84CC-3A673871B098}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    questionable</t>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="3" shapeId="0" xr:uid="{8A783A40-AA4E-554B-9889-FD68A533D0F8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Only locative</t>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="4" shapeId="0" xr:uid="{067B1CC9-8070-7944-B735-F3B2A7CE6E44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kuroda, Kow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>locative only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S12" authorId="5" shapeId="0" xr:uid="{C3B07047-1F5C-DE45-B23C-D9974E443C4A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    questionable</t>
+      </text>
+    </comment>
+    <comment ref="AA12" authorId="1" shapeId="0" xr:uid="{6DDEFF39-5519-B44F-9260-8471A91618B7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kow Kuroda:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>questionable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S13" authorId="6" shapeId="0" xr:uid="{1B993306-62DB-EA4B-9392-79D623AE7072}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    questionable</t>
+      </text>
+    </comment>
+    <comment ref="N16" authorId="0" shapeId="0" xr:uid="{918B4552-79E1-F541-A616-835274BE9246}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Kow KURODA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Only AP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J23" authorId="1" shapeId="0" xr:uid="{85E9631F-3DCF-844F-B8F2-88A2C39FE10D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kow Kuroda:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Questionable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q23" authorId="1" shapeId="0" xr:uid="{B5077CCA-4624-2446-BB48-C4E35F2DEB5F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kow Kuroda:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Somewhat questionable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U23" authorId="1" shapeId="0" xr:uid="{9C2D4518-91FC-FE41-BD1A-C50852F9545A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kow Kuroda:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Questionable</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kow KURODA</author>
@@ -388,7 +769,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="56">
   <si>
     <t>Chinese</t>
     <phoneticPr fontId="1"/>
@@ -558,9 +939,6 @@
     <t>Relative_cl_follows_N</t>
   </si>
   <si>
-    <t>Tense_agreesment</t>
-  </si>
-  <si>
     <t>has_prepositions</t>
   </si>
   <si>
@@ -577,6 +955,12 @@
   </si>
   <si>
     <t>Greek_Modern</t>
+  </si>
+  <si>
+    <t>Welsh</t>
+  </si>
+  <si>
+    <t>Tense_agreement</t>
   </si>
 </sst>
 </file>
@@ -1297,7 +1681,17 @@
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="122">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2676,6 +3070,1374 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -2691,45 +4453,46 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kuroda, Kow" id="{9408DD04-EC8D-804C-AA3C-D54A08AC4BD3}" userId="Kuroda, Kow" providerId="None"/>
   <person displayName="Kow Kuroda" id="{966F3633-AABE-2A40-8B83-38837EE06320}" userId="eac4b58a98249ea7" providerId="Windows Live"/>
 </personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:AB22" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A1:AB22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB22">
-    <sortCondition descending="1" ref="AB1:AB22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6813515-D4FA-9F4F-9988-42E80BF4FE39}" name="テーブル14" displayName="テーブル14" ref="A1:AB23" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+  <autoFilter ref="A1:AB23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB23">
+    <sortCondition descending="1" ref="AB1:AB23"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Language" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="has_definite_art" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="has_indefinite_art" dataDxfId="56"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="has_personal_pro" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N_encodes_plurality" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N_encodes_class" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="N_encodes_case" dataDxfId="52"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Relative_cl_follows_N" dataDxfId="51"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="has_postpositions" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="has_prepositions" dataDxfId="49"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A_agrees_w_Nplurality" dataDxfId="48"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="A_agrees_w_Nclass" dataDxfId="47"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="A_agrees_w_Ncase" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A_follows_N" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Obj_follows_V" dataDxfId="44"/>
-    <tableColumn id="28" xr3:uid="{797B11B6-B034-5741-89AB-7E651574C23F}" name="Subj_follows_V" dataDxfId="43"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sentence requires_Subj" dataDxfId="42"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="V_agrees_w_Subj" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="V_encodes_plurality" dataDxfId="40"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="V_encodes_class" dataDxfId="39"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="V_encodes_voice" dataDxfId="38"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="V_encodes_tense" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="V_encodes_person" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V_encodes_aspect" dataDxfId="35"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="V_infinitive_is_derived" dataDxfId="34"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="V_agrees_w_Obj" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Tense_agreesment" dataDxfId="32"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="sum" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{4E183DB9-3887-6149-9F20-ADB413CE7DA0}" name="Language" dataDxfId="119"/>
+    <tableColumn id="2" xr3:uid="{6CC4B955-A7F3-5B45-8003-7D395270CD16}" name="has_definite_art" dataDxfId="118"/>
+    <tableColumn id="3" xr3:uid="{BFE2580C-9FA2-1B47-859C-435EBEE82600}" name="has_indefinite_art" dataDxfId="117"/>
+    <tableColumn id="27" xr3:uid="{8CD6E7AB-771D-D141-B096-8653ED219942}" name="has_personal_pro" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{CAE83823-EFDE-0841-8EAD-5C55B047950D}" name="N_encodes_plurality" dataDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{9B9409FE-C2BB-5642-BCF4-68D0EEA5717C}" name="N_encodes_class" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{03628350-1230-CD42-8AE6-59B8A69B6735}" name="N_encodes_case" dataDxfId="113"/>
+    <tableColumn id="20" xr3:uid="{D9A50294-F25C-0B44-AB27-C2D601056CD2}" name="Relative_cl_follows_N" dataDxfId="112"/>
+    <tableColumn id="19" xr3:uid="{CC85F86E-7564-DA4E-BC63-E0EABE0B082C}" name="has_postpositions" dataDxfId="111"/>
+    <tableColumn id="7" xr3:uid="{BBD37D6B-31A4-D840-AC02-5EEBA32806CC}" name="has_prepositions" dataDxfId="110"/>
+    <tableColumn id="16" xr3:uid="{E301F5FE-91F2-0A4A-9CAC-E6EA4D7E6D04}" name="A_agrees_w_Nplurality" dataDxfId="109"/>
+    <tableColumn id="17" xr3:uid="{8079B9CF-D8A7-1647-B09C-1210C5FEE56C}" name="A_agrees_w_Nclass" dataDxfId="108"/>
+    <tableColumn id="22" xr3:uid="{36EC1B73-3D25-7444-B1A9-9CCA6D8D20DB}" name="A_agrees_w_Ncase" dataDxfId="107"/>
+    <tableColumn id="8" xr3:uid="{7571900F-4294-EE4D-A159-072376FBA53D}" name="A_follows_N" dataDxfId="106"/>
+    <tableColumn id="9" xr3:uid="{2516CD4E-0D42-3F44-B7F0-3C936B4FEF3F}" name="Obj_follows_V" dataDxfId="105"/>
+    <tableColumn id="28" xr3:uid="{578D1017-9BBA-0847-BE69-BEE3E0B53F1C}" name="Subj_follows_V" dataDxfId="104"/>
+    <tableColumn id="18" xr3:uid="{F02B337A-48D8-9148-BC13-16ABCCFDA2D5}" name="Sentence requires_Subj" dataDxfId="103"/>
+    <tableColumn id="25" xr3:uid="{281B368D-8FA3-F042-B80A-9B6884D7367B}" name="V_agrees_w_Subj" dataDxfId="102"/>
+    <tableColumn id="12" xr3:uid="{BFA10B0D-E59D-124C-BC7D-9B682E13DD5B}" name="V_encodes_plurality" dataDxfId="101"/>
+    <tableColumn id="13" xr3:uid="{02A91772-4705-054A-AA9B-457A0621423D}" name="V_encodes_class" dataDxfId="100"/>
+    <tableColumn id="14" xr3:uid="{139FD4E4-31A7-7A41-A2A3-DBEC13C9228C}" name="V_encodes_voice" dataDxfId="99"/>
+    <tableColumn id="21" xr3:uid="{27945233-46DA-2C4B-B006-EE936FA6308F}" name="V_encodes_tense" dataDxfId="98"/>
+    <tableColumn id="11" xr3:uid="{603E955C-80CC-2446-9DCC-D2A7DDCFF51E}" name="V_encodes_person" dataDxfId="97"/>
+    <tableColumn id="10" xr3:uid="{F752FBDF-55DF-A04F-827C-436545FA9657}" name="V_encodes_aspect" dataDxfId="96"/>
+    <tableColumn id="26" xr3:uid="{E9C8970B-2001-CD48-9A2F-CAA77DB4495F}" name="V_infinitive_is_derived" dataDxfId="95"/>
+    <tableColumn id="23" xr3:uid="{3241375F-FA0A-8447-AF56-740E202B3750}" name="V_agrees_w_Obj" dataDxfId="94"/>
+    <tableColumn id="15" xr3:uid="{F4AC1376-10AD-D244-9C08-7AB43543A00A}" name="Tense_agreement" dataDxfId="93"/>
+    <tableColumn id="24" xr3:uid="{A963D50A-A45A-8842-AEF7-231387556379}" name="sum" dataDxfId="92">
       <calculatedColumnFormula>SUM(B2:AA2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2738,37 +4501,122 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}" name="Table2" displayName="Table2" ref="A28:AB55" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0E7E103B-2E16-5040-986F-E72D092D4CC7}" name="Table25" displayName="Table25" ref="A29:AB56" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
+  <autoFilter ref="A29:AB56" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A30:AB56">
+    <sortCondition ref="AB29:AB56"/>
+  </sortState>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{3DCC83AD-9F69-EF48-A0C1-C9AE2BBE3469}" name="Correlation" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{EDD5F828-836B-1D44-9AF6-F5BE2836F660}" name="has_definite_art" dataDxfId="88"/>
+    <tableColumn id="3" xr3:uid="{079B382E-9E2A-094C-ACAF-52F32A6E00ED}" name="has_indefinite_art" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{0699A8AB-8F45-0E4C-9C72-D794E5EA649F}" name="has_personal_pro" dataDxfId="86"/>
+    <tableColumn id="5" xr3:uid="{CC2E7BDC-6C79-D644-AA7D-63768B008AEA}" name="N_encodes_plurality" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{24AD433B-82DA-4D41-88AA-8AA75DA6DC50}" name="N_encodes_class" dataDxfId="84"/>
+    <tableColumn id="7" xr3:uid="{7F84A447-649F-5647-9DF7-DA606E2425CB}" name="N_encodes_case" dataDxfId="83"/>
+    <tableColumn id="8" xr3:uid="{5048E75E-BFDE-D449-B5CB-0D50A5995F93}" name="Relative_cl_follows_N" dataDxfId="82"/>
+    <tableColumn id="9" xr3:uid="{75A45A7C-E8FB-1142-B0AB-08F22765003D}" name="has_postpositions" dataDxfId="81"/>
+    <tableColumn id="10" xr3:uid="{2DB9B6AB-77FE-0B4F-BEE1-D8E15160D30A}" name="has_prepositions" dataDxfId="80"/>
+    <tableColumn id="11" xr3:uid="{CF0609FE-AA6D-284A-BB2A-16137D303F3D}" name="A_agrees_w_Nplurality" dataDxfId="79"/>
+    <tableColumn id="12" xr3:uid="{A46192A6-71FF-F243-9312-4E581680187B}" name="A_agrees_w_Nclass" dataDxfId="78"/>
+    <tableColumn id="13" xr3:uid="{9C4AB670-519C-8E45-9A62-486886679CFE}" name="A_agrees_w_Ncase" dataDxfId="77"/>
+    <tableColumn id="14" xr3:uid="{31688CEE-1386-2B42-BA81-1F4BF4151A4C}" name="A_follows_N" dataDxfId="76"/>
+    <tableColumn id="15" xr3:uid="{8E6144BF-98BA-ED43-B5C0-02A25ADA5D40}" name="Obj_follows_V" dataDxfId="75"/>
+    <tableColumn id="16" xr3:uid="{F6A2BCFC-E8FA-4E4A-AAD2-C9002046954D}" name="Subj_follows_V" dataDxfId="74"/>
+    <tableColumn id="17" xr3:uid="{E1A4C817-EAB8-674E-84B5-2BFE6A648052}" name="Sentence requires_Subj" dataDxfId="73"/>
+    <tableColumn id="18" xr3:uid="{0C897990-532E-2449-BC29-948DE755BCAD}" name="V_agrees_w_Subj" dataDxfId="72"/>
+    <tableColumn id="19" xr3:uid="{3F9D7136-789F-D348-AB23-12E53BB8A048}" name="V_encodes_plurality" dataDxfId="71"/>
+    <tableColumn id="20" xr3:uid="{4BF97483-7554-C54D-B41C-727571954460}" name="V_encodes_class" dataDxfId="70"/>
+    <tableColumn id="21" xr3:uid="{3AD4C563-3D83-4249-9D34-6EC44F73ABA3}" name="V_encodes_voice" dataDxfId="69"/>
+    <tableColumn id="22" xr3:uid="{4034EB35-3F31-ED41-B01B-0C4CA6C11080}" name="V_encodes_tense" dataDxfId="68"/>
+    <tableColumn id="23" xr3:uid="{3FF6D798-6718-CD48-AEF0-0C0600F21483}" name="V_encodes_person" dataDxfId="67"/>
+    <tableColumn id="24" xr3:uid="{BB0780D0-38C9-304D-B945-583D4581D332}" name="V_encodes_aspect" dataDxfId="66"/>
+    <tableColumn id="25" xr3:uid="{E1F6D71A-EF54-BC44-8C72-994DE0A37790}" name="V_infinitive_is_derived" dataDxfId="65"/>
+    <tableColumn id="26" xr3:uid="{F529EFB6-AF79-3240-B005-D1D014AB4466}" name="V_agrees_w_Obj" dataDxfId="64"/>
+    <tableColumn id="27" xr3:uid="{F252060C-BAD7-A944-8280-A4AFFEAA93C1}" name="Tense_agreement" dataDxfId="63"/>
+    <tableColumn id="28" xr3:uid="{EA6E8513-3EA7-084D-A4B8-11D76045B135}" name="sum" dataDxfId="62"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:AB22" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <autoFilter ref="A1:AB22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB22">
+    <sortCondition descending="1" ref="AB1:AB22"/>
+  </sortState>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Language" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="has_definite_art" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="has_indefinite_art" dataDxfId="57"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="has_personal_pro" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N_encodes_plurality" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N_encodes_class" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="N_encodes_case" dataDxfId="53"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Relative_cl_follows_N" dataDxfId="52"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="has_postpositions" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="has_prepositions" dataDxfId="50"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A_agrees_w_Nplurality" dataDxfId="49"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="A_agrees_w_Nclass" dataDxfId="48"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="A_agrees_w_Ncase" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A_follows_N" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Obj_follows_V" dataDxfId="45"/>
+    <tableColumn id="28" xr3:uid="{797B11B6-B034-5741-89AB-7E651574C23F}" name="Subj_follows_V" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sentence requires_Subj" dataDxfId="43"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="V_agrees_w_Subj" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="V_encodes_plurality" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="V_encodes_class" dataDxfId="40"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="V_encodes_voice" dataDxfId="39"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="V_encodes_tense" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="V_encodes_person" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V_encodes_aspect" dataDxfId="36"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="V_infinitive_is_derived" dataDxfId="35"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="V_agrees_w_Obj" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Tense_agreement" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="sum" dataDxfId="32">
+      <calculatedColumnFormula>SUM(B2:AA2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}" name="Table2" displayName="Table2" ref="A28:AB55" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A28:AB55" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:AB55">
+    <sortCondition ref="AB28:AB55"/>
+  </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{E8A81ADF-8FDA-A64C-A57D-6FA12EDF766A}" name="Correlation" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00BEF632-EA2D-6246-90B6-C0014D489FA1}" name="has_definite_art" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{BAB19402-C14F-964E-8182-E44F3A7A9DD0}" name="has_indefinite_art" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{8CD330E1-23DA-F741-8743-2999A04D5858}" name="has_personal_pro" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{BA2A0D1E-8A0F-4447-B4BC-A7D7381CE6C4}" name="N_encodes_plurality" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{F4EE229A-AD64-7747-8F4D-B69696AF555D}" name="N_encodes_class" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{03E0F05A-4C08-7B43-AEEF-D8A2D52EA73A}" name="N_encodes_case" dataDxfId="22"/>
-    <tableColumn id="8" xr3:uid="{7703BD9E-18FB-7F46-AB65-5E5CC6C87088}" name="Relative_cl_follows_N" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{84530509-1909-DB4B-A3B9-3C585ACBF333}" name="has_postpositions" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{759F2737-4544-3F46-A130-5C9565DE5D13}" name="has_prepositions" dataDxfId="19"/>
-    <tableColumn id="11" xr3:uid="{34F851A4-14B4-FD4E-A4AA-AA0C8D5DD781}" name="A_agrees_w_Nplurality" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{70E5ECEE-041A-BE48-90AF-840467EB4978}" name="A_agrees_w_Nclass" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{EE07A013-1C93-0F44-9C18-4AE1CA4D1ED3}" name="A_agrees_w_Ncase" dataDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{679BC547-A9D5-9A49-80A9-B648709020F4}" name="A_follows_N" dataDxfId="15"/>
-    <tableColumn id="15" xr3:uid="{C35FA572-1689-074B-B324-B7C386EEF087}" name="Obj_follows_V" dataDxfId="14"/>
-    <tableColumn id="16" xr3:uid="{20B38B28-DAA3-4D40-8DAF-FAF653DFD38F}" name="Subj_follows_V" dataDxfId="13"/>
-    <tableColumn id="17" xr3:uid="{E5B7A97D-7E5B-2A42-8C7C-7FDD1C5F3326}" name="Sentence requires_Subj" dataDxfId="12"/>
-    <tableColumn id="18" xr3:uid="{AC8542AF-1D36-3948-B68E-98A0602A1621}" name="V_agrees_w_Subj" dataDxfId="11"/>
-    <tableColumn id="19" xr3:uid="{C6BC0E80-1C56-F547-A12C-033A42B40B92}" name="V_encodes_plurality" dataDxfId="10"/>
-    <tableColumn id="20" xr3:uid="{AF0DCB71-D1DD-B94F-BDE4-76F27102195A}" name="V_encodes_class" dataDxfId="9"/>
-    <tableColumn id="21" xr3:uid="{BD15E09B-4E36-A845-AAEF-BA7F1369B9A0}" name="V_encodes_voice" dataDxfId="8"/>
-    <tableColumn id="22" xr3:uid="{CD1412AE-E0C8-EE41-B1C6-E8C51EBB2FF2}" name="V_encodes_tense" dataDxfId="7"/>
-    <tableColumn id="23" xr3:uid="{ABE62467-3422-8543-A8D9-8B13977C9B33}" name="V_encodes_person" dataDxfId="6"/>
-    <tableColumn id="24" xr3:uid="{BF0BC527-606E-5045-97AA-1E9BC47976E3}" name="V_encodes_aspect" dataDxfId="5"/>
-    <tableColumn id="25" xr3:uid="{9DF274E4-3C86-F049-9D0D-F7F7301719C4}" name="V_infinitive_is_derived" dataDxfId="4"/>
-    <tableColumn id="26" xr3:uid="{BB73562D-4A24-814C-8639-43EE7D8D8C4A}" name="V_agrees_w_Obj" dataDxfId="3"/>
-    <tableColumn id="27" xr3:uid="{21C0EF0B-E5A8-A14E-BDBA-C7268E1655EB}" name="Tense_agreesment" dataDxfId="2"/>
-    <tableColumn id="28" xr3:uid="{1F4E77A4-0B94-184D-B025-77DA4D0B4E81}" name="sum" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E8A81ADF-8FDA-A64C-A57D-6FA12EDF766A}" name="Correlation" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00BEF632-EA2D-6246-90B6-C0014D489FA1}" name="has_definite_art" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{BAB19402-C14F-964E-8182-E44F3A7A9DD0}" name="has_indefinite_art" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{8CD330E1-23DA-F741-8743-2999A04D5858}" name="has_personal_pro" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{BA2A0D1E-8A0F-4447-B4BC-A7D7381CE6C4}" name="N_encodes_plurality" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{F4EE229A-AD64-7747-8F4D-B69696AF555D}" name="N_encodes_class" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{03E0F05A-4C08-7B43-AEEF-D8A2D52EA73A}" name="N_encodes_case" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{7703BD9E-18FB-7F46-AB65-5E5CC6C87088}" name="Relative_cl_follows_N" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{84530509-1909-DB4B-A3B9-3C585ACBF333}" name="has_postpositions" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{759F2737-4544-3F46-A130-5C9565DE5D13}" name="has_prepositions" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{34F851A4-14B4-FD4E-A4AA-AA0C8D5DD781}" name="A_agrees_w_Nplurality" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{70E5ECEE-041A-BE48-90AF-840467EB4978}" name="A_agrees_w_Nclass" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{EE07A013-1C93-0F44-9C18-4AE1CA4D1ED3}" name="A_agrees_w_Ncase" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{679BC547-A9D5-9A49-80A9-B648709020F4}" name="A_follows_N" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{C35FA572-1689-074B-B324-B7C386EEF087}" name="Obj_follows_V" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{20B38B28-DAA3-4D40-8DAF-FAF653DFD38F}" name="Subj_follows_V" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{E5B7A97D-7E5B-2A42-8C7C-7FDD1C5F3326}" name="Sentence requires_Subj" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{AC8542AF-1D36-3948-B68E-98A0602A1621}" name="V_agrees_w_Subj" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{C6BC0E80-1C56-F547-A12C-033A42B40B92}" name="V_encodes_plurality" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{AF0DCB71-D1DD-B94F-BDE4-76F27102195A}" name="V_encodes_class" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{BD15E09B-4E36-A845-AAEF-BA7F1369B9A0}" name="V_encodes_voice" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{CD1412AE-E0C8-EE41-B1C6-E8C51EBB2FF2}" name="V_encodes_tense" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{ABE62467-3422-8543-A8D9-8B13977C9B33}" name="V_encodes_person" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{BF0BC527-606E-5045-97AA-1E9BC47976E3}" name="V_encodes_aspect" dataDxfId="6"/>
+    <tableColumn id="25" xr3:uid="{9DF274E4-3C86-F049-9D0D-F7F7301719C4}" name="V_infinitive_is_derived" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{BB73562D-4A24-814C-8639-43EE7D8D8C4A}" name="V_agrees_w_Obj" dataDxfId="4"/>
+    <tableColumn id="27" xr3:uid="{21C0EF0B-E5A8-A14E-BDBA-C7268E1655EB}" name="Tense_agreement" dataDxfId="3"/>
+    <tableColumn id="28" xr3:uid="{1F4E77A4-0B94-184D-B025-77DA4D0B4E81}" name="sum" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3096,6 +4944,23 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AA5" dT="2024-07-01T03:43:53.00" personId="{9408DD04-EC8D-804C-AA3C-D54A08AC4BD3}" id="{55826923-6CA2-C94C-84CC-3A673871B098}">
+    <text>questionable</text>
+  </threadedComment>
+  <threadedComment ref="G7" dT="2024-02-06T06:08:36.53" personId="{966F3633-AABE-2A40-8B83-38837EE06320}" id="{8A783A40-AA4E-554B-9889-FD68A533D0F8}">
+    <text>Only locative</text>
+  </threadedComment>
+  <threadedComment ref="S12" dT="2024-07-01T03:47:44.81" personId="{9408DD04-EC8D-804C-AA3C-D54A08AC4BD3}" id="{C3B07047-1F5C-DE45-B23C-D9974E443C4A}">
+    <text>questionable</text>
+  </threadedComment>
+  <threadedComment ref="S13" dT="2024-07-01T03:47:44.81" personId="{9408DD04-EC8D-804C-AA3C-D54A08AC4BD3}" id="{1B993306-62DB-EA4B-9392-79D623AE7072}">
+    <text>questionable</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="G10" dT="2024-02-06T06:08:36.53" personId="{966F3633-AABE-2A40-8B83-38837EE06320}" id="{346B38C6-799F-2047-94DE-E3C24A151880}">
     <text>Only locative</text>
   </threadedComment>
@@ -3103,20 +4968,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCBA829-B2C3-7F45-90B5-C286C02D0432}">
+  <dimension ref="A1:AE56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="8480" ySplit="3100" topLeftCell="L1" activePane="bottomRight"/>
-      <selection sqref="A1:AA22"/>
-      <selection pane="topRight" activeCell="AJ3" sqref="AJ3"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+    <sheetView zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="8480" ySplit="3100" topLeftCell="N29" activePane="bottomLeft"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="topRight" activeCell="AA1" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
     <col min="2" max="16" width="7.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="7.625" style="10" customWidth="1"/>
     <col min="18" max="22" width="7.625" style="1" customWidth="1"/>
@@ -3211,10 +5076,10 @@
         <v>36</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="21" x14ac:dyDescent="0.35">
@@ -3300,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="AB2" s="1">
-        <f t="shared" ref="AB2:AB22" si="0">SUM(B2:AA2)</f>
+        <f t="shared" ref="AB2:AB23" si="0">SUM(B2:AA2)</f>
         <v>20</v>
       </c>
       <c r="AE2" s="1"/>
@@ -3364,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>1</v>
@@ -3389,7 +5254,7 @@
       </c>
       <c r="AB3" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE3" s="1"/>
     </row>
@@ -3571,7 +5436,4080 @@
     </row>
     <row r="6" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>1</v>
+      </c>
+      <c r="V11" s="5">
+        <v>1</v>
+      </c>
+      <c r="W11" s="5">
+        <v>1</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>1</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>1</v>
+      </c>
+      <c r="V13" s="5">
+        <v>1</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5">
+        <v>1</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>1</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1</v>
+      </c>
+      <c r="X14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5">
+        <v>1</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>1</v>
+      </c>
+      <c r="V15" s="5">
+        <v>1</v>
+      </c>
+      <c r="W15" s="5">
+        <v>1</v>
+      </c>
+      <c r="X15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>1</v>
+      </c>
+      <c r="V16" s="5">
+        <v>1</v>
+      </c>
+      <c r="W16" s="5">
+        <v>1</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
+        <v>1</v>
+      </c>
+      <c r="V17" s="5">
+        <v>1</v>
+      </c>
+      <c r="W17" s="5">
+        <v>1</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>1</v>
+      </c>
+      <c r="S18" s="8">
+        <v>1</v>
+      </c>
+      <c r="T18" s="8">
+        <v>1</v>
+      </c>
+      <c r="U18" s="8">
+        <v>1</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0</v>
+      </c>
+      <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0</v>
+      </c>
+      <c r="U21" s="8">
+        <v>1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0</v>
+      </c>
+      <c r="U22" s="8">
+        <v>1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>1</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0</v>
+      </c>
+      <c r="T23" s="8">
+        <v>0</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="25" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
+        <f>SUM(B$2:B$23)</f>
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:AA25" si="1">SUM(C2:C23)</f>
+        <v>6</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AB25" s="1">
+        <f>SUM(AB2:AB23)</f>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:AB26" si="2">AVERAGE(B$2:B$23)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86363636363636365</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AA26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="2"/>
+        <v>14.272727272727273</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="63" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y29" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J30" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.79388418603744482</v>
+      </c>
+      <c r="K30" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.29277002188455992</v>
+      </c>
+      <c r="L30" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.48795003647426649</v>
+      </c>
+      <c r="M30" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.1992047682223988</v>
+      </c>
+      <c r="N30" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.36991017400652398</v>
+      </c>
+      <c r="O30" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.79388418603744482</v>
+      </c>
+      <c r="P30" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.27144835701531833</v>
+      </c>
+      <c r="Q30" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.37047928681747427</v>
+      </c>
+      <c r="R30" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.43704152091682424</v>
+      </c>
+      <c r="S30" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-1.9920476822239921E-2</v>
+      </c>
+      <c r="T30" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.25714285714285717</v>
+      </c>
+      <c r="U30" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="V30" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21602468994692864</v>
+      </c>
+      <c r="W30" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.16190476190476191</v>
+      </c>
+      <c r="X30" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.35634832254989918</v>
+      </c>
+      <c r="Y30" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37047928681747405</v>
+      </c>
+      <c r="Z30" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.43704152091682452</v>
+      </c>
+      <c r="AA30" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.46666666666666679</v>
+      </c>
+      <c r="AB30" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.48976229911514368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="11">
+        <f>_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.21057989315866546</v>
+      </c>
+      <c r="I31" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.4240433702026008</v>
+      </c>
+      <c r="J31" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.43118740027726726</v>
+      </c>
+      <c r="K31" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>9.2450032704204904E-2</v>
+      </c>
+      <c r="L31" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.245003270420489E-2</v>
+      </c>
+      <c r="M31" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.52839594926747824</v>
+      </c>
+      <c r="N31" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.50427350427350448</v>
+      </c>
+      <c r="O31" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.43118740027726726</v>
+      </c>
+      <c r="P31" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.33062326126679037</v>
+      </c>
+      <c r="Q31" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.23063512107853831</v>
+      </c>
+      <c r="R31" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-8.7162726728081799E-2</v>
+      </c>
+      <c r="S31" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>9.4356419512049705E-2</v>
+      </c>
+      <c r="T31" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.17142178795424282</v>
+      </c>
+      <c r="U31" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.18156825980064076</v>
+      </c>
+      <c r="V31" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.26311740579210885</v>
+      </c>
+      <c r="W31" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.17142178795424287</v>
+      </c>
+      <c r="X31" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.35445877847928348</v>
+      </c>
+      <c r="Y31" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.45124262819714012</v>
+      </c>
+      <c r="Z31" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.15253477177414321</v>
+      </c>
+      <c r="AA31" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.3699101740065241</v>
+      </c>
+      <c r="AB31" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.13349225273817122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z32" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$Z$2:$Z$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="AA32" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$Z$2:$Z$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.32203059435976522</v>
+      </c>
+      <c r="AB32" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$Z$2:$Z$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.1162135905214088</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="Q33" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41663054538992844</v>
+      </c>
+      <c r="R33" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.18731716231633877</v>
+      </c>
+      <c r="S33" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.35147974578331898</v>
+      </c>
+      <c r="T33" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.2926112238824759E-2</v>
+      </c>
+      <c r="U33" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>8.6710996952412009E-2</v>
+      </c>
+      <c r="V33" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.12565617248750865</v>
+      </c>
+      <c r="W33" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.29730058149296784</v>
+      </c>
+      <c r="X33" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.36273812505500591</v>
+      </c>
+      <c r="Y33" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.41663054538992828</v>
+      </c>
+      <c r="Z33" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.18731716231633885</v>
+      </c>
+      <c r="AA33" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58167505074711112</v>
+      </c>
+      <c r="AB33" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15860125713603243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q34" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="R34" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.25565499628245686</v>
+      </c>
+      <c r="S34" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.39852669849304295</v>
+      </c>
+      <c r="T34" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.37047928681747405</v>
+      </c>
+      <c r="U34" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="V34" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.17149858514250885</v>
+      </c>
+      <c r="W34" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.526610232449341E-2</v>
+      </c>
+      <c r="X34" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.15842360687626783</v>
+      </c>
+      <c r="Y34" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.22352941176470581</v>
+      </c>
+      <c r="Z34" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.25565499628245697</v>
+      </c>
+      <c r="AA34" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.79388418603744504</v>
+      </c>
+      <c r="AB34" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.24447567129096751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y35" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="Z35" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-2.55654996282457E-2</v>
+      </c>
+      <c r="AA35" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.526610232449341E-2</v>
+      </c>
+      <c r="AB35" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.25975540074665293</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA36" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$AA$2:$AA$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AB36" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$AA$2:$AA$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.3986836961218011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="N37" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.301940542438559</v>
+      </c>
+      <c r="O37" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.33210558207753571</v>
+      </c>
+      <c r="P37" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.24333213169614387</v>
+      </c>
+      <c r="Q37" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-8.8561488554009471E-2</v>
+      </c>
+      <c r="R37" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="S37" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="T37" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.23904572186687881</v>
+      </c>
+      <c r="U37" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="V37" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1936491673103708</v>
+      </c>
+      <c r="W37" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41833001326703773</v>
+      </c>
+      <c r="X37" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-5.5901699437494783E-2</v>
+      </c>
+      <c r="Y37" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.33210558207753582</v>
+      </c>
+      <c r="Z37" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.28867513459481287</v>
+      </c>
+      <c r="AA37" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.19920476822239877</v>
+      </c>
+      <c r="AB37" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.40257568662616999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="11">
+        <f>_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D38" s="11">
+        <f>_xlfn.LET(_xlpm.a,D$2:D$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.24333213169614384</v>
+      </c>
+      <c r="E38" s="11">
+        <f>_xlfn.LET(_xlpm.a,E$2:E$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="F38" s="11">
+        <f>_xlfn.LET(_xlpm.a,F$2:F$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>9.4356419512049733E-2</v>
+      </c>
+      <c r="G38" s="11">
+        <f>_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.4356419512049622E-2</v>
+      </c>
+      <c r="H38" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.33210558207753565</v>
+      </c>
+      <c r="I38" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.1992047682223988</v>
+      </c>
+      <c r="J38" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>8.8561488554009485E-2</v>
+      </c>
+      <c r="K38" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.20412414523193151</v>
+      </c>
+      <c r="L38" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.20412414523193159</v>
+      </c>
+      <c r="M38" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>8.3333333333333287E-2</v>
+      </c>
+      <c r="N38" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.4356419512049677E-2</v>
+      </c>
+      <c r="O38" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>8.8561488554009485E-2</v>
+      </c>
+      <c r="P38" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.24333213169614379</v>
+      </c>
+      <c r="Q38" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.39852669849304279</v>
+      </c>
+      <c r="R38" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="S38" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="T38" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.19920476822239874</v>
+      </c>
+      <c r="U38" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="V38" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1936491673103708</v>
+      </c>
+      <c r="W38" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41833001326703773</v>
+      </c>
+      <c r="X38" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-5.5901699437494783E-2</v>
+      </c>
+      <c r="Y38" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.33210558207753582</v>
+      </c>
+      <c r="Z38" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-2.4056261216234446E-2</v>
+      </c>
+      <c r="AA38" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.45817096691151754</v>
+      </c>
+      <c r="AB38" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.40257568662616999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T39" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="U39" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="V39" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.12344267996967354</v>
+      </c>
+      <c r="W39" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.25714285714285706</v>
+      </c>
+      <c r="X39" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.62360956446232374</v>
+      </c>
+      <c r="Y39" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.13760659224649033</v>
+      </c>
+      <c r="Z39" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.18401748249129452</v>
+      </c>
+      <c r="AA39" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.25714285714285712</v>
+      </c>
+      <c r="AB39" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41758680240343821</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N40" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="O40" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.45124262819714017</v>
+      </c>
+      <c r="P40" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.47756693294091968</v>
+      </c>
+      <c r="Q40" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21057989315866549</v>
+      </c>
+      <c r="R40" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.39223227027636826</v>
+      </c>
+      <c r="S40" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>9.4356419512049622E-2</v>
+      </c>
+      <c r="T40" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.2255549841503196</v>
+      </c>
+      <c r="U40" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.18156825980064079</v>
+      </c>
+      <c r="V40" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-5.8470534620468605E-2</v>
+      </c>
+      <c r="W40" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-2.7066598098038415E-2</v>
+      </c>
+      <c r="X40" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.3882167573820724</v>
+      </c>
+      <c r="Y40" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.21057989315866543</v>
+      </c>
+      <c r="Z40" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>8.7162726728081827E-2</v>
+      </c>
+      <c r="AA40" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.42404337020260074</v>
+      </c>
+      <c r="AB40" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.42164016413641875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="V41" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="W41" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.46291004988627593</v>
+      </c>
+      <c r="X41" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>2.8867513459481332E-2</v>
+      </c>
+      <c r="Y41" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.5830951894845301</v>
+      </c>
+      <c r="Z41" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.26087459737497565</v>
+      </c>
+      <c r="AA41" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21602468994692858</v>
+      </c>
+      <c r="AB41" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.4454768371117635</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U42" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="V42" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.69006555934235425</v>
+      </c>
+      <c r="W42" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="X42" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.23904572186687872</v>
+      </c>
+      <c r="Y42" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.40237390808147816</v>
+      </c>
+      <c r="Z42" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.10286889997472795</v>
+      </c>
+      <c r="AA42" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="AB42" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.4764827453021675</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="11">
+        <f>_xlfn.LET(_xlpm.a,D$2:D$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E43" s="11">
+        <f>_xlfn.LET(_xlpm.a,E$2:E$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35147974578331886</v>
+      </c>
+      <c r="F43" s="11">
+        <f>_xlfn.LET(_xlpm.a,F$2:F$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.47756693294091929</v>
+      </c>
+      <c r="G43" s="11">
+        <f>_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.47756693294091945</v>
+      </c>
+      <c r="H43" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41663054538992844</v>
+      </c>
+      <c r="I43" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.58167505074711112</v>
+      </c>
+      <c r="J43" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41663054538992822</v>
+      </c>
+      <c r="K43" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.13245323570650436</v>
+      </c>
+      <c r="L43" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.39735970711951318</v>
+      </c>
+      <c r="M43" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-5.4073807043587496E-2</v>
+      </c>
+      <c r="N43" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.33062326126679031</v>
+      </c>
+      <c r="O43" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41663054538992822</v>
+      </c>
+      <c r="P43" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15789473684210531</v>
+      </c>
+      <c r="Q43" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21549855796030784</v>
+      </c>
+      <c r="R43" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.49951243284357005</v>
+      </c>
+      <c r="S43" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35147974578331886</v>
+      </c>
+      <c r="T43" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.27144835701531833</v>
+      </c>
+      <c r="U43" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-8.6710996952411995E-2</v>
+      </c>
+      <c r="V43" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.12565617248750865</v>
+      </c>
+      <c r="W43" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.2973005814929679</v>
+      </c>
+      <c r="X43" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.43528575006600717</v>
+      </c>
+      <c r="Y43" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.2154985579603077</v>
+      </c>
+      <c r="Z43" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.18731716231633883</v>
+      </c>
+      <c r="AA43" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.27144835701531839</v>
+      </c>
+      <c r="AB43" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.48280088569351043</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X44" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="Y44" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.2772413120334688</v>
+      </c>
+      <c r="Z44" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.19364916731037088</v>
+      </c>
+      <c r="AA44" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>3.5634832254989909E-2</v>
+      </c>
+      <c r="AB44" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.52564467616574917</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="11">
+        <f>_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.61237243569579436</v>
+      </c>
+      <c r="D45" s="11">
+        <f>_xlfn.LET(_xlpm.a,D$2:D$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.39735970711951318</v>
+      </c>
+      <c r="E45" s="11">
+        <f>_xlfn.LET(_xlpm.a,E$2:E$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.61237243569579458</v>
+      </c>
+      <c r="F45" s="11">
+        <f>_xlfn.LET(_xlpm.a,F$2:F$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.46225016352102433</v>
+      </c>
+      <c r="G45" s="11">
+        <f>_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.46225016352102438</v>
+      </c>
+      <c r="H45" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.5423261445466403</v>
+      </c>
+      <c r="I45" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.48795003647426649</v>
+      </c>
+      <c r="J45" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32539568672798419</v>
+      </c>
+      <c r="K45" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L45" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="M45" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.20412414523193159</v>
+      </c>
+      <c r="N45" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.27735009811261463</v>
+      </c>
+      <c r="O45" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32539568672798419</v>
+      </c>
+      <c r="P45" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.39735970711951318</v>
+      </c>
+      <c r="Q45" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.54232614454664063</v>
+      </c>
+      <c r="R45" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.47140452079103168</v>
+      </c>
+      <c r="S45" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>2.2662332591841973E-17</v>
+      </c>
+      <c r="T45" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.7590007294853301E-2</v>
+      </c>
+      <c r="U45" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21821789023599239</v>
+      </c>
+      <c r="V45" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.316227766016838</v>
+      </c>
+      <c r="W45" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.29277002188455997</v>
+      </c>
+      <c r="X45" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.36514837167011077</v>
+      </c>
+      <c r="Y45" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.10846522890932807</v>
+      </c>
+      <c r="Z45" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.23570226039551592</v>
+      </c>
+      <c r="AA45" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.68313005106397329</v>
+      </c>
+      <c r="AB45" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.54587956192188669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="T46" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41833001326703767</v>
+      </c>
+      <c r="U46" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35634832254989912</v>
+      </c>
+      <c r="V46" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1613743060919757</v>
+      </c>
+      <c r="W46" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.67729621195615652</v>
+      </c>
+      <c r="X46" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.26087459737497548</v>
+      </c>
+      <c r="Y46" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.39852669849304267</v>
+      </c>
+      <c r="Z46" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="AA46" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.23904572186687875</v>
+      </c>
+      <c r="AB46" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.5661220593180516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="K47" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.54232614454664019</v>
+      </c>
+      <c r="L47" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.54232614454664008</v>
+      </c>
+      <c r="M47" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.33210558207753571</v>
+      </c>
+      <c r="N47" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.45124262819714017</v>
+      </c>
+      <c r="O47" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="P47" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21549855796030781</v>
+      </c>
+      <c r="Q47" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="R47" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58800649144965034</v>
+      </c>
+      <c r="S47" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15498260496951666</v>
+      </c>
+      <c r="T47" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37047928681747405</v>
+      </c>
+      <c r="U47" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="V47" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.17149858514250879</v>
+      </c>
+      <c r="W47" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.3281387968954772</v>
+      </c>
+      <c r="X47" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37625606633113612</v>
+      </c>
+      <c r="Y47" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.29411764705882343</v>
+      </c>
+      <c r="Z47" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.30678599553894814</v>
+      </c>
+      <c r="AA47" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.370479286817474</v>
+      </c>
+      <c r="AB47" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.63792870477486818</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O48" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="P48" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21549855796030781</v>
+      </c>
+      <c r="Q48" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="R48" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58800649144965034</v>
+      </c>
+      <c r="S48" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15498260496951666</v>
+      </c>
+      <c r="T48" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37047928681747405</v>
+      </c>
+      <c r="U48" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="V48" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.17149858514250879</v>
+      </c>
+      <c r="W48" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.3281387968954772</v>
+      </c>
+      <c r="X48" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37625606633113612</v>
+      </c>
+      <c r="Y48" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.29411764705882343</v>
+      </c>
+      <c r="Z48" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.30678599553894814</v>
+      </c>
+      <c r="AA48" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.370479286817474</v>
+      </c>
+      <c r="AB48" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.63792870477486818</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="L49" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="M49" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.61237243569579425</v>
+      </c>
+      <c r="N49" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>9.245003270420489E-2</v>
+      </c>
+      <c r="O49" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.54232614454664019</v>
+      </c>
+      <c r="P49" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.39735970711951318</v>
+      </c>
+      <c r="Q49" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.10846522890932812</v>
+      </c>
+      <c r="R49" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.47140452079103168</v>
+      </c>
+      <c r="S49" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.61237243569579469</v>
+      </c>
+      <c r="T49" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.29277002188456003</v>
+      </c>
+      <c r="U49" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21821789023599239</v>
+      </c>
+      <c r="V49" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.316227766016838</v>
+      </c>
+      <c r="W49" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.68313005106397329</v>
+      </c>
+      <c r="X49" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.18257418583505539</v>
+      </c>
+      <c r="Y49" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32539568672798397</v>
+      </c>
+      <c r="Z49" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.23570226039551587</v>
+      </c>
+      <c r="AA49" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.7590007294853301E-2</v>
+      </c>
+      <c r="AB49" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.68675170693398646</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W50" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="X50" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.16035674514745468</v>
+      </c>
+      <c r="Y50" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.56101149146646079</v>
+      </c>
+      <c r="Z50" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.18401748249129449</v>
+      </c>
+      <c r="AA50" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>4.7619047619047582E-2</v>
+      </c>
+      <c r="AB50" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.73550268077642622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="M51" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.4082482904638628</v>
+      </c>
+      <c r="N51" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.27735009811261463</v>
+      </c>
+      <c r="O51" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.54232614454664008</v>
+      </c>
+      <c r="P51" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.13245323570650452</v>
+      </c>
+      <c r="Q51" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.10846522890932812</v>
+      </c>
+      <c r="R51" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.47140452079103168</v>
+      </c>
+      <c r="S51" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.61237243569579469</v>
+      </c>
+      <c r="T51" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.48795003647426671</v>
+      </c>
+      <c r="U51" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21821789023599239</v>
+      </c>
+      <c r="V51" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.316227766016838</v>
+      </c>
+      <c r="W51" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.68313005106397329</v>
+      </c>
+      <c r="X51" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.36514837167011077</v>
+      </c>
+      <c r="Y51" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32539568672798397</v>
+      </c>
+      <c r="Z51" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.23570226039551587</v>
+      </c>
+      <c r="AA51" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>9.7590007294853273E-2</v>
+      </c>
+      <c r="AB51" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.77479679756654884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="11">
+        <f>_xlfn.LET(_xlpm.a,F$2:F$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="G52" s="11">
+        <f>_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.24786324786324793</v>
+      </c>
+      <c r="H52" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.65179490739586898</v>
+      </c>
+      <c r="I52" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.62253175625488166</v>
+      </c>
+      <c r="J52" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.65179490739586898</v>
+      </c>
+      <c r="K52" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.64715022892943408</v>
+      </c>
+      <c r="L52" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.83205029433784383</v>
+      </c>
+      <c r="M52" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30194054243855895</v>
+      </c>
+      <c r="N52" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.50427350427350448</v>
+      </c>
+      <c r="O52" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.65179490739586898</v>
+      </c>
+      <c r="P52" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.33062326126679037</v>
+      </c>
+      <c r="Q52" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.23063512107853826</v>
+      </c>
+      <c r="R52" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.56655772373253166</v>
+      </c>
+      <c r="S52" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32081182634096872</v>
+      </c>
+      <c r="T52" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.36991017400652404</v>
+      </c>
+      <c r="U52" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.26226526415648116</v>
+      </c>
+      <c r="V52" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.38005847503304596</v>
+      </c>
+      <c r="W52" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.42404337020260074</v>
+      </c>
+      <c r="X52" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.54012766244462218</v>
+      </c>
+      <c r="Y52" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-1.0027613959936474E-2</v>
+      </c>
+      <c r="Z52" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.32686022523030678</v>
+      </c>
+      <c r="AA52" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.3699101740065241</v>
+      </c>
+      <c r="AB52" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.81397715084250721</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R53" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="S53" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.50518148554092246</v>
+      </c>
+      <c r="T53" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32203059435976533</v>
+      </c>
+      <c r="U53" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.46291004988627565</v>
+      </c>
+      <c r="V53" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.26087459737497548</v>
+      </c>
+      <c r="W53" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.69006555934235436</v>
+      </c>
+      <c r="X53" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.51639777949432242</v>
+      </c>
+      <c r="Y53" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>2.556549962824568E-2</v>
+      </c>
+      <c r="Z53" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-8.333333333333337E-2</v>
+      </c>
+      <c r="AA53" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32203059435976533</v>
+      </c>
+      <c r="AB53" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.84669901665597869</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H54" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="I54" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.56101149146646101</v>
+      </c>
+      <c r="J54" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.7411764705882351</v>
+      </c>
+      <c r="K54" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.5423261445466403</v>
+      </c>
+      <c r="L54" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.54232614454664041</v>
+      </c>
+      <c r="M54" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.33210558207753571</v>
+      </c>
+      <c r="N54" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.45124262819714023</v>
+      </c>
+      <c r="O54" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.7411764705882351</v>
+      </c>
+      <c r="P54" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21549855796030778</v>
+      </c>
+      <c r="Q54" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.29411764705882359</v>
+      </c>
+      <c r="R54" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.86922698736035309</v>
+      </c>
+      <c r="S54" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.39852669849304279</v>
+      </c>
+      <c r="T54" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37047928681747411</v>
+      </c>
+      <c r="U54" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.40237390808147822</v>
+      </c>
+      <c r="V54" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.20579830217101064</v>
+      </c>
+      <c r="W54" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.56101149146646112</v>
+      </c>
+      <c r="X54" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.59408852578600457</v>
+      </c>
+      <c r="Y54" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-3.5294117647058809E-2</v>
+      </c>
+      <c r="Z54" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-2.5565499628245711E-2</v>
+      </c>
+      <c r="AA54" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37047928681747405</v>
+      </c>
+      <c r="AB54" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.89004424079367839</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="11">
+        <f>_xlfn.LET(_xlpm.a,E$2:E$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F55" s="11">
+        <f>_xlfn.LET(_xlpm.a,F$2:F$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.7359800721939872</v>
+      </c>
+      <c r="G55" s="11">
+        <f>_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.11322770341445965</v>
+      </c>
+      <c r="H55" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.88561488554009526</v>
+      </c>
+      <c r="I55" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.4581709669115176</v>
+      </c>
+      <c r="J55" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.64207079201656891</v>
+      </c>
+      <c r="K55" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.61237243569579458</v>
+      </c>
+      <c r="L55" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.61237243569579458</v>
+      </c>
+      <c r="M55" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="N55" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30194054243855895</v>
+      </c>
+      <c r="O55" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.64207079201656891</v>
+      </c>
+      <c r="P55" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.24333213169614387</v>
+      </c>
+      <c r="Q55" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.33210558207753577</v>
+      </c>
+      <c r="R55" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.76980035891950083</v>
+      </c>
+      <c r="S55" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.31249999999999994</v>
+      </c>
+      <c r="T55" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.19920476822239885</v>
+      </c>
+      <c r="U55" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="V55" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.51639777949432242</v>
+      </c>
+      <c r="W55" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.67729621195615652</v>
+      </c>
+      <c r="X55" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.46584749531245623</v>
+      </c>
+      <c r="Y55" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15498260496951669</v>
+      </c>
+      <c r="Z55" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.24056261216234415</v>
+      </c>
+      <c r="AA55" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41833001326703784</v>
+      </c>
+      <c r="AB55" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.90220086913543462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="11"/>
+      <c r="AB56" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$AB$2:$AB$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:P23 R2:AA23">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="&quot;&quot;">
+      <formula>NOT(ISERROR(SEARCH("""""",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:AA26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <color theme="0"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:AB56">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <color theme="0"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="8480" ySplit="3100" topLeftCell="S38" activePane="bottomLeft"/>
+      <selection sqref="A1:A1048576"/>
+      <selection pane="topRight" activeCell="AA1" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomRight" activeCell="X59" sqref="X59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="16" width="7.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="10" customWidth="1"/>
+    <col min="18" max="22" width="7.625" style="1" customWidth="1"/>
+    <col min="23" max="26" width="7.625" style="10" customWidth="1"/>
+    <col min="27" max="27" width="7.625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.25" style="1" customWidth="1"/>
+    <col min="29" max="29" width="3.875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.75" style="10" customWidth="1"/>
+    <col min="32" max="33" width="4" style="1" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="7.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <f t="shared" ref="AB2:AB22" si="0">SUM(B2:AA2)</f>
+        <v>20</v>
+      </c>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -5293,7 +11231,7 @@
     </row>
     <row r="28" spans="1:31" ht="63" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
@@ -5320,7 +11258,7 @@
         <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>32</v>
@@ -5332,7 +11270,7 @@
         <v>34</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>45</v>
@@ -5365,1659 +11303,1659 @@
         <v>31</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z28" s="10" t="s">
         <v>36</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="11">
-        <f>_xlfn.LET(_xlpm.a,B$2:B$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="C29" s="11">
-        <f t="shared" ref="C29:AB29" si="4">_xlfn.LET(_xlpm.a,C$2:C$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.66332495807108016</v>
-      </c>
-      <c r="D29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.38924947208076155</v>
-      </c>
-      <c r="E29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.60302268915552715</v>
-      </c>
-      <c r="F29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.44038550605054416</v>
-      </c>
-      <c r="G29" s="11">
-        <f>_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.44038550605054438</v>
-      </c>
-      <c r="H29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.53300179088902622</v>
+        <v>17</v>
       </c>
       <c r="I29" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.47193990372426958</v>
+        <f>_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
       </c>
       <c r="J29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.30914103871563514</v>
+        <f>_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.79056941504209488</v>
       </c>
       <c r="K29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.14545454545454553</v>
+        <f>_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.33709993123162113</v>
       </c>
       <c r="L29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.33636363636363648</v>
+        <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.53935988997059392</v>
       </c>
       <c r="M29" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.18090680674665818</v>
+        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.22360679774997891</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.23373674750211432</v>
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.34668762264076819</v>
       </c>
       <c r="O29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.30914103871563514</v>
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.79056941504209488</v>
       </c>
       <c r="P29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.34027852368936051</v>
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.22941573387056177</v>
       </c>
       <c r="Q29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.5087470190691683</v>
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.34299717028501753</v>
       </c>
       <c r="R29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.46249729006288043</v>
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.4287464628562721</v>
       </c>
       <c r="S29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.21968621277986825</v>
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.17149858514250885</v>
       </c>
       <c r="T29" s="11">
-        <f t="shared" si="4"/>
-        <v>3.7397879600338295E-2</v>
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.34668762264076813</v>
       </c>
       <c r="U29" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.21320071635561047</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15811388300841897</v>
       </c>
       <c r="V29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.30934411244487303</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.22941573387056172</v>
       </c>
       <c r="W29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.53300179088902622</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.31622776601683794</v>
       </c>
       <c r="X29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.23636363636363639</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.2696799449852969</v>
       </c>
       <c r="Y29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.11677484162422846</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.28867513459481287</v>
       </c>
       <c r="Z29" s="11">
-        <f t="shared" si="4"/>
-        <v>-0.21968621277986811</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.42874646285627199</v>
       </c>
       <c r="AA29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.66332495807108027</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.44721359549995776</v>
       </c>
       <c r="AB29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.5727949742349937</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.50271730430030281</v>
       </c>
     </row>
     <row r="30" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="11">
-        <f>_xlfn.LET(_xlpm.a,C$2:C$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="11">
-        <f t="shared" ref="D30:AB30" si="5">_xlfn.LET(_xlpm.a,D$2:D$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.2581988897471611</v>
-      </c>
-      <c r="E30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-      <c r="F30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.12171612389003679</v>
+        <v>26</v>
       </c>
       <c r="G30" s="11">
-        <f t="shared" si="5"/>
-        <v>-0.12171612389003694</v>
+        <f>_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="H30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.35355339059327379</v>
+        <f>_xlfn.LET(_xlpm.a,H$2:H$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.19364916731037088</v>
       </c>
       <c r="I30" s="11">
-        <f t="shared" si="5"/>
-        <v>-0.22360679774997891</v>
+        <f>_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.40824829046386296</v>
       </c>
       <c r="J30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.10606601717798209</v>
+        <f>_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.41957319583913694</v>
       </c>
       <c r="K30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.18090680674665821</v>
+        <f>_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>5.5048188256318062E-2</v>
       </c>
       <c r="L30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.18090680674665821</v>
+        <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.13762047064079511</v>
       </c>
       <c r="M30" s="11">
-        <f t="shared" si="5"/>
-        <v>6.666666666666661E-2</v>
+        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.51729352653265681</v>
       </c>
       <c r="N30" s="11">
-        <f t="shared" si="5"/>
-        <v>-6.2017367294604157E-2</v>
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.48121773951145319</v>
       </c>
       <c r="O30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.10606601717798209</v>
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.41957319583913694</v>
       </c>
       <c r="P30" s="11">
-        <f t="shared" si="5"/>
-        <v>-0.20519567041703074</v>
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.2809757434745081</v>
       </c>
       <c r="Q30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.4985272427507908</v>
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.1750350105035012</v>
       </c>
       <c r="R30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.30678599553894814</v>
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-7.0014004201400498E-2</v>
       </c>
       <c r="S30" s="11">
-        <f t="shared" si="5"/>
-        <v>3.834824944236849E-2</v>
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-7.001400420140047E-2</v>
       </c>
       <c r="T30" s="11">
-        <f t="shared" si="5"/>
-        <v>-6.2017367294604157E-2</v>
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.28306925853614906</v>
       </c>
       <c r="U30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.1414213562373095</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.19364916731037085</v>
       </c>
       <c r="V30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.2051956704170308</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.28097574347450816</v>
       </c>
       <c r="W30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.35355339059327379</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>3.2274861218395144E-2</v>
       </c>
       <c r="X30" s="11">
-        <f t="shared" si="5"/>
-        <v>3.0151134457776362E-2</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.2477168471534312</v>
       </c>
       <c r="Y30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.25819888974716104</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35355339059327373</v>
       </c>
       <c r="Z30" s="11">
-        <f t="shared" si="5"/>
-        <v>-3.8348249442368497E-2</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.17503501050350123</v>
       </c>
       <c r="AA30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.53333333333333355</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.33471934069760156</v>
       </c>
       <c r="AB30" s="11">
-        <f t="shared" si="5"/>
-        <v>0.40748989888183507</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.15135969154956014</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="11">
-        <f>_xlfn.LET(_xlpm.a,D$2:D$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="E31" s="11">
-        <f t="shared" ref="E31:AB31" si="6">_xlfn.LET(_xlpm.a,E$2:E$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.34426518632954817</v>
-      </c>
-      <c r="F31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.47140452079103168</v>
-      </c>
-      <c r="G31" s="11">
-        <f t="shared" si="6"/>
-        <v>-0.47140452079103179</v>
-      </c>
-      <c r="H31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.41079191812887472</v>
-      </c>
-      <c r="I31" s="11">
-        <f t="shared" si="6"/>
-        <v>-0.57735026918962573</v>
-      </c>
-      <c r="J31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.41079191812887472</v>
-      </c>
-      <c r="K31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.15569978883230465</v>
-      </c>
-      <c r="L31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.42817441928883782</v>
-      </c>
-      <c r="M31" s="11">
-        <f t="shared" si="6"/>
-        <v>-4.3033148291193583E-2</v>
-      </c>
-      <c r="N31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.32025630761017432</v>
-      </c>
-      <c r="O31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.41079191812887472</v>
-      </c>
-      <c r="P31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.13245323570650439</v>
-      </c>
-      <c r="Q31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.1980295085953348</v>
-      </c>
-      <c r="R31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.49507377148833731</v>
-      </c>
-      <c r="S31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.49507377148833731</v>
-      </c>
-      <c r="T31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.32025630761017432</v>
-      </c>
-      <c r="U31" s="11">
-        <f t="shared" si="6"/>
-        <v>-9.1287092917527735E-2</v>
-      </c>
-      <c r="V31" s="11">
-        <f t="shared" si="6"/>
-        <v>-0.13245323570650433</v>
-      </c>
-      <c r="W31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.41079191812887472</v>
-      </c>
-      <c r="X31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.3892494720807616</v>
-      </c>
-      <c r="Y31" s="11">
-        <f t="shared" si="6"/>
-        <v>-0.16666666666666669</v>
+        <v>36</v>
       </c>
       <c r="Z31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.19802950859533486</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$Z$2:$Z$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.99999999999999978</v>
       </c>
       <c r="AA31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.2581988897471611</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$Z$2:$Z$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.30678599553894809</v>
       </c>
       <c r="AB31" s="11">
-        <f t="shared" si="6"/>
-        <v>0.48615865136480535</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$Z$2:$Z$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.12501219430052904</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="11">
-        <f>_xlfn.LET(_xlpm.a,E$2:E$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F32" s="11">
-        <f t="shared" ref="F32:AB32" si="7">_xlfn.LET(_xlpm.a,F$2:F$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.73029674334022132</v>
-      </c>
-      <c r="G32" s="11">
-        <f t="shared" si="7"/>
-        <v>-9.1287092917527651E-2</v>
-      </c>
-      <c r="H32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.88388347648318411</v>
-      </c>
-      <c r="I32" s="11">
-        <f t="shared" si="7"/>
-        <v>-0.44721359549995782</v>
-      </c>
-      <c r="J32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.63639610306789263</v>
-      </c>
-      <c r="K32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.66332495807108016</v>
-      </c>
-      <c r="L32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.66332495807108016</v>
-      </c>
-      <c r="M32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="N32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.27907815282571902</v>
-      </c>
-      <c r="O32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.63639610306789263</v>
+        <v>46</v>
       </c>
       <c r="P32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.20519567041703077</v>
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="Q32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.30678599553894798</v>
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.25573907949350577</v>
       </c>
       <c r="R32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.7669649888473703</v>
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15737789507292679</v>
       </c>
       <c r="S32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.49852724275079069</v>
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15737789507292682</v>
       </c>
       <c r="T32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.27907815282571902</v>
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>7.9535595371972134E-2</v>
       </c>
       <c r="U32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.35355339059327379</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>7.2547625011001191E-2</v>
       </c>
       <c r="V32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.51298917604257699</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.10526315789473686</v>
       </c>
       <c r="W32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.88388347648318411</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1813690625275029</v>
       </c>
       <c r="X32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.39196474795109265</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.5467205622243661E-2</v>
       </c>
       <c r="Y32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.34426518632954817</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.13245323570650439</v>
       </c>
       <c r="Z32" s="11">
-        <f t="shared" si="7"/>
-        <v>-0.23008949665421116</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.15737789507292679</v>
       </c>
       <c r="AA32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.4</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.51298917604257721</v>
       </c>
       <c r="AB32" s="11">
-        <f t="shared" si="7"/>
-        <v>0.91052915336354856</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21912939266142056</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="11">
-        <f>_xlfn.LET(_xlpm.a,F$2:F$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1</v>
-      </c>
-      <c r="G33" s="11">
-        <f t="shared" ref="G33:AB33" si="8">_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.22222222222222221</v>
-      </c>
-      <c r="H33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.6454972243679028</v>
-      </c>
-      <c r="I33" s="11">
-        <f t="shared" si="8"/>
-        <v>-0.61237243569579425</v>
-      </c>
-      <c r="J33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.6454972243679028</v>
-      </c>
-      <c r="K33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.71562644733213443</v>
-      </c>
-      <c r="L33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.9082951062292477</v>
-      </c>
-      <c r="M33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.3347193406976014</v>
-      </c>
-      <c r="N33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.48121773951145319</v>
-      </c>
-      <c r="O33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.6454972243679028</v>
-      </c>
-      <c r="P33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.2809757434745081</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.1750350105035012</v>
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
       </c>
       <c r="R33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.56011203361120387</v>
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.23529411764705876</v>
       </c>
       <c r="S33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.56011203361120387</v>
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-7.3529411764705774E-2</v>
       </c>
       <c r="T33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.4812177395114533</v>
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.38052119532359546</v>
       </c>
       <c r="U33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.2581988897471611</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.10846522890932805</v>
       </c>
       <c r="V33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.37463432463267754</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15737789507292674</v>
       </c>
       <c r="W33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.6454972243679028</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.27116307227332009</v>
       </c>
       <c r="X33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.44038550605054416</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.46249729006288032</v>
       </c>
       <c r="Y33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.19641855032959649</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.19802950859533477</v>
       </c>
       <c r="Z33" s="11">
-        <f t="shared" si="8"/>
-        <v>-0.31506301890630217</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.23529411764705885</v>
       </c>
       <c r="AA33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.3347193406976014</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.7669649888473703</v>
       </c>
       <c r="AB33" s="11">
-        <f t="shared" si="8"/>
-        <v>0.83376101277300074</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.28235512850636746</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="11">
-        <f>_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>50</v>
+      </c>
+      <c r="Y34" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$Y$2:$Y$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H34" s="11">
-        <f t="shared" ref="H34:AB34" si="9">_xlfn.LET(_xlpm.a,H$2:H$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.19364916731037088</v>
-      </c>
-      <c r="I34" s="11">
-        <f t="shared" si="9"/>
-        <v>0.40824829046386296</v>
-      </c>
-      <c r="J34" s="11">
-        <f t="shared" si="9"/>
-        <v>-0.41957319583913694</v>
-      </c>
-      <c r="K34" s="11">
-        <f t="shared" si="9"/>
-        <v>5.5048188256318062E-2</v>
-      </c>
-      <c r="L34" s="11">
-        <f t="shared" si="9"/>
-        <v>-0.13762047064079511</v>
-      </c>
-      <c r="M34" s="11">
-        <f t="shared" si="9"/>
-        <v>0.51729352653265681</v>
-      </c>
-      <c r="N34" s="11">
-        <f t="shared" si="9"/>
-        <v>-0.48121773951145319</v>
-      </c>
-      <c r="O34" s="11">
-        <f t="shared" si="9"/>
-        <v>-0.41957319583913694</v>
-      </c>
-      <c r="P34" s="11">
-        <f t="shared" si="9"/>
-        <v>-0.2809757434745081</v>
-      </c>
-      <c r="Q34" s="11">
-        <f t="shared" si="9"/>
-        <v>-0.1750350105035012</v>
-      </c>
-      <c r="R34" s="11">
-        <f t="shared" si="9"/>
-        <v>-7.0014004201400498E-2</v>
-      </c>
-      <c r="S34" s="11">
-        <f t="shared" si="9"/>
-        <v>-7.001400420140047E-2</v>
-      </c>
-      <c r="T34" s="11">
-        <f t="shared" si="9"/>
-        <v>-0.28306925853614906</v>
-      </c>
-      <c r="U34" s="11">
-        <f t="shared" si="9"/>
-        <v>0.19364916731037085</v>
-      </c>
-      <c r="V34" s="11">
-        <f t="shared" si="9"/>
-        <v>0.28097574347450816</v>
-      </c>
-      <c r="W34" s="11">
-        <f t="shared" si="9"/>
-        <v>3.2274861218395144E-2</v>
-      </c>
-      <c r="X34" s="11">
-        <f t="shared" si="9"/>
-        <v>-0.2477168471534312</v>
-      </c>
-      <c r="Y34" s="11">
-        <f t="shared" si="9"/>
-        <v>0.35355339059327373</v>
-      </c>
       <c r="Z34" s="11">
-        <f t="shared" si="9"/>
-        <v>-0.17503501050350123</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$Y$2:$Y$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.1485221314465012</v>
       </c>
       <c r="AA34" s="11">
-        <f t="shared" si="9"/>
-        <v>-0.33471934069760156</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$Y$2:$Y$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.25819888974716104</v>
       </c>
       <c r="AB34" s="11">
-        <f t="shared" si="9"/>
-        <v>-0.15135969154956014</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$Y$2:$Y$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35917691406802782</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" s="11">
-        <f>_xlfn.LET(_xlpm.a,H$2:H$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="I35" s="11">
-        <f t="shared" ref="I35:AB35" si="10">_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.55339859052946638</v>
-      </c>
-      <c r="J35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.73749999999999982</v>
-      </c>
-      <c r="K35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.58630196997792872</v>
-      </c>
-      <c r="L35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.58630196997792872</v>
+        <v>34</v>
       </c>
       <c r="M35" s="11">
-        <f t="shared" si="10"/>
+        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="N35" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.27907815282571913</v>
+      </c>
+      <c r="O35" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="N35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.43852900965351466</v>
-      </c>
-      <c r="O35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.73749999999999982</v>
-      </c>
       <c r="P35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.1813690625275029</v>
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.20519567041703077</v>
       </c>
       <c r="Q35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.27116307227332009</v>
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-3.834824944236849E-2</v>
       </c>
       <c r="R35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.86772183127462477</v>
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30678599553894814</v>
       </c>
       <c r="S35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.58300060538763854</v>
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30678599553894814</v>
       </c>
       <c r="T35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.43852900965351466</v>
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15504341823651066</v>
       </c>
       <c r="U35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.4</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1414213562373095</v>
       </c>
       <c r="V35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.19950596878025317</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.20519567041703082</v>
       </c>
       <c r="W35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.73749999999999982</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35355339059327379</v>
       </c>
       <c r="X35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.53300179088902622</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>3.0151134457776341E-2</v>
       </c>
       <c r="Y35" s="11">
-        <f t="shared" si="10"/>
-        <v>9.1287092917527748E-2</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.25819888974716104</v>
       </c>
       <c r="Z35" s="11">
-        <f t="shared" si="10"/>
-        <v>-1.3558153613666041E-2</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.30678599553894803</v>
       </c>
       <c r="AA35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.35355339059327379</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.16666666666666663</v>
       </c>
       <c r="AB35" s="11">
-        <f t="shared" si="10"/>
-        <v>0.8952176639954964</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.38781797272891888</v>
       </c>
     </row>
     <row r="36" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="C36" s="11">
+        <f>_xlfn.LET(_xlpm.a,C$2:C$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="D36" s="11">
+        <f>_xlfn.LET(_xlpm.a,D$2:D$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="E36" s="11">
+        <f>_xlfn.LET(_xlpm.a,E$2:E$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.4</v>
+      </c>
+      <c r="F36" s="11">
+        <f>_xlfn.LET(_xlpm.a,F$2:F$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.12171612389003679</v>
+      </c>
+      <c r="G36" s="11">
+        <f>_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.12171612389003694</v>
+      </c>
+      <c r="H36" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35355339059327379</v>
       </c>
       <c r="I36" s="11">
-        <f>_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1</v>
+        <f>_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.22360679774997891</v>
       </c>
       <c r="J36" s="11">
-        <f t="shared" ref="J36:AB36" si="11">_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.79056941504209488</v>
+        <f>_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.10606601717798209</v>
       </c>
       <c r="K36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.33709993123162113</v>
+        <f>_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.18090680674665821</v>
       </c>
       <c r="L36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.53935988997059392</v>
+        <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.18090680674665821</v>
       </c>
       <c r="M36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.22360679774997891</v>
+        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>6.666666666666661E-2</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.34668762264076819</v>
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-6.2017367294604157E-2</v>
       </c>
       <c r="O36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.79056941504209488</v>
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.10606601717798209</v>
       </c>
       <c r="P36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.22941573387056177</v>
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.20519567041703074</v>
       </c>
       <c r="Q36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.34299717028501753</v>
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.4985272427507908</v>
       </c>
       <c r="R36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.4287464628562721</v>
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30678599553894814</v>
       </c>
       <c r="S36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.17149858514250885</v>
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>3.834824944236849E-2</v>
       </c>
       <c r="T36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.34668762264076813</v>
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-6.2017367294604157E-2</v>
       </c>
       <c r="U36" s="11">
-        <f t="shared" si="11"/>
-        <v>0.15811388300841897</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1414213562373095</v>
       </c>
       <c r="V36" s="11">
-        <f t="shared" si="11"/>
-        <v>0.22941573387056172</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.2051956704170308</v>
       </c>
       <c r="W36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.31622776601683794</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35355339059327379</v>
       </c>
       <c r="X36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.2696799449852969</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>3.0151134457776362E-2</v>
       </c>
       <c r="Y36" s="11">
-        <f t="shared" si="11"/>
-        <v>0.28867513459481287</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.25819888974716104</v>
       </c>
       <c r="Z36" s="11">
-        <f t="shared" si="11"/>
-        <v>0.42874646285627199</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-3.8348249442368497E-2</v>
       </c>
       <c r="AA36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.44721359549995776</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.53333333333333355</v>
       </c>
       <c r="AB36" s="11">
-        <f t="shared" si="11"/>
-        <v>-0.50271730430030281</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.40748989888183507</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="11">
-        <f>_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="K37" s="11">
-        <f t="shared" ref="K37:AB37" si="12">_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.58630196997792872</v>
-      </c>
-      <c r="L37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.58630196997792872</v>
-      </c>
-      <c r="M37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="N37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.43852900965351471</v>
-      </c>
-      <c r="O37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="P37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.1813690625275029</v>
-      </c>
-      <c r="Q37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.27116307227332009</v>
-      </c>
-      <c r="R37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.58300060538763854</v>
-      </c>
-      <c r="S37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.2982793795006522</v>
-      </c>
-      <c r="T37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.43852900965351471</v>
-      </c>
-      <c r="U37" s="11">
-        <f t="shared" si="12"/>
-        <v>-0.125</v>
-      </c>
-      <c r="V37" s="11">
-        <f t="shared" si="12"/>
-        <v>-0.18136906252750287</v>
-      </c>
-      <c r="W37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.47499999999999987</v>
-      </c>
-      <c r="X37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.30914103871563514</v>
-      </c>
-      <c r="Y37" s="11">
-        <f t="shared" si="12"/>
-        <v>-0.22821773229381925</v>
-      </c>
-      <c r="Z37" s="11">
-        <f t="shared" si="12"/>
-        <v>-0.29827937950065231</v>
+        <v>55</v>
       </c>
       <c r="AA37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.35355339059327379</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$AA$2:$AA$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
       </c>
       <c r="AB37" s="11">
-        <f t="shared" si="12"/>
-        <v>0.644834921124392</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$AA$2:$AA$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.44683375118766744</v>
       </c>
     </row>
     <row r="38" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="11">
-        <f>_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="L38" s="11">
-        <f t="shared" ref="L38:AB38" si="13">_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.80909090909090908</v>
-      </c>
-      <c r="M38" s="11">
-        <f t="shared" si="13"/>
-        <v>0.60302268915552737</v>
-      </c>
-      <c r="N38" s="11">
-        <f t="shared" si="13"/>
-        <v>0.15894098830143777</v>
-      </c>
-      <c r="O38" s="11">
-        <f t="shared" si="13"/>
-        <v>0.58630196997792872</v>
-      </c>
-      <c r="P38" s="11">
-        <f t="shared" si="13"/>
-        <v>-0.34027852368936051</v>
-      </c>
-      <c r="Q38" s="11">
-        <f t="shared" si="13"/>
-        <v>-2.3124864503144001E-2</v>
-      </c>
-      <c r="R38" s="11">
-        <f t="shared" si="13"/>
-        <v>0.50874701906916853</v>
-      </c>
-      <c r="S38" s="11">
-        <f t="shared" si="13"/>
-        <v>0.50874701906916853</v>
-      </c>
-      <c r="T38" s="11">
-        <f t="shared" si="13"/>
-        <v>0.35527985620321378</v>
-      </c>
-      <c r="U38" s="11">
-        <f t="shared" si="13"/>
-        <v>0.23452078799117154</v>
+        <v>29</v>
       </c>
       <c r="V38" s="11">
-        <f t="shared" si="13"/>
-        <v>0.34027852368936046</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$V$2:$V$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
       </c>
       <c r="W38" s="11">
-        <f t="shared" si="13"/>
-        <v>0.58630196997792872</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$V$2:$V$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.5803810000880093</v>
       </c>
       <c r="X38" s="11">
-        <f t="shared" si="13"/>
-        <v>0.33636363636363648</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$V$2:$V$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-1.5467205622243669E-2</v>
       </c>
       <c r="Y38" s="11">
-        <f t="shared" si="13"/>
-        <v>0.15569978883230465</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$V$2:$V$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.79471941423902637</v>
       </c>
       <c r="Z38" s="11">
-        <f t="shared" si="13"/>
-        <v>-0.26593594178615626</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$V$2:$V$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.25573907949350588</v>
       </c>
       <c r="AA38" s="11">
-        <f t="shared" si="13"/>
-        <v>-3.0151134457776414E-2</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$V$2:$V$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.2051956704170308</v>
       </c>
       <c r="AB38" s="11">
-        <f t="shared" si="13"/>
-        <v>0.69057382248745525</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$V$2:$V$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.44690862977000234</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" s="11">
-        <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="M39" s="11">
-        <f t="shared" ref="M39:AB39" si="14">_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.39196474795109271</v>
+        <v>49</v>
       </c>
       <c r="N39" s="11">
-        <f t="shared" si="14"/>
-        <v>0.3552798562032139</v>
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O39" s="11">
-        <f t="shared" si="14"/>
-        <v>0.58630196997792872</v>
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.43852900965351471</v>
       </c>
       <c r="P39" s="11">
-        <f t="shared" si="14"/>
-        <v>-1.5467205622243664E-2</v>
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41358509593425546</v>
       </c>
       <c r="Q39" s="11">
-        <f t="shared" si="14"/>
-        <v>-2.3124864503143949E-2</v>
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.11891287353862352</v>
       </c>
       <c r="R39" s="11">
-        <f t="shared" si="14"/>
-        <v>0.50874701906916853</v>
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.38052119532359535</v>
       </c>
       <c r="S39" s="11">
-        <f t="shared" si="14"/>
-        <v>0.50874701906916853</v>
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.38052119532359541</v>
       </c>
       <c r="T39" s="11">
-        <f t="shared" si="14"/>
-        <v>0.5516187241049898</v>
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.39423076923076916</v>
       </c>
       <c r="U39" s="11">
-        <f t="shared" si="14"/>
-        <v>0.23452078799117154</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.17541160386140589</v>
       </c>
       <c r="V39" s="11">
-        <f t="shared" si="14"/>
-        <v>0.34027852368936046</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-7.9535595371972176E-2</v>
       </c>
       <c r="W39" s="11">
-        <f t="shared" si="14"/>
-        <v>0.58630196997792872</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.20830127958541941</v>
       </c>
       <c r="X39" s="11">
-        <f t="shared" si="14"/>
-        <v>0.52727272727272745</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.23373674750211437</v>
       </c>
       <c r="Y39" s="11">
-        <f t="shared" si="14"/>
-        <v>0.15569978883230465</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>4.0032038451271783E-2</v>
       </c>
       <c r="Z39" s="11">
-        <f t="shared" si="14"/>
-        <v>-0.26593594178615626</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.11891287353862354</v>
       </c>
       <c r="AA39" s="11">
-        <f t="shared" si="14"/>
-        <v>0.18090680674665824</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37210420376762521</v>
       </c>
       <c r="AB39" s="11">
-        <f t="shared" si="14"/>
-        <v>0.77954345605945863</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.45662897177120887</v>
       </c>
     </row>
     <row r="40" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M40" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1</v>
-      </c>
-      <c r="N40" s="11">
-        <f t="shared" ref="N40:AB40" si="15">_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.27907815282571913</v>
-      </c>
-      <c r="O40" s="11">
-        <f t="shared" si="15"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="P40" s="11">
-        <f t="shared" si="15"/>
-        <v>-0.20519567041703077</v>
-      </c>
-      <c r="Q40" s="11">
-        <f t="shared" si="15"/>
-        <v>-3.834824944236849E-2</v>
-      </c>
-      <c r="R40" s="11">
-        <f t="shared" si="15"/>
-        <v>0.30678599553894814</v>
-      </c>
-      <c r="S40" s="11">
-        <f t="shared" si="15"/>
-        <v>0.30678599553894814</v>
-      </c>
-      <c r="T40" s="11">
-        <f t="shared" si="15"/>
-        <v>0.15504341823651066</v>
+        <v>28</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" si="15"/>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="V40" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.68920243760451094</v>
+      </c>
+      <c r="W40" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.4</v>
+      </c>
+      <c r="X40" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21320071635561047</v>
+      </c>
+      <c r="Y40" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.54772255750516619</v>
+      </c>
+      <c r="Z40" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.10846522890932808</v>
+      </c>
+      <c r="AA40" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.1414213562373095</v>
       </c>
-      <c r="V40" s="11">
-        <f t="shared" si="15"/>
-        <v>0.20519567041703082</v>
-      </c>
-      <c r="W40" s="11">
-        <f t="shared" si="15"/>
-        <v>0.35355339059327379</v>
-      </c>
-      <c r="X40" s="11">
-        <f t="shared" si="15"/>
-        <v>3.0151134457776341E-2</v>
-      </c>
-      <c r="Y40" s="11">
-        <f t="shared" si="15"/>
-        <v>0.25819888974716104</v>
-      </c>
-      <c r="Z40" s="11">
-        <f t="shared" si="15"/>
-        <v>-0.30678599553894803</v>
-      </c>
-      <c r="AA40" s="11">
-        <f t="shared" si="15"/>
-        <v>-0.16666666666666663</v>
-      </c>
       <c r="AB40" s="11">
-        <f t="shared" si="15"/>
-        <v>0.38781797272891888</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.47493234560471376</v>
       </c>
     </row>
     <row r="41" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="D41" s="11">
+        <f>_xlfn.LET(_xlpm.a,D$2:D$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="E41" s="11">
+        <f>_xlfn.LET(_xlpm.a,E$2:E$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.34426518632954817</v>
+      </c>
+      <c r="F41" s="11">
+        <f>_xlfn.LET(_xlpm.a,F$2:F$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.47140452079103168</v>
+      </c>
+      <c r="G41" s="11">
+        <f>_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.47140452079103179</v>
+      </c>
+      <c r="H41" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41079191812887472</v>
+      </c>
+      <c r="I41" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.57735026918962573</v>
+      </c>
+      <c r="J41" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41079191812887472</v>
+      </c>
+      <c r="K41" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15569978883230465</v>
+      </c>
+      <c r="L41" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.42817441928883782</v>
+      </c>
+      <c r="M41" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-4.3033148291193583E-2</v>
       </c>
       <c r="N41" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.99999999999999989</v>
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32025630761017432</v>
       </c>
       <c r="O41" s="11">
-        <f t="shared" ref="O41:AB41" si="16">_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.43852900965351471</v>
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41079191812887472</v>
       </c>
       <c r="P41" s="11">
-        <f t="shared" si="16"/>
-        <v>0.41358509593425546</v>
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.13245323570650439</v>
       </c>
       <c r="Q41" s="11">
-        <f t="shared" si="16"/>
-        <v>0.11891287353862352</v>
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1980295085953348</v>
       </c>
       <c r="R41" s="11">
-        <f t="shared" si="16"/>
-        <v>0.38052119532359535</v>
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.49507377148833731</v>
       </c>
       <c r="S41" s="11">
-        <f t="shared" si="16"/>
-        <v>0.38052119532359541</v>
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.49507377148833731</v>
       </c>
       <c r="T41" s="11">
-        <f t="shared" si="16"/>
-        <v>0.39423076923076916</v>
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32025630761017432</v>
       </c>
       <c r="U41" s="11">
-        <f t="shared" si="16"/>
-        <v>0.17541160386140589</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.1287092917527735E-2</v>
       </c>
       <c r="V41" s="11">
-        <f t="shared" si="16"/>
-        <v>-7.9535595371972176E-2</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.13245323570650433</v>
       </c>
       <c r="W41" s="11">
-        <f t="shared" si="16"/>
-        <v>0.20830127958541941</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41079191812887472</v>
       </c>
       <c r="X41" s="11">
-        <f t="shared" si="16"/>
-        <v>0.23373674750211437</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.3892494720807616</v>
       </c>
       <c r="Y41" s="11">
-        <f t="shared" si="16"/>
-        <v>4.0032038451271783E-2</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.16666666666666669</v>
       </c>
       <c r="Z41" s="11">
-        <f t="shared" si="16"/>
-        <v>0.11891287353862354</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.19802950859533486</v>
       </c>
       <c r="AA41" s="11">
-        <f t="shared" si="16"/>
-        <v>0.37210420376762521</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.2581988897471611</v>
       </c>
       <c r="AB41" s="11">
-        <f t="shared" si="16"/>
-        <v>0.45662897177120887</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.48615865136480535</v>
       </c>
     </row>
     <row r="42" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O42" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>21</v>
+      </c>
+      <c r="T42" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="P42" s="11">
-        <f t="shared" ref="P42:AB42" si="17">_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.1813690625275029</v>
-      </c>
-      <c r="Q42" s="11">
-        <f t="shared" si="17"/>
-        <v>0.27116307227332009</v>
-      </c>
-      <c r="R42" s="11">
-        <f t="shared" si="17"/>
-        <v>0.58300060538763854</v>
-      </c>
-      <c r="S42" s="11">
-        <f t="shared" si="17"/>
-        <v>0.2982793795006522</v>
-      </c>
-      <c r="T42" s="11">
-        <f t="shared" si="17"/>
-        <v>0.43852900965351471</v>
-      </c>
       <c r="U42" s="11">
-        <f t="shared" si="17"/>
-        <v>-0.125</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.17541160386140589</v>
       </c>
       <c r="V42" s="11">
-        <f t="shared" si="17"/>
-        <v>-0.18136906252750287</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-7.9535595371972148E-2</v>
       </c>
       <c r="W42" s="11">
-        <f t="shared" si="17"/>
-        <v>0.47499999999999987</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.20830127958541941</v>
       </c>
       <c r="X42" s="11">
-        <f t="shared" si="17"/>
-        <v>0.30914103871563514</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.82275335120744264</v>
       </c>
       <c r="Y42" s="11">
-        <f t="shared" si="17"/>
-        <v>-0.22821773229381925</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>4.0032038451271783E-2</v>
       </c>
       <c r="Z42" s="11">
-        <f t="shared" si="17"/>
-        <v>-0.29827937950065231</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.11891287353862354</v>
       </c>
       <c r="AA42" s="11">
-        <f t="shared" si="17"/>
-        <v>0.35355339059327379</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-6.2017367294604157E-2</v>
       </c>
       <c r="AB42" s="11">
-        <f t="shared" si="17"/>
-        <v>0.644834921124392</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.49322900385974083</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P43" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>31</v>
+      </c>
+      <c r="X43" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$X$2:$X$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="Q43" s="11">
-        <f t="shared" ref="Q43:AB43" si="18">_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.25573907949350577</v>
-      </c>
-      <c r="R43" s="11">
-        <f t="shared" si="18"/>
-        <v>0.15737789507292679</v>
-      </c>
-      <c r="S43" s="11">
-        <f t="shared" si="18"/>
-        <v>0.15737789507292682</v>
-      </c>
-      <c r="T43" s="11">
-        <f t="shared" si="18"/>
-        <v>7.9535595371972134E-2</v>
-      </c>
-      <c r="U43" s="11">
-        <f t="shared" si="18"/>
-        <v>7.2547625011001191E-2</v>
-      </c>
-      <c r="V43" s="11">
-        <f t="shared" si="18"/>
-        <v>0.10526315789473686</v>
-      </c>
-      <c r="W43" s="11">
-        <f t="shared" si="18"/>
-        <v>0.1813690625275029</v>
-      </c>
-      <c r="X43" s="11">
-        <f t="shared" si="18"/>
-        <v>1.5467205622243661E-2</v>
-      </c>
       <c r="Y43" s="11">
-        <f t="shared" si="18"/>
-        <v>0.13245323570650439</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$X$2:$X$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.15569978883230468</v>
       </c>
       <c r="Z43" s="11">
-        <f t="shared" si="18"/>
-        <v>-0.15737789507292679</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$X$2:$X$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.2659359417861562</v>
       </c>
       <c r="AA43" s="11">
-        <f t="shared" si="18"/>
-        <v>0.51298917604257721</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$X$2:$X$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.18090680674665818</v>
       </c>
       <c r="AB43" s="11">
-        <f t="shared" si="18"/>
-        <v>0.21912939266142056</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$X$2:$X$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.50161926737739093</v>
       </c>
     </row>
     <row r="44" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="B44" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="C44" s="11">
+        <f>_xlfn.LET(_xlpm.a,C$2:C$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.66332495807108016</v>
+      </c>
+      <c r="D44" s="11">
+        <f>_xlfn.LET(_xlpm.a,D$2:D$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.38924947208076155</v>
+      </c>
+      <c r="E44" s="11">
+        <f>_xlfn.LET(_xlpm.a,E$2:E$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.60302268915552715</v>
+      </c>
+      <c r="F44" s="11">
+        <f>_xlfn.LET(_xlpm.a,F$2:F$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.44038550605054416</v>
+      </c>
+      <c r="G44" s="11">
+        <f>_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.44038550605054438</v>
+      </c>
+      <c r="H44" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.53300179088902622</v>
+      </c>
+      <c r="I44" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.47193990372426958</v>
+      </c>
+      <c r="J44" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30914103871563514</v>
+      </c>
+      <c r="K44" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.14545454545454553</v>
+      </c>
+      <c r="L44" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.33636363636363648</v>
+      </c>
+      <c r="M44" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.18090680674665818</v>
+      </c>
+      <c r="N44" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.23373674750211432</v>
+      </c>
+      <c r="O44" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30914103871563514</v>
+      </c>
+      <c r="P44" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.34027852368936051</v>
       </c>
       <c r="Q44" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1</v>
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.5087470190691683</v>
       </c>
       <c r="R44" s="11">
-        <f t="shared" ref="R44:AB44" si="19">_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.23529411764705876</v>
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.46249729006288043</v>
       </c>
       <c r="S44" s="11">
-        <f t="shared" si="19"/>
-        <v>-7.3529411764705774E-2</v>
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21968621277986825</v>
       </c>
       <c r="T44" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.38052119532359546</v>
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>3.7397879600338295E-2</v>
       </c>
       <c r="U44" s="11">
-        <f t="shared" si="19"/>
-        <v>0.10846522890932805</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21320071635561047</v>
       </c>
       <c r="V44" s="11">
-        <f t="shared" si="19"/>
-        <v>0.15737789507292674</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30934411244487303</v>
       </c>
       <c r="W44" s="11">
-        <f t="shared" si="19"/>
-        <v>0.27116307227332009</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.53300179088902622</v>
       </c>
       <c r="X44" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.46249729006288032</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.23636363636363639</v>
       </c>
       <c r="Y44" s="11">
-        <f t="shared" si="19"/>
-        <v>0.19802950859533477</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.11677484162422846</v>
       </c>
       <c r="Z44" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.23529411764705885</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.21968621277986811</v>
       </c>
       <c r="AA44" s="11">
-        <f t="shared" si="19"/>
-        <v>0.7669649888473703</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.66332495807108027</v>
       </c>
       <c r="AB44" s="11">
-        <f t="shared" si="19"/>
-        <v>0.28235512850636746</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.5727949742349937</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="J45" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="K45" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58630196997792872</v>
+      </c>
+      <c r="L45" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58630196997792872</v>
+      </c>
+      <c r="M45" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="N45" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.43852900965351471</v>
+      </c>
+      <c r="O45" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="P45" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1813690625275029</v>
+      </c>
+      <c r="Q45" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.27116307227332009</v>
       </c>
       <c r="R45" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1</v>
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58300060538763854</v>
       </c>
       <c r="S45" s="11">
-        <f t="shared" ref="S45:AB45" si="20">_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.69117647058823517</v>
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.2982793795006522</v>
       </c>
       <c r="T45" s="11">
-        <f t="shared" si="20"/>
-        <v>0.38052119532359541</v>
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.43852900965351471</v>
       </c>
       <c r="U45" s="11">
-        <f t="shared" si="20"/>
-        <v>0.46097722286464438</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.125</v>
       </c>
       <c r="V45" s="11">
-        <f t="shared" si="20"/>
-        <v>0.25573907949350594</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.18136906252750287</v>
       </c>
       <c r="W45" s="11">
-        <f t="shared" si="20"/>
-        <v>0.86772183127462477</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.47499999999999987</v>
       </c>
       <c r="X45" s="11">
-        <f t="shared" si="20"/>
-        <v>0.46249729006288043</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30914103871563514</v>
       </c>
       <c r="Y45" s="11">
-        <f t="shared" si="20"/>
-        <v>0.1485221314465012</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.22821773229381925</v>
       </c>
       <c r="Z45" s="11">
-        <f t="shared" si="20"/>
-        <v>-7.3529411764705829E-2</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.29827937950065231</v>
       </c>
       <c r="AA45" s="11">
-        <f t="shared" si="20"/>
-        <v>0.30678599553894814</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AB45" s="11">
-        <f t="shared" si="20"/>
-        <v>0.84922076817945624</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.644834921124392</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="O46" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="P46" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1813690625275029</v>
+      </c>
+      <c r="Q46" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.27116307227332009</v>
+      </c>
+      <c r="R46" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58300060538763854</v>
       </c>
       <c r="S46" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1</v>
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.2982793795006522</v>
       </c>
       <c r="T46" s="11">
-        <f t="shared" ref="T46:AB46" si="21">_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.38052119532359546</v>
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.43852900965351471</v>
       </c>
       <c r="U46" s="11">
-        <f t="shared" si="21"/>
-        <v>0.46097722286464438</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.125</v>
       </c>
       <c r="V46" s="11">
-        <f t="shared" si="21"/>
-        <v>0.25573907949350594</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.18136906252750287</v>
       </c>
       <c r="W46" s="11">
-        <f t="shared" si="21"/>
-        <v>0.58300060538763854</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.47499999999999987</v>
       </c>
       <c r="X46" s="11">
-        <f t="shared" si="21"/>
-        <v>0.46249729006288037</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30914103871563514</v>
       </c>
       <c r="Y46" s="11">
-        <f t="shared" si="21"/>
-        <v>0.1485221314465012</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.22821773229381925</v>
       </c>
       <c r="Z46" s="11">
-        <f t="shared" si="21"/>
-        <v>0.23529411764705879</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.29827937950065231</v>
       </c>
       <c r="AA46" s="11">
-        <f t="shared" si="21"/>
-        <v>3.834824944236849E-2</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AB46" s="11">
-        <f t="shared" si="21"/>
-        <v>0.69080014264344103</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.644834921124392</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="K47" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="L47" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.80909090909090908</v>
+      </c>
+      <c r="M47" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.60302268915552737</v>
+      </c>
+      <c r="N47" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15894098830143777</v>
+      </c>
+      <c r="O47" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58630196997792872</v>
+      </c>
+      <c r="P47" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.34027852368936051</v>
+      </c>
+      <c r="Q47" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-2.3124864503144001E-2</v>
+      </c>
+      <c r="R47" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.50874701906916853</v>
+      </c>
+      <c r="S47" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.50874701906916853</v>
       </c>
       <c r="T47" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.99999999999999989</v>
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35527985620321378</v>
       </c>
       <c r="U47" s="11">
-        <f t="shared" ref="U47:AB47" si="22">_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.17541160386140589</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.23452078799117154</v>
       </c>
       <c r="V47" s="11">
-        <f t="shared" si="22"/>
-        <v>-7.9535595371972148E-2</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.34027852368936046</v>
       </c>
       <c r="W47" s="11">
-        <f t="shared" si="22"/>
-        <v>0.20830127958541941</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58630196997792872</v>
       </c>
       <c r="X47" s="11">
-        <f t="shared" si="22"/>
-        <v>0.82275335120744264</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.33636363636363648</v>
       </c>
       <c r="Y47" s="11">
-        <f t="shared" si="22"/>
-        <v>4.0032038451271783E-2</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15569978883230465</v>
       </c>
       <c r="Z47" s="11">
-        <f t="shared" si="22"/>
-        <v>0.11891287353862354</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.26593594178615626</v>
       </c>
       <c r="AA47" s="11">
-        <f t="shared" si="22"/>
-        <v>-6.2017367294604157E-2</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-3.0151134457776414E-2</v>
       </c>
       <c r="AB47" s="11">
-        <f t="shared" si="22"/>
-        <v>0.49322900385974083</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.69057382248745525</v>
       </c>
     </row>
     <row r="48" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="S48" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="T48" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.38052119532359546</v>
       </c>
       <c r="U48" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1</v>
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.46097722286464438</v>
       </c>
       <c r="V48" s="11">
-        <f t="shared" ref="V48:AB48" si="23">_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.68920243760451094</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.25573907949350594</v>
       </c>
       <c r="W48" s="11">
-        <f t="shared" si="23"/>
-        <v>0.4</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58300060538763854</v>
       </c>
       <c r="X48" s="11">
-        <f t="shared" si="23"/>
-        <v>0.21320071635561047</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.46249729006288037</v>
       </c>
       <c r="Y48" s="11">
-        <f t="shared" si="23"/>
-        <v>0.54772255750516619</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1485221314465012</v>
       </c>
       <c r="Z48" s="11">
-        <f t="shared" si="23"/>
-        <v>0.10846522890932808</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.23529411764705879</v>
       </c>
       <c r="AA48" s="11">
-        <f t="shared" si="23"/>
-        <v>0.1414213562373095</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>3.834824944236849E-2</v>
       </c>
       <c r="AB48" s="11">
-        <f t="shared" si="23"/>
-        <v>0.47493234560471376</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.69080014264344103</v>
       </c>
     </row>
     <row r="49" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="L49" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M49" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.39196474795109271</v>
+      </c>
+      <c r="N49" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.3552798562032139</v>
+      </c>
+      <c r="O49" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58630196997792872</v>
+      </c>
+      <c r="P49" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-1.5467205622243664E-2</v>
+      </c>
+      <c r="Q49" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-2.3124864503143949E-2</v>
+      </c>
+      <c r="R49" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.50874701906916853</v>
+      </c>
+      <c r="S49" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.50874701906916853</v>
+      </c>
+      <c r="T49" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.5516187241049898</v>
+      </c>
+      <c r="U49" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.23452078799117154</v>
       </c>
       <c r="V49" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$V$2:$V$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1</v>
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.34027852368936046</v>
       </c>
       <c r="W49" s="11">
-        <f t="shared" ref="W49:AB49" si="24">_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$V$2:$V$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.5803810000880093</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58630196997792872</v>
       </c>
       <c r="X49" s="11">
-        <f t="shared" si="24"/>
-        <v>-1.5467205622243669E-2</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.52727272727272745</v>
       </c>
       <c r="Y49" s="11">
-        <f t="shared" si="24"/>
-        <v>0.79471941423902637</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.15569978883230465</v>
       </c>
       <c r="Z49" s="11">
-        <f t="shared" si="24"/>
-        <v>-0.25573907949350588</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.26593594178615626</v>
       </c>
       <c r="AA49" s="11">
-        <f t="shared" si="24"/>
-        <v>0.2051956704170308</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.18090680674665824</v>
       </c>
       <c r="AB49" s="11">
-        <f t="shared" si="24"/>
-        <v>0.44690862977000234</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.77954345605945863</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="F50" s="11">
+        <f>_xlfn.LET(_xlpm.a,F$2:F$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="G50" s="11">
+        <f>_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.22222222222222221</v>
+      </c>
+      <c r="H50" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.6454972243679028</v>
+      </c>
+      <c r="I50" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.61237243569579425</v>
+      </c>
+      <c r="J50" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.6454972243679028</v>
+      </c>
+      <c r="K50" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.71562644733213443</v>
+      </c>
+      <c r="L50" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.9082951062292477</v>
+      </c>
+      <c r="M50" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.3347193406976014</v>
+      </c>
+      <c r="N50" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.48121773951145319</v>
+      </c>
+      <c r="O50" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.6454972243679028</v>
+      </c>
+      <c r="P50" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.2809757434745081</v>
+      </c>
+      <c r="Q50" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1750350105035012</v>
+      </c>
+      <c r="R50" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.56011203361120387</v>
+      </c>
+      <c r="S50" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.56011203361120387</v>
+      </c>
+      <c r="T50" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.4812177395114533</v>
+      </c>
+      <c r="U50" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="V50" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37463432463267754</v>
       </c>
       <c r="W50" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$W$2:$W$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.99999999999999989</v>
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.6454972243679028</v>
       </c>
       <c r="X50" s="11">
-        <f t="shared" ref="X50:AB50" si="25">_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$W$2:$W$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.30914103871563514</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.44038550605054416</v>
       </c>
       <c r="Y50" s="11">
-        <f t="shared" si="25"/>
-        <v>0.41079191812887478</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.19641855032959649</v>
       </c>
       <c r="Z50" s="11">
-        <f t="shared" si="25"/>
-        <v>-0.29827937950065231</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.31506301890630217</v>
       </c>
       <c r="AA50" s="11">
-        <f t="shared" si="25"/>
-        <v>0.35355339059327379</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.3347193406976014</v>
       </c>
       <c r="AB50" s="11">
-        <f t="shared" si="25"/>
-        <v>0.85348720685031232</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.83376101277300074</v>
       </c>
     </row>
     <row r="51" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="R51" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="S51" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.69117647058823517</v>
+      </c>
+      <c r="T51" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.38052119532359541</v>
+      </c>
+      <c r="U51" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.46097722286464438</v>
+      </c>
+      <c r="V51" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.25573907949350594</v>
+      </c>
+      <c r="W51" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.86772183127462477</v>
       </c>
       <c r="X51" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$X$2:$X$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1.0000000000000002</v>
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.46249729006288043</v>
       </c>
       <c r="Y51" s="11">
-        <f t="shared" ref="Y51:AB51" si="26">_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$X$2:$X$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.15569978883230468</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1485221314465012</v>
       </c>
       <c r="Z51" s="11">
-        <f t="shared" si="26"/>
-        <v>0.2659359417861562</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-7.3529411764705829E-2</v>
       </c>
       <c r="AA51" s="11">
-        <f t="shared" si="26"/>
-        <v>-0.18090680674665818</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30678599553894814</v>
       </c>
       <c r="AB51" s="11">
-        <f t="shared" si="26"/>
-        <v>0.50161926737739093</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.84922076817945624</v>
       </c>
     </row>
     <row r="52" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="W52" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$W$2:$W$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="X52" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$W$2:$W$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30914103871563514</v>
       </c>
       <c r="Y52" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$Y$2:$Y$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1.0000000000000002</v>
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$W$2:$W$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.41079191812887478</v>
       </c>
       <c r="Z52" s="11">
-        <f t="shared" ref="Z52:AB52" si="27">_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$Y$2:$Y$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.1485221314465012</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$W$2:$W$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.29827937950065231</v>
       </c>
       <c r="AA52" s="11">
-        <f t="shared" si="27"/>
-        <v>0.25819888974716104</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$W$2:$W$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AB52" s="11">
-        <f t="shared" si="27"/>
-        <v>0.35917691406802782</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$W$2:$W$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.85348720685031232</v>
       </c>
     </row>
     <row r="53" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="H53" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="I53" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.55339859052946638</v>
+      </c>
+      <c r="J53" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.73749999999999982</v>
+      </c>
+      <c r="K53" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58630196997792872</v>
+      </c>
+      <c r="L53" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58630196997792872</v>
+      </c>
+      <c r="M53" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="N53" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.43852900965351466</v>
+      </c>
+      <c r="O53" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.73749999999999982</v>
+      </c>
+      <c r="P53" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.1813690625275029</v>
+      </c>
+      <c r="Q53" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.27116307227332009</v>
+      </c>
+      <c r="R53" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.86772183127462477</v>
+      </c>
+      <c r="S53" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58300060538763854</v>
+      </c>
+      <c r="T53" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.43852900965351466</v>
+      </c>
+      <c r="U53" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.4</v>
+      </c>
+      <c r="V53" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.19950596878025317</v>
+      </c>
+      <c r="W53" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.73749999999999982</v>
+      </c>
+      <c r="X53" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.53300179088902622</v>
+      </c>
+      <c r="Y53" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>9.1287092917527748E-2</v>
       </c>
       <c r="Z53" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$Z$2:$Z$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.99999999999999978</v>
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-1.3558153613666041E-2</v>
       </c>
       <c r="AA53" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$Z$2:$Z$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.30678599553894809</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AB53" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$Z$2:$Z$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.12501219430052904</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.8952176639954964</v>
       </c>
     </row>
     <row r="54" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
-        <v>48</v>
+        <v>25</v>
+      </c>
+      <c r="E54" s="11">
+        <f>_xlfn.LET(_xlpm.a,E$2:E$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F54" s="11">
+        <f>_xlfn.LET(_xlpm.a,F$2:F$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.73029674334022132</v>
+      </c>
+      <c r="G54" s="11">
+        <f>_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.1287092917527651E-2</v>
+      </c>
+      <c r="H54" s="11">
+        <f>_xlfn.LET(_xlpm.a,H$2:H$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.88388347648318411</v>
+      </c>
+      <c r="I54" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.44721359549995782</v>
+      </c>
+      <c r="J54" s="11">
+        <f>_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.63639610306789263</v>
+      </c>
+      <c r="K54" s="11">
+        <f>_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.66332495807108016</v>
+      </c>
+      <c r="L54" s="11">
+        <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.66332495807108016</v>
+      </c>
+      <c r="M54" s="11">
+        <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="N54" s="11">
+        <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.27907815282571902</v>
+      </c>
+      <c r="O54" s="11">
+        <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.63639610306789263</v>
+      </c>
+      <c r="P54" s="11">
+        <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.20519567041703077</v>
+      </c>
+      <c r="Q54" s="11">
+        <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.30678599553894798</v>
+      </c>
+      <c r="R54" s="11">
+        <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.7669649888473703</v>
+      </c>
+      <c r="S54" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.49852724275079069</v>
+      </c>
+      <c r="T54" s="11">
+        <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.27907815282571902</v>
+      </c>
+      <c r="U54" s="11">
+        <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="V54" s="11">
+        <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.51298917604257699</v>
+      </c>
+      <c r="W54" s="11">
+        <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.88388347648318411</v>
+      </c>
+      <c r="X54" s="11">
+        <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.39196474795109265</v>
+      </c>
+      <c r="Y54" s="11">
+        <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.34426518632954817</v>
+      </c>
+      <c r="Z54" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.23008949665421116</v>
       </c>
       <c r="AA54" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$AA$2:$AA$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1</v>
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.4</v>
       </c>
       <c r="AB54" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$AA$2:$AA$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.44683375118766744</v>
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.91052915336354856</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>

--- a/data/fc-typology-data-generator-rev1.xlsx
+++ b/data/fc-typology-data-generator-rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/FCA-grammar-typology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4E30E2-3028-7F49-B8EB-78D8F2EDDEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01FF66D-A676-0042-B414-E08C72CB72D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="32600" windowHeight="17700" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1815,24 +1815,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3740,6 +3722,24 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -4697,75 +4697,75 @@
   </sortState>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{3DCC83AD-9F69-EF48-A0C1-C9AE2BBE3469}" name="Correlation" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{EDD5F828-836B-1D44-9AF6-F5BE2836F660}" name="has_definite_art" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{079B382E-9E2A-094C-ACAF-52F32A6E00ED}" name="has_indefinite_art" dataDxfId="90"/>
-    <tableColumn id="4" xr3:uid="{0699A8AB-8F45-0E4C-9C72-D794E5EA649F}" name="has_personal_pro" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{CC2E7BDC-6C79-D644-AA7D-63768B008AEA}" name="N_encodes_plurality" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{24AD433B-82DA-4D41-88AA-8AA75DA6DC50}" name="N_encodes_class" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{7F84A447-649F-5647-9DF7-DA606E2425CB}" name="N_encodes_case" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{5048E75E-BFDE-D449-B5CB-0D50A5995F93}" name="Relative_cl_follows_N" dataDxfId="85"/>
-    <tableColumn id="9" xr3:uid="{75A45A7C-E8FB-1142-B0AB-08F22765003D}" name="has_postpositions" dataDxfId="84"/>
-    <tableColumn id="30" xr3:uid="{2255D9BB-8BEC-FA4C-90FB-A1B3E629F8C5}" name="preposition_agrees_w_Subj" dataDxfId="83"/>
-    <tableColumn id="10" xr3:uid="{2DB9B6AB-77FE-0B4F-BEE1-D8E15160D30A}" name="has_prepositions" dataDxfId="82"/>
-    <tableColumn id="29" xr3:uid="{CDB94EA5-4668-B24A-83B3-9110CF482470}" name="prepositions_agree_w_Subj" dataDxfId="81"/>
-    <tableColumn id="11" xr3:uid="{CF0609FE-AA6D-284A-BB2A-16137D303F3D}" name="A_agrees_w_Nplurality" dataDxfId="80"/>
-    <tableColumn id="12" xr3:uid="{A46192A6-71FF-F243-9312-4E581680187B}" name="A_agrees_w_Nclass" dataDxfId="79"/>
-    <tableColumn id="13" xr3:uid="{9C4AB670-519C-8E45-9A62-486886679CFE}" name="A_agrees_w_Ncase" dataDxfId="78"/>
-    <tableColumn id="14" xr3:uid="{31688CEE-1386-2B42-BA81-1F4BF4151A4C}" name="A_follows_N" dataDxfId="77"/>
-    <tableColumn id="15" xr3:uid="{8E6144BF-98BA-ED43-B5C0-02A25ADA5D40}" name="Obj_follows_V" dataDxfId="76"/>
-    <tableColumn id="16" xr3:uid="{F6A2BCFC-E8FA-4E4A-AAD2-C9002046954D}" name="Subj_follows_V" dataDxfId="75"/>
-    <tableColumn id="17" xr3:uid="{E1A4C817-EAB8-674E-84B5-2BFE6A648052}" name="Sentence requires_Subj" dataDxfId="74"/>
-    <tableColumn id="18" xr3:uid="{0C897990-532E-2449-BC29-948DE755BCAD}" name="V_agrees_w_Subj" dataDxfId="73"/>
-    <tableColumn id="19" xr3:uid="{3F9D7136-789F-D348-AB23-12E53BB8A048}" name="V_encodes_Subj_plurality" dataDxfId="72"/>
-    <tableColumn id="20" xr3:uid="{4BF97483-7554-C54D-B41C-727571954460}" name="V_encodes_Subj_class" dataDxfId="71"/>
-    <tableColumn id="21" xr3:uid="{3AD4C563-3D83-4249-9D34-6EC44F73ABA3}" name="V_encodes_voice" dataDxfId="70"/>
-    <tableColumn id="22" xr3:uid="{4034EB35-3F31-ED41-B01B-0C4CA6C11080}" name="V_encodes_tense" dataDxfId="69"/>
-    <tableColumn id="23" xr3:uid="{3FF6D798-6718-CD48-AEF0-0C0600F21483}" name="V_encodes_person" dataDxfId="68"/>
-    <tableColumn id="24" xr3:uid="{BB0780D0-38C9-304D-B945-583D4581D332}" name="V_encodes_aspect" dataDxfId="67"/>
-    <tableColumn id="25" xr3:uid="{E1F6D71A-EF54-BC44-8C72-994DE0A37790}" name="V_infinitive_is_derived" dataDxfId="66"/>
-    <tableColumn id="26" xr3:uid="{F529EFB6-AF79-3240-B005-D1D014AB4466}" name="V_agrees_w_Obj" dataDxfId="65"/>
-    <tableColumn id="27" xr3:uid="{F252060C-BAD7-A944-8280-A4AFFEAA93C1}" name="Tense_agreement" dataDxfId="64"/>
-    <tableColumn id="28" xr3:uid="{EA6E8513-3EA7-084D-A4B8-11D76045B135}" name="sum" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{EDD5F828-836B-1D44-9AF6-F5BE2836F660}" name="has_definite_art" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{079B382E-9E2A-094C-ACAF-52F32A6E00ED}" name="has_indefinite_art" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{0699A8AB-8F45-0E4C-9C72-D794E5EA649F}" name="has_personal_pro" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{CC2E7BDC-6C79-D644-AA7D-63768B008AEA}" name="N_encodes_plurality" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{24AD433B-82DA-4D41-88AA-8AA75DA6DC50}" name="N_encodes_class" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{7F84A447-649F-5647-9DF7-DA606E2425CB}" name="N_encodes_case" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{5048E75E-BFDE-D449-B5CB-0D50A5995F93}" name="Relative_cl_follows_N" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{75A45A7C-E8FB-1142-B0AB-08F22765003D}" name="has_postpositions" dataDxfId="83"/>
+    <tableColumn id="30" xr3:uid="{2255D9BB-8BEC-FA4C-90FB-A1B3E629F8C5}" name="preposition_agrees_w_Subj" dataDxfId="82"/>
+    <tableColumn id="10" xr3:uid="{2DB9B6AB-77FE-0B4F-BEE1-D8E15160D30A}" name="has_prepositions" dataDxfId="81"/>
+    <tableColumn id="29" xr3:uid="{CDB94EA5-4668-B24A-83B3-9110CF482470}" name="prepositions_agree_w_Subj" dataDxfId="80"/>
+    <tableColumn id="11" xr3:uid="{CF0609FE-AA6D-284A-BB2A-16137D303F3D}" name="A_agrees_w_Nplurality" dataDxfId="79"/>
+    <tableColumn id="12" xr3:uid="{A46192A6-71FF-F243-9312-4E581680187B}" name="A_agrees_w_Nclass" dataDxfId="78"/>
+    <tableColumn id="13" xr3:uid="{9C4AB670-519C-8E45-9A62-486886679CFE}" name="A_agrees_w_Ncase" dataDxfId="77"/>
+    <tableColumn id="14" xr3:uid="{31688CEE-1386-2B42-BA81-1F4BF4151A4C}" name="A_follows_N" dataDxfId="76"/>
+    <tableColumn id="15" xr3:uid="{8E6144BF-98BA-ED43-B5C0-02A25ADA5D40}" name="Obj_follows_V" dataDxfId="75"/>
+    <tableColumn id="16" xr3:uid="{F6A2BCFC-E8FA-4E4A-AAD2-C9002046954D}" name="Subj_follows_V" dataDxfId="74"/>
+    <tableColumn id="17" xr3:uid="{E1A4C817-EAB8-674E-84B5-2BFE6A648052}" name="Sentence requires_Subj" dataDxfId="73"/>
+    <tableColumn id="18" xr3:uid="{0C897990-532E-2449-BC29-948DE755BCAD}" name="V_agrees_w_Subj" dataDxfId="72"/>
+    <tableColumn id="19" xr3:uid="{3F9D7136-789F-D348-AB23-12E53BB8A048}" name="V_encodes_Subj_plurality" dataDxfId="71"/>
+    <tableColumn id="20" xr3:uid="{4BF97483-7554-C54D-B41C-727571954460}" name="V_encodes_Subj_class" dataDxfId="70"/>
+    <tableColumn id="21" xr3:uid="{3AD4C563-3D83-4249-9D34-6EC44F73ABA3}" name="V_encodes_voice" dataDxfId="69"/>
+    <tableColumn id="22" xr3:uid="{4034EB35-3F31-ED41-B01B-0C4CA6C11080}" name="V_encodes_tense" dataDxfId="68"/>
+    <tableColumn id="23" xr3:uid="{3FF6D798-6718-CD48-AEF0-0C0600F21483}" name="V_encodes_person" dataDxfId="67"/>
+    <tableColumn id="24" xr3:uid="{BB0780D0-38C9-304D-B945-583D4581D332}" name="V_encodes_aspect" dataDxfId="66"/>
+    <tableColumn id="25" xr3:uid="{E1F6D71A-EF54-BC44-8C72-994DE0A37790}" name="V_infinitive_is_derived" dataDxfId="65"/>
+    <tableColumn id="26" xr3:uid="{F529EFB6-AF79-3240-B005-D1D014AB4466}" name="V_agrees_w_Obj" dataDxfId="64"/>
+    <tableColumn id="27" xr3:uid="{F252060C-BAD7-A944-8280-A4AFFEAA93C1}" name="Tense_agreement" dataDxfId="63"/>
+    <tableColumn id="28" xr3:uid="{EA6E8513-3EA7-084D-A4B8-11D76045B135}" name="sum" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:AB22" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:AB22" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A1:AB22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB22">
     <sortCondition descending="1" ref="AB1:AB22"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Language" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="has_definite_art" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="has_indefinite_art" dataDxfId="58"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="has_personal_pro" dataDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N_encodes_plurality" dataDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N_encodes_class" dataDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="N_encodes_case" dataDxfId="54"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Relative_cl_follows_N" dataDxfId="53"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="has_postpositions" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="has_prepositions" dataDxfId="51"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A_agrees_w_Nplurality" dataDxfId="50"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="A_agrees_w_Nclass" dataDxfId="49"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="A_agrees_w_Ncase" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A_follows_N" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Obj_follows_V" dataDxfId="46"/>
-    <tableColumn id="28" xr3:uid="{797B11B6-B034-5741-89AB-7E651574C23F}" name="Subj_follows_V" dataDxfId="45"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sentence requires_Subj" dataDxfId="44"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="V_agrees_w_Subj" dataDxfId="43"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="V_encodes_plurality" dataDxfId="42"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="V_encodes_class" dataDxfId="41"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="V_encodes_voice" dataDxfId="40"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="V_encodes_tense" dataDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="V_encodes_person" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V_encodes_aspect" dataDxfId="37"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="V_infinitive_is_derived" dataDxfId="36"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="V_agrees_w_Obj" dataDxfId="35"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Tense_agreement" dataDxfId="34"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="sum" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Language" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="has_definite_art" dataDxfId="58"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="has_indefinite_art" dataDxfId="57"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="has_personal_pro" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N_encodes_plurality" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N_encodes_class" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="N_encodes_case" dataDxfId="53"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Relative_cl_follows_N" dataDxfId="52"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="has_postpositions" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="has_prepositions" dataDxfId="50"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A_agrees_w_Nplurality" dataDxfId="49"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="A_agrees_w_Nclass" dataDxfId="48"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="A_agrees_w_Ncase" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A_follows_N" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Obj_follows_V" dataDxfId="45"/>
+    <tableColumn id="28" xr3:uid="{797B11B6-B034-5741-89AB-7E651574C23F}" name="Subj_follows_V" dataDxfId="44"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sentence requires_Subj" dataDxfId="43"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="V_agrees_w_Subj" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="V_encodes_plurality" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="V_encodes_class" dataDxfId="40"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="V_encodes_voice" dataDxfId="39"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="V_encodes_tense" dataDxfId="38"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="V_encodes_person" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V_encodes_aspect" dataDxfId="36"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="V_infinitive_is_derived" dataDxfId="35"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="V_agrees_w_Obj" dataDxfId="34"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Tense_agreement" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="sum" dataDxfId="32">
       <calculatedColumnFormula>SUM(B2:AA2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4774,40 +4774,40 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}" name="Table2" displayName="Table2" ref="A28:AB55" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}" name="Table2" displayName="Table2" ref="A28:AB55" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A28:AB55" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:AB55">
     <sortCondition ref="AB28:AB55"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{E8A81ADF-8FDA-A64C-A57D-6FA12EDF766A}" name="Correlation" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{00BEF632-EA2D-6246-90B6-C0014D489FA1}" name="has_definite_art" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{BAB19402-C14F-964E-8182-E44F3A7A9DD0}" name="has_indefinite_art" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{8CD330E1-23DA-F741-8743-2999A04D5858}" name="has_personal_pro" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{BA2A0D1E-8A0F-4447-B4BC-A7D7381CE6C4}" name="N_encodes_plurality" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{F4EE229A-AD64-7747-8F4D-B69696AF555D}" name="N_encodes_class" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{03E0F05A-4C08-7B43-AEEF-D8A2D52EA73A}" name="N_encodes_case" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{7703BD9E-18FB-7F46-AB65-5E5CC6C87088}" name="Relative_cl_follows_N" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{84530509-1909-DB4B-A3B9-3C585ACBF333}" name="has_postpositions" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{759F2737-4544-3F46-A130-5C9565DE5D13}" name="has_prepositions" dataDxfId="21"/>
-    <tableColumn id="11" xr3:uid="{34F851A4-14B4-FD4E-A4AA-AA0C8D5DD781}" name="A_agrees_w_Nplurality" dataDxfId="20"/>
-    <tableColumn id="12" xr3:uid="{70E5ECEE-041A-BE48-90AF-840467EB4978}" name="A_agrees_w_Nclass" dataDxfId="19"/>
-    <tableColumn id="13" xr3:uid="{EE07A013-1C93-0F44-9C18-4AE1CA4D1ED3}" name="A_agrees_w_Ncase" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{679BC547-A9D5-9A49-80A9-B648709020F4}" name="A_follows_N" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{C35FA572-1689-074B-B324-B7C386EEF087}" name="Obj_follows_V" dataDxfId="16"/>
-    <tableColumn id="16" xr3:uid="{20B38B28-DAA3-4D40-8DAF-FAF653DFD38F}" name="Subj_follows_V" dataDxfId="15"/>
-    <tableColumn id="17" xr3:uid="{E5B7A97D-7E5B-2A42-8C7C-7FDD1C5F3326}" name="Sentence requires_Subj" dataDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{AC8542AF-1D36-3948-B68E-98A0602A1621}" name="V_agrees_w_Subj" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{C6BC0E80-1C56-F547-A12C-033A42B40B92}" name="V_encodes_plurality" dataDxfId="12"/>
-    <tableColumn id="20" xr3:uid="{AF0DCB71-D1DD-B94F-BDE4-76F27102195A}" name="V_encodes_class" dataDxfId="11"/>
-    <tableColumn id="21" xr3:uid="{BD15E09B-4E36-A845-AAEF-BA7F1369B9A0}" name="V_encodes_voice" dataDxfId="10"/>
-    <tableColumn id="22" xr3:uid="{CD1412AE-E0C8-EE41-B1C6-E8C51EBB2FF2}" name="V_encodes_tense" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{ABE62467-3422-8543-A8D9-8B13977C9B33}" name="V_encodes_person" dataDxfId="8"/>
-    <tableColumn id="24" xr3:uid="{BF0BC527-606E-5045-97AA-1E9BC47976E3}" name="V_encodes_aspect" dataDxfId="7"/>
-    <tableColumn id="25" xr3:uid="{9DF274E4-3C86-F049-9D0D-F7F7301719C4}" name="V_infinitive_is_derived" dataDxfId="6"/>
-    <tableColumn id="26" xr3:uid="{BB73562D-4A24-814C-8639-43EE7D8D8C4A}" name="V_agrees_w_Obj" dataDxfId="5"/>
-    <tableColumn id="27" xr3:uid="{21C0EF0B-E5A8-A14E-BDBA-C7268E1655EB}" name="Tense_agreement" dataDxfId="4"/>
-    <tableColumn id="28" xr3:uid="{1F4E77A4-0B94-184D-B025-77DA4D0B4E81}" name="sum" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E8A81ADF-8FDA-A64C-A57D-6FA12EDF766A}" name="Correlation" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00BEF632-EA2D-6246-90B6-C0014D489FA1}" name="has_definite_art" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{BAB19402-C14F-964E-8182-E44F3A7A9DD0}" name="has_indefinite_art" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{8CD330E1-23DA-F741-8743-2999A04D5858}" name="has_personal_pro" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{BA2A0D1E-8A0F-4447-B4BC-A7D7381CE6C4}" name="N_encodes_plurality" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{F4EE229A-AD64-7747-8F4D-B69696AF555D}" name="N_encodes_class" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{03E0F05A-4C08-7B43-AEEF-D8A2D52EA73A}" name="N_encodes_case" dataDxfId="23"/>
+    <tableColumn id="8" xr3:uid="{7703BD9E-18FB-7F46-AB65-5E5CC6C87088}" name="Relative_cl_follows_N" dataDxfId="22"/>
+    <tableColumn id="9" xr3:uid="{84530509-1909-DB4B-A3B9-3C585ACBF333}" name="has_postpositions" dataDxfId="21"/>
+    <tableColumn id="10" xr3:uid="{759F2737-4544-3F46-A130-5C9565DE5D13}" name="has_prepositions" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{34F851A4-14B4-FD4E-A4AA-AA0C8D5DD781}" name="A_agrees_w_Nplurality" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{70E5ECEE-041A-BE48-90AF-840467EB4978}" name="A_agrees_w_Nclass" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{EE07A013-1C93-0F44-9C18-4AE1CA4D1ED3}" name="A_agrees_w_Ncase" dataDxfId="17"/>
+    <tableColumn id="14" xr3:uid="{679BC547-A9D5-9A49-80A9-B648709020F4}" name="A_follows_N" dataDxfId="16"/>
+    <tableColumn id="15" xr3:uid="{C35FA572-1689-074B-B324-B7C386EEF087}" name="Obj_follows_V" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{20B38B28-DAA3-4D40-8DAF-FAF653DFD38F}" name="Subj_follows_V" dataDxfId="14"/>
+    <tableColumn id="17" xr3:uid="{E5B7A97D-7E5B-2A42-8C7C-7FDD1C5F3326}" name="Sentence requires_Subj" dataDxfId="13"/>
+    <tableColumn id="18" xr3:uid="{AC8542AF-1D36-3948-B68E-98A0602A1621}" name="V_agrees_w_Subj" dataDxfId="12"/>
+    <tableColumn id="19" xr3:uid="{C6BC0E80-1C56-F547-A12C-033A42B40B92}" name="V_encodes_plurality" dataDxfId="11"/>
+    <tableColumn id="20" xr3:uid="{AF0DCB71-D1DD-B94F-BDE4-76F27102195A}" name="V_encodes_class" dataDxfId="10"/>
+    <tableColumn id="21" xr3:uid="{BD15E09B-4E36-A845-AAEF-BA7F1369B9A0}" name="V_encodes_voice" dataDxfId="9"/>
+    <tableColumn id="22" xr3:uid="{CD1412AE-E0C8-EE41-B1C6-E8C51EBB2FF2}" name="V_encodes_tense" dataDxfId="8"/>
+    <tableColumn id="23" xr3:uid="{ABE62467-3422-8543-A8D9-8B13977C9B33}" name="V_encodes_person" dataDxfId="7"/>
+    <tableColumn id="24" xr3:uid="{BF0BC527-606E-5045-97AA-1E9BC47976E3}" name="V_encodes_aspect" dataDxfId="6"/>
+    <tableColumn id="25" xr3:uid="{9DF274E4-3C86-F049-9D0D-F7F7301719C4}" name="V_infinitive_is_derived" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{BB73562D-4A24-814C-8639-43EE7D8D8C4A}" name="V_agrees_w_Obj" dataDxfId="4"/>
+    <tableColumn id="27" xr3:uid="{21C0EF0B-E5A8-A14E-BDBA-C7268E1655EB}" name="Tense_agreement" dataDxfId="3"/>
+    <tableColumn id="28" xr3:uid="{1F4E77A4-0B94-184D-B025-77DA4D0B4E81}" name="sum" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5165,10 +5165,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCBA829-B2C3-7F45-90B5-C286C02D0432}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="8480" ySplit="5540" topLeftCell="T22" activePane="topRight"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="8480" ySplit="5540" topLeftCell="D22" activePane="topRight"/>
       <selection sqref="A1:AC23"/>
-      <selection pane="topRight" activeCell="AE4" sqref="AE4"/>
+      <selection pane="topRight" activeCell="H20" sqref="H20"/>
       <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
       <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
     </sheetView>
@@ -7781,119 +7781,119 @@
         <v>65</v>
       </c>
       <c r="B31" s="11">
-        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="B31:AD31" si="7">_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="C31" s="11">
-        <f>_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.61237243569579436</v>
       </c>
       <c r="D31" s="11">
-        <f>_xlfn.LET(_xlpm.a,D$2:D$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.39735970711951318</v>
       </c>
       <c r="E31" s="11">
-        <f>_xlfn.LET(_xlpm.a,E$2:E$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.61237243569579458</v>
       </c>
       <c r="F31" s="11">
-        <f>_xlfn.LET(_xlpm.a,F$2:F$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.46225016352102427</v>
       </c>
       <c r="G31" s="11">
-        <f>_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>-0.20412414523193159</v>
       </c>
       <c r="H31" s="11">
-        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.5423261445466403</v>
       </c>
       <c r="I31" s="11">
-        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>-0.48795003647426649</v>
       </c>
       <c r="J31" s="11">
-        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.21821789023599231</v>
       </c>
       <c r="K31" s="11">
-        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.32539568672798419</v>
       </c>
       <c r="L31" s="11">
-        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.31622776601683794</v>
       </c>
       <c r="M31" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="N31" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="O31" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>-0.20412414523193159</v>
       </c>
       <c r="P31" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.27735009811261463</v>
       </c>
       <c r="Q31" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.32539568672798419</v>
       </c>
       <c r="R31" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.39735970711951318</v>
       </c>
       <c r="S31" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.54232614454664063</v>
       </c>
       <c r="T31" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.47140452079103168</v>
       </c>
       <c r="U31" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>2.2662332591841973E-17</v>
       </c>
       <c r="V31" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>-9.7590007294853301E-2</v>
       </c>
       <c r="W31" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.21821789023599239</v>
       </c>
       <c r="X31" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.316227766016838</v>
       </c>
       <c r="Y31" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.29277002188455997</v>
       </c>
       <c r="Z31" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.36514837167011077</v>
       </c>
       <c r="AA31" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>-0.10846522890932807</v>
       </c>
       <c r="AB31" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>-0.23570226039551592</v>
       </c>
       <c r="AC31" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.6831300510639734</v>
       </c>
       <c r="AD31" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="7"/>
         <v>0.55994110271857767</v>
       </c>
     </row>
@@ -7902,119 +7902,119 @@
         <v>66</v>
       </c>
       <c r="B32" s="11">
-        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="B32:AD32" si="8">_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.61237243569579436</v>
       </c>
       <c r="C32" s="11">
-        <f>_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="D32" s="11">
-        <f>_xlfn.LET(_xlpm.a,D$2:D$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.24333213169614384</v>
       </c>
       <c r="E32" s="11">
-        <f>_xlfn.LET(_xlpm.a,E$2:E$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.37499999999999994</v>
       </c>
       <c r="F32" s="11">
-        <f>_xlfn.LET(_xlpm.a,F$2:F$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>9.4356419512049691E-2</v>
       </c>
       <c r="G32" s="11">
-        <f>_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>-0.14583333333333334</v>
       </c>
       <c r="H32" s="11">
-        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.33210558207753565</v>
       </c>
       <c r="I32" s="11">
-        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>-0.19920476822239888</v>
       </c>
       <c r="J32" s="11">
-        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.35634832254989879</v>
       </c>
       <c r="K32" s="11">
-        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>8.8561488554009485E-2</v>
       </c>
       <c r="L32" s="11">
-        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>-0.1936491673103708</v>
       </c>
       <c r="M32" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.20412414523193159</v>
       </c>
       <c r="N32" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.20412414523193159</v>
       </c>
       <c r="O32" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>8.3333333333333287E-2</v>
       </c>
       <c r="P32" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>-9.4356419512049677E-2</v>
       </c>
       <c r="Q32" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>8.8561488554009485E-2</v>
       </c>
       <c r="R32" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>-0.24333213169614379</v>
       </c>
       <c r="S32" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.39852669849304279</v>
       </c>
       <c r="T32" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.28867513459481287</v>
       </c>
       <c r="U32" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.14583333333333334</v>
       </c>
       <c r="V32" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>-0.19920476822239874</v>
       </c>
       <c r="W32" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.13363062095621214</v>
       </c>
       <c r="X32" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.1936491673103708</v>
       </c>
       <c r="Y32" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.41833001326703773</v>
       </c>
       <c r="Z32" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>-5.5901699437494783E-2</v>
       </c>
       <c r="AA32" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.33210558207753582</v>
       </c>
       <c r="AB32" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>-2.4056261216234446E-2</v>
       </c>
       <c r="AC32" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.45817096691151754</v>
       </c>
       <c r="AD32" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="8"/>
         <v>0.37650940838051</v>
       </c>
     </row>
@@ -8023,119 +8023,119 @@
         <v>67</v>
       </c>
       <c r="B33" s="11">
-        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="B33:AD33" si="9">_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.39735970711951318</v>
       </c>
       <c r="C33" s="11">
-        <f>_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.24333213169614384</v>
       </c>
       <c r="D33" s="11">
-        <f>_xlfn.LET(_xlpm.a,D$2:D$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="E33" s="11">
-        <f>_xlfn.LET(_xlpm.a,E$2:E$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.35147974578331886</v>
       </c>
       <c r="F33" s="11">
-        <f>_xlfn.LET(_xlpm.a,F$2:F$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.47756693294091929</v>
       </c>
       <c r="G33" s="11">
-        <f>_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.24333213169614384</v>
       </c>
       <c r="H33" s="11">
-        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.41663054538992844</v>
       </c>
       <c r="I33" s="11">
-        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>-0.58167505074711112</v>
       </c>
       <c r="J33" s="11">
-        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>8.6710996952411981E-2</v>
       </c>
       <c r="K33" s="11">
-        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.41663054538992822</v>
       </c>
       <c r="L33" s="11">
-        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.12565617248750868</v>
       </c>
       <c r="M33" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.13245323570650436</v>
       </c>
       <c r="N33" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.39735970711951318</v>
       </c>
       <c r="O33" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>-5.4073807043587496E-2</v>
       </c>
       <c r="P33" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.33062326126679031</v>
       </c>
       <c r="Q33" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.41663054538992822</v>
       </c>
       <c r="R33" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.15789473684210531</v>
       </c>
       <c r="S33" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.21549855796030784</v>
       </c>
       <c r="T33" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.49951243284357005</v>
       </c>
       <c r="U33" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.35147974578331886</v>
       </c>
       <c r="V33" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.27144835701531833</v>
       </c>
       <c r="W33" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>-8.6710996952411995E-2</v>
       </c>
       <c r="X33" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>-0.12565617248750865</v>
       </c>
       <c r="Y33" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.2973005814929679</v>
       </c>
       <c r="Z33" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.43528575006600717</v>
       </c>
       <c r="AA33" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>-0.2154985579603077</v>
       </c>
       <c r="AB33" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.18731716231633883</v>
       </c>
       <c r="AC33" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.27144835701531839</v>
       </c>
       <c r="AD33" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="9"/>
         <v>0.52352478254219126</v>
       </c>
     </row>
@@ -8144,119 +8144,119 @@
         <v>68</v>
       </c>
       <c r="B34" s="11">
-        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="B34:AD34" si="10">_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.61237243569579458</v>
       </c>
       <c r="C34" s="11">
-        <f>_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.37499999999999994</v>
       </c>
       <c r="D34" s="11">
-        <f>_xlfn.LET(_xlpm.a,D$2:D$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.35147974578331886</v>
       </c>
       <c r="E34" s="11">
-        <f>_xlfn.LET(_xlpm.a,E$2:E$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="F34" s="11">
-        <f>_xlfn.LET(_xlpm.a,F$2:F$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.7359800721939872</v>
       </c>
       <c r="G34" s="11">
-        <f>_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.37499999999999994</v>
       </c>
       <c r="H34" s="11">
-        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.88561488554009526</v>
       </c>
       <c r="I34" s="11">
-        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>-0.4581709669115176</v>
       </c>
       <c r="J34" s="11">
-        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.13363062095621214</v>
       </c>
       <c r="K34" s="11">
-        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.64207079201656891</v>
       </c>
       <c r="L34" s="11">
-        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.19364916731037088</v>
       </c>
       <c r="M34" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.61237243569579458</v>
       </c>
       <c r="N34" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.61237243569579458</v>
       </c>
       <c r="O34" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.37499999999999994</v>
       </c>
       <c r="P34" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.30194054243855895</v>
       </c>
       <c r="Q34" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.64207079201656891</v>
       </c>
       <c r="R34" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.24333213169614387</v>
       </c>
       <c r="S34" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.33210558207753577</v>
       </c>
       <c r="T34" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.76980035891950083</v>
       </c>
       <c r="U34" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.31249999999999994</v>
       </c>
       <c r="V34" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.19920476822239885</v>
       </c>
       <c r="W34" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.35634832254989918</v>
       </c>
       <c r="X34" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.51639777949432242</v>
       </c>
       <c r="Y34" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.67729621195615652</v>
       </c>
       <c r="Z34" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.46584749531245623</v>
       </c>
       <c r="AA34" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.15498260496951669</v>
       </c>
       <c r="AB34" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>-0.24056261216234415</v>
       </c>
       <c r="AC34" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.41833001326703784</v>
       </c>
       <c r="AD34" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="10"/>
         <v>0.89925238162309318</v>
       </c>
     </row>
@@ -8265,119 +8265,119 @@
         <v>69</v>
       </c>
       <c r="B35" s="11">
-        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="B35:AD35" si="11">_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.46225016352102427</v>
       </c>
       <c r="C35" s="11">
-        <f>_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>9.4356419512049691E-2</v>
       </c>
       <c r="D35" s="11">
-        <f>_xlfn.LET(_xlpm.a,D$2:D$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.47756693294091929</v>
       </c>
       <c r="E35" s="11">
-        <f>_xlfn.LET(_xlpm.a,E$2:E$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.7359800721939872</v>
       </c>
       <c r="F35" s="11">
-        <f>_xlfn.LET(_xlpm.a,F$2:F$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="G35" s="11">
-        <f>_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.50952466536506813</v>
       </c>
       <c r="H35" s="11">
-        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.65179490739586898</v>
       </c>
       <c r="I35" s="11">
-        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>-0.62253175625488166</v>
       </c>
       <c r="J35" s="11">
-        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>-0.2622652641564811</v>
       </c>
       <c r="K35" s="11">
-        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.65179490739586909</v>
       </c>
       <c r="L35" s="11">
-        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.26311740579210896</v>
       </c>
       <c r="M35" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.64715022892943408</v>
       </c>
       <c r="N35" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.83205029433784383</v>
       </c>
       <c r="O35" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.30194054243855895</v>
       </c>
       <c r="P35" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.5042735042735047</v>
       </c>
       <c r="Q35" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.65179490739586909</v>
       </c>
       <c r="R35" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.33062326126679037</v>
       </c>
       <c r="S35" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.23063512107853829</v>
       </c>
       <c r="T35" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.56655772373253166</v>
       </c>
       <c r="U35" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.32081182634096872</v>
       </c>
       <c r="V35" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.36991017400652404</v>
       </c>
       <c r="W35" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.26226526415648116</v>
       </c>
       <c r="X35" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.38005847503304596</v>
       </c>
       <c r="Y35" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.42404337020260074</v>
       </c>
       <c r="Z35" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.54012766244462229</v>
       </c>
       <c r="AA35" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>-1.00276139599365E-2</v>
       </c>
       <c r="AB35" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>-0.32686022523030678</v>
       </c>
       <c r="AC35" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.36991017400652404</v>
       </c>
       <c r="AD35" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="11"/>
         <v>0.82826517214017681</v>
       </c>
     </row>
@@ -8390,115 +8390,115 @@
         <v>-0.20412414523193159</v>
       </c>
       <c r="C36" s="11">
-        <f t="shared" ref="C36:F36" si="7">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C36:F36" si="12">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.14583333333333334</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.24333213169614384</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.50952466536506813</v>
       </c>
       <c r="G36" s="11">
-        <f>_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="G36:AD36" si="13">_xlfn.LET(_xlpm.a,G$2:G$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="H36" s="11">
-        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.33210558207753565</v>
       </c>
       <c r="I36" s="11">
-        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>-0.19920476822239888</v>
       </c>
       <c r="J36" s="11">
-        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>-0.13363062095621203</v>
       </c>
       <c r="K36" s="11">
-        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.33210558207753565</v>
       </c>
       <c r="L36" s="11">
-        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.16137430609197567</v>
       </c>
       <c r="M36" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.4082482904638628</v>
       </c>
       <c r="N36" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.61237243569579414</v>
       </c>
       <c r="O36" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="P36" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.11322770341445962</v>
       </c>
       <c r="Q36" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.33210558207753565</v>
       </c>
       <c r="R36" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>5.4073807043587475E-2</v>
       </c>
       <c r="S36" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>-8.8561488554009526E-2</v>
       </c>
       <c r="T36" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.28867513459481287</v>
       </c>
       <c r="U36" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.37499999999999994</v>
       </c>
       <c r="V36" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.45817096691151754</v>
       </c>
       <c r="W36" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.13363062095621214</v>
       </c>
       <c r="X36" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.1936491673103708</v>
       </c>
       <c r="Y36" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.41833001326703761</v>
       </c>
       <c r="Z36" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.14907119849998601</v>
       </c>
       <c r="AA36" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.33210558207753582</v>
       </c>
       <c r="AB36" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>-2.4056261216234394E-2</v>
       </c>
       <c r="AC36" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>1.9920476822239904E-2</v>
       </c>
       <c r="AD36" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="13"/>
         <v>0.52442381881571032</v>
       </c>
     </row>
@@ -8511,115 +8511,115 @@
         <v>0.5423261445466403</v>
       </c>
       <c r="C37" s="11">
-        <f t="shared" ref="C37:G37" si="8">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C37:G37" si="14">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.33210558207753565</v>
       </c>
       <c r="D37" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.41663054538992844</v>
       </c>
       <c r="E37" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.88561488554009526</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.65179490739586898</v>
       </c>
       <c r="G37" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0.33210558207753565</v>
       </c>
       <c r="H37" s="11">
-        <f>_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="H37:AD37" si="15">_xlfn.LET(_xlpm.a,H$2:H$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="I37" s="11">
-        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>-0.56101149146646101</v>
       </c>
       <c r="J37" s="11">
-        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.11834526708278764</v>
       </c>
       <c r="K37" s="11">
-        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.7411764705882351</v>
       </c>
       <c r="L37" s="11">
-        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.17149858514250882</v>
       </c>
       <c r="M37" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.5423261445466403</v>
       </c>
       <c r="N37" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.54232614454664041</v>
       </c>
       <c r="O37" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.33210558207753571</v>
       </c>
       <c r="P37" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.45124262819714017</v>
       </c>
       <c r="Q37" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.7411764705882351</v>
       </c>
       <c r="R37" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.21549855796030778</v>
       </c>
       <c r="S37" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.29411764705882359</v>
       </c>
       <c r="T37" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.86922698736035309</v>
       </c>
       <c r="U37" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.39852669849304279</v>
       </c>
       <c r="V37" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.37047928681747411</v>
       </c>
       <c r="W37" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.40237390808147822</v>
       </c>
       <c r="X37" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.20579830217101064</v>
       </c>
       <c r="Y37" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.56101149146646112</v>
       </c>
       <c r="Z37" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.59408852578600457</v>
       </c>
       <c r="AA37" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>-3.5294117647058809E-2</v>
       </c>
       <c r="AB37" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>-2.5565499628245711E-2</v>
       </c>
       <c r="AC37" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.37047928681747405</v>
       </c>
       <c r="AD37" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="15"/>
         <v>0.89136281768158665</v>
       </c>
     </row>
@@ -8632,115 +8632,115 @@
         <v>-0.48795003647426649</v>
       </c>
       <c r="C38" s="11">
-        <f t="shared" ref="C38:H38" si="9">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C38:H38" si="16">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.19920476822239888</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-0.58167505074711112</v>
       </c>
       <c r="E38" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-0.4581709669115176</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-0.62253175625488166</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-0.19920476822239888</v>
       </c>
       <c r="H38" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-0.56101149146646101</v>
       </c>
       <c r="I38" s="11">
-        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="I38:AD38" si="17">_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="J38" s="11">
-        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>0.31943828249997003</v>
       </c>
       <c r="K38" s="11">
-        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.79388418603744482</v>
       </c>
       <c r="L38" s="11">
-        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.21602468994692869</v>
       </c>
       <c r="M38" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.29277002188455992</v>
       </c>
       <c r="N38" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.48795003647426638</v>
       </c>
       <c r="O38" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>1.9920476822239921E-2</v>
       </c>
       <c r="P38" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.36991017400652398</v>
       </c>
       <c r="Q38" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.79388418603744482</v>
       </c>
       <c r="R38" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.27144835701531839</v>
       </c>
       <c r="S38" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.37047928681747427</v>
       </c>
       <c r="T38" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.43704152091682424</v>
       </c>
       <c r="U38" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-1.9920476822239921E-2</v>
       </c>
       <c r="V38" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.46666666666666679</v>
       </c>
       <c r="W38" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>0.14907119849998604</v>
       </c>
       <c r="X38" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>0.21602468994692864</v>
       </c>
       <c r="Y38" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.16190476190476194</v>
       </c>
       <c r="Z38" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.55233989995234378</v>
       </c>
       <c r="AA38" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>0.37047928681747405</v>
       </c>
       <c r="AB38" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>0.18401748249129454</v>
       </c>
       <c r="AC38" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.46666666666666679</v>
       </c>
       <c r="AD38" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="17"/>
         <v>-0.5464465629899421</v>
       </c>
     </row>
@@ -8753,115 +8753,115 @@
         <v>0.21821789023599231</v>
       </c>
       <c r="C39" s="11">
-        <f t="shared" ref="C39:I39" si="10">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C39:I39" si="18">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.35634832254989879</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>8.6710996952411981E-2</v>
       </c>
       <c r="E39" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.13363062095621214</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-0.2622652641564811</v>
       </c>
       <c r="G39" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-0.13363062095621203</v>
       </c>
       <c r="H39" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.11834526708278764</v>
       </c>
       <c r="I39" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>0.31943828249997003</v>
       </c>
       <c r="J39" s="11">
-        <f>_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="J39:AD39" si="19">_xlfn.LET(_xlpm.a,J$2:J$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="K39" s="11">
-        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>-0.4023739080814781</v>
       </c>
       <c r="L39" s="11">
-        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>-6.9006555934235436E-2</v>
       </c>
       <c r="M39" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>-0.21821789023599242</v>
       </c>
       <c r="N39" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>-0.21821789023599242</v>
       </c>
       <c r="O39" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>-0.13363062095621203</v>
       </c>
       <c r="P39" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>-0.1815682598006407</v>
       </c>
       <c r="Q39" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>-0.4023739080814781</v>
       </c>
       <c r="R39" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>-8.6710996952411939E-2</v>
       </c>
       <c r="S39" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>-0.11834526708278766</v>
       </c>
       <c r="T39" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>0.10286889997472788</v>
       </c>
       <c r="U39" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>0.1336306209562122</v>
       </c>
       <c r="V39" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>-0.14907119849998587</v>
       </c>
       <c r="W39" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>4.7619047619047596E-2</v>
       </c>
       <c r="X39" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>6.9006555934235422E-2</v>
       </c>
       <c r="Y39" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>0.14907119849998596</v>
       </c>
       <c r="Z39" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>0.19920476822239885</v>
       </c>
       <c r="AA39" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>0.11834526708278767</v>
       </c>
       <c r="AB39" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>0.46291004988627554</v>
       </c>
       <c r="AC39" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>-0.14907119849998587</v>
       </c>
       <c r="AD39" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="19"/>
         <v>2.8750392021567799E-2</v>
       </c>
     </row>
@@ -8874,115 +8874,115 @@
         <v>0.32539568672798419</v>
       </c>
       <c r="C40" s="11">
-        <f t="shared" ref="C40:J40" si="11">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C40:J40" si="20">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>8.8561488554009485E-2</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.41663054538992822</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.64207079201656891</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.65179490739586909</v>
       </c>
       <c r="G40" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.33210558207753565</v>
       </c>
       <c r="H40" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0.7411764705882351</v>
       </c>
       <c r="I40" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>-0.79388418603744482</v>
       </c>
       <c r="J40" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>-0.4023739080814781</v>
       </c>
       <c r="K40" s="11">
-        <f>_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="K40:AD40" si="21">_xlfn.LET(_xlpm.a,K$2:K$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="L40" s="11">
-        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.17149858514250882</v>
       </c>
       <c r="M40" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.54232614454664008</v>
       </c>
       <c r="N40" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.54232614454664008</v>
       </c>
       <c r="O40" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.33210558207753571</v>
       </c>
       <c r="P40" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.45124262819714017</v>
       </c>
       <c r="Q40" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="R40" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.21549855796030781</v>
       </c>
       <c r="S40" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="T40" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.58800649144965034</v>
       </c>
       <c r="U40" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.15498260496951666</v>
       </c>
       <c r="V40" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.37047928681747405</v>
       </c>
       <c r="W40" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>-0.1183452670827877</v>
       </c>
       <c r="X40" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>-0.17149858514250879</v>
       </c>
       <c r="Y40" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.3281387968954772</v>
       </c>
       <c r="Z40" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.37625606633113612</v>
       </c>
       <c r="AA40" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>-0.29411764705882343</v>
       </c>
       <c r="AB40" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>-0.30678599553894814</v>
       </c>
       <c r="AC40" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.370479286817474</v>
       </c>
       <c r="AD40" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="21"/>
         <v>0.65557145108044546</v>
       </c>
     </row>
@@ -8995,115 +8995,115 @@
         <v>0.31622776601683794</v>
       </c>
       <c r="C41" s="11">
-        <f t="shared" ref="C41:K41" si="12">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C41:K41" si="22">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.1936491673103708</v>
       </c>
       <c r="D41" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0.12565617248750868</v>
       </c>
       <c r="E41" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0.19364916731037088</v>
       </c>
       <c r="F41" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0.26311740579210896</v>
       </c>
       <c r="G41" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0.16137430609197567</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0.17149858514250882</v>
       </c>
       <c r="I41" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-0.21602468994692869</v>
       </c>
       <c r="J41" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>-6.9006555934235436E-2</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="22"/>
         <v>0.17149858514250882</v>
       </c>
       <c r="L41" s="11">
-        <f>_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="L41:AD41" si="23">_xlfn.LET(_xlpm.a,L$2:L$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="M41" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>-0.316227766016838</v>
       </c>
       <c r="N41" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>-1.3165625507162631E-17</v>
       </c>
       <c r="O41" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>-0.1936491673103708</v>
       </c>
       <c r="P41" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>0.38005847503304607</v>
       </c>
       <c r="Q41" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>0.17149858514250882</v>
       </c>
       <c r="R41" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>0.79582242575422191</v>
       </c>
       <c r="S41" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>0.20579830217101069</v>
       </c>
       <c r="T41" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>0.14907119849998599</v>
       </c>
       <c r="U41" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>-0.16137430609197581</v>
       </c>
       <c r="V41" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>0.12344267996967359</v>
       </c>
       <c r="W41" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>6.9006555934235422E-2</v>
       </c>
       <c r="X41" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>0.10000000000000006</v>
       </c>
       <c r="Y41" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>-0.12344267996967354</v>
       </c>
       <c r="Z41" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>0.28867513459481275</v>
       </c>
       <c r="AA41" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>-0.20579830217101072</v>
       </c>
       <c r="AB41" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>-0.1490711984999861</v>
       </c>
       <c r="AC41" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>0.46291004988627593</v>
       </c>
       <c r="AD41" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="23"/>
         <v>0.24216779313638467</v>
       </c>
     </row>
@@ -9116,115 +9116,115 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="C42" s="11">
-        <f t="shared" ref="C42:L42" si="13">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C42:L42" si="24">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.20412414523193159</v>
       </c>
       <c r="D42" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.13245323570650436</v>
       </c>
       <c r="E42" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.61237243569579458</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.64715022892943408</v>
       </c>
       <c r="G42" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.4082482904638628</v>
       </c>
       <c r="H42" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.5423261445466403</v>
       </c>
       <c r="I42" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-0.29277002188455992</v>
       </c>
       <c r="J42" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-0.21821789023599242</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>0.54232614454664008</v>
       </c>
       <c r="L42" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="24"/>
         <v>-0.316227766016838</v>
       </c>
       <c r="M42" s="11">
-        <f>_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="M42:AD42" si="25">_xlfn.LET(_xlpm.a,M$2:M$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="N42" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="O42" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>0.61237243569579425</v>
       </c>
       <c r="P42" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>9.2450032704204863E-2</v>
       </c>
       <c r="Q42" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>0.54232614454664008</v>
       </c>
       <c r="R42" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>-0.39735970711951318</v>
       </c>
       <c r="S42" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>-0.10846522890932812</v>
       </c>
       <c r="T42" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>0.47140452079103168</v>
       </c>
       <c r="U42" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>0.61237243569579458</v>
       </c>
       <c r="V42" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>0.29277002188456003</v>
       </c>
       <c r="W42" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>0.21821789023599239</v>
       </c>
       <c r="X42" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>0.316227766016838</v>
       </c>
       <c r="Y42" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>0.68313005106397329</v>
       </c>
       <c r="Z42" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>0.18257418583505539</v>
       </c>
       <c r="AA42" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>0.32539568672798408</v>
       </c>
       <c r="AB42" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>-0.23570226039551587</v>
       </c>
       <c r="AC42" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>-9.7590007294853301E-2</v>
       </c>
       <c r="AD42" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="25"/>
         <v>0.64228538253013323</v>
       </c>
     </row>
@@ -9237,115 +9237,115 @@
         <v>0.27272727272727271</v>
       </c>
       <c r="C43" s="11">
-        <f t="shared" ref="C43:M43" si="14">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C43:M43" si="26">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.20412414523193159</v>
       </c>
       <c r="D43" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.39735970711951318</v>
       </c>
       <c r="E43" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.61237243569579458</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.83205029433784383</v>
       </c>
       <c r="G43" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.61237243569579414</v>
       </c>
       <c r="H43" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.54232614454664041</v>
       </c>
       <c r="I43" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.48795003647426638</v>
       </c>
       <c r="J43" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.21821789023599242</v>
       </c>
       <c r="K43" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.54232614454664008</v>
       </c>
       <c r="L43" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-1.3165625507162631E-17</v>
       </c>
       <c r="M43" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="N43" s="11">
-        <f>_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="N43:AD43" si="27">_xlfn.LET(_xlpm.a,N$2:N$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="O43" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>0.4082482904638628</v>
       </c>
       <c r="P43" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>0.27735009811261463</v>
       </c>
       <c r="Q43" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>0.54232614454664008</v>
       </c>
       <c r="R43" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>-0.13245323570650452</v>
       </c>
       <c r="S43" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>-0.10846522890932812</v>
       </c>
       <c r="T43" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>0.47140452079103168</v>
       </c>
       <c r="U43" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>0.61237243569579469</v>
       </c>
       <c r="V43" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>0.48795003647426671</v>
       </c>
       <c r="W43" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>0.21821789023599239</v>
       </c>
       <c r="X43" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>0.316227766016838</v>
       </c>
       <c r="Y43" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>0.68313005106397329</v>
       </c>
       <c r="Z43" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>0.36514837167011077</v>
       </c>
       <c r="AA43" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>0.32539568672798397</v>
       </c>
       <c r="AB43" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>-0.23570226039551587</v>
       </c>
       <c r="AC43" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>9.7590007294853329E-2</v>
       </c>
       <c r="AD43" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="27"/>
         <v>0.77403623022862211</v>
       </c>
     </row>
@@ -9358,115 +9358,115 @@
         <v>-0.20412414523193159</v>
       </c>
       <c r="C44" s="11">
-        <f t="shared" ref="C44:N44" si="15">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C44:N44" si="28">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>8.3333333333333287E-2</v>
       </c>
       <c r="D44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-5.4073807043587496E-2</v>
       </c>
       <c r="E44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>0.37499999999999994</v>
       </c>
       <c r="F44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>0.30194054243855895</v>
       </c>
       <c r="G44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>0.54166666666666663</v>
       </c>
       <c r="H44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>0.33210558207753571</v>
       </c>
       <c r="I44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>1.9920476822239921E-2</v>
       </c>
       <c r="J44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-0.13363062095621203</v>
       </c>
       <c r="K44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>0.33210558207753571</v>
       </c>
       <c r="L44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>-0.1936491673103708</v>
       </c>
       <c r="M44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>0.61237243569579425</v>
       </c>
       <c r="N44" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="28"/>
         <v>0.4082482904638628</v>
       </c>
       <c r="O44" s="11">
-        <f>_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="O44:AD44" si="29">_xlfn.LET(_xlpm.a,O$2:O$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="P44" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>-0.301940542438559</v>
       </c>
       <c r="Q44" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>0.33210558207753571</v>
       </c>
       <c r="R44" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>-0.24333213169614379</v>
       </c>
       <c r="S44" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>-8.8561488554009485E-2</v>
       </c>
       <c r="T44" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>0.28867513459481287</v>
       </c>
       <c r="U44" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>0.37499999999999994</v>
       </c>
       <c r="V44" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>0.23904572186687881</v>
       </c>
       <c r="W44" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>0.13363062095621214</v>
       </c>
       <c r="X44" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>0.1936491673103708</v>
       </c>
       <c r="Y44" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>0.41833001326703773</v>
       </c>
       <c r="Z44" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>-5.5901699437494783E-2</v>
       </c>
       <c r="AA44" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>0.33210558207753582</v>
       </c>
       <c r="AB44" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>-0.28867513459481287</v>
       </c>
       <c r="AC44" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>-0.19920476822239877</v>
       </c>
       <c r="AD44" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="29"/>
         <v>0.37650940838051</v>
       </c>
     </row>
@@ -9479,115 +9479,115 @@
         <v>0.27735009811261463</v>
       </c>
       <c r="C45" s="11">
-        <f t="shared" ref="C45:O45" si="16">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C45:O45" si="30">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-9.4356419512049677E-2</v>
       </c>
       <c r="D45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0.33062326126679031</v>
       </c>
       <c r="E45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0.30194054243855895</v>
       </c>
       <c r="F45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0.5042735042735047</v>
       </c>
       <c r="G45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0.11322770341445962</v>
       </c>
       <c r="H45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0.45124262819714017</v>
       </c>
       <c r="I45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>-0.36991017400652398</v>
       </c>
       <c r="J45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>-0.1815682598006407</v>
       </c>
       <c r="K45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0.45124262819714017</v>
       </c>
       <c r="L45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0.38005847503304607</v>
       </c>
       <c r="M45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>9.2450032704204863E-2</v>
       </c>
       <c r="N45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>0.27735009811261463</v>
       </c>
       <c r="O45" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="30"/>
         <v>-0.301940542438559</v>
       </c>
       <c r="P45" s="11">
-        <f>_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="P45:AD45" si="31">_xlfn.LET(_xlpm.a,P$2:P$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="Q45" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>0.45124262819714017</v>
       </c>
       <c r="R45" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>0.47756693294091968</v>
       </c>
       <c r="S45" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>0.21057989315866549</v>
       </c>
       <c r="T45" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>0.39223227027636826</v>
       </c>
       <c r="U45" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>9.4356419512049622E-2</v>
       </c>
       <c r="V45" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>0.2255549841503196</v>
       </c>
       <c r="W45" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>0.18156825980064079</v>
       </c>
       <c r="X45" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>-5.847053462046857E-2</v>
       </c>
       <c r="Y45" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>-2.7066598098038415E-2</v>
       </c>
       <c r="Z45" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>0.3882167573820724</v>
       </c>
       <c r="AA45" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>-0.21057989315866543</v>
       </c>
       <c r="AB45" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>8.7162726728081827E-2</v>
       </c>
       <c r="AC45" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>0.42404337020260074</v>
       </c>
       <c r="AD45" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="31"/>
         <v>0.46133152051189991</v>
       </c>
     </row>
@@ -9600,115 +9600,115 @@
         <v>0.32539568672798419</v>
       </c>
       <c r="C46" s="11">
-        <f t="shared" ref="C46:P46" si="17">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C46:P46" si="32">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>8.8561488554009485E-2</v>
       </c>
       <c r="D46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.41663054538992822</v>
       </c>
       <c r="E46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.64207079201656891</v>
       </c>
       <c r="F46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.65179490739586909</v>
       </c>
       <c r="G46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.33210558207753565</v>
       </c>
       <c r="H46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.7411764705882351</v>
       </c>
       <c r="I46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>-0.79388418603744482</v>
       </c>
       <c r="J46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>-0.4023739080814781</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.17149858514250882</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.54232614454664008</v>
       </c>
       <c r="N46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.54232614454664008</v>
       </c>
       <c r="O46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.33210558207753571</v>
       </c>
       <c r="P46" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="32"/>
         <v>0.45124262819714017</v>
       </c>
       <c r="Q46" s="11">
-        <f>_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="Q46:AD46" si="33">_xlfn.LET(_xlpm.a,Q$2:Q$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="R46" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>0.21549855796030781</v>
       </c>
       <c r="S46" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="T46" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>0.58800649144965034</v>
       </c>
       <c r="U46" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>0.15498260496951666</v>
       </c>
       <c r="V46" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>0.37047928681747405</v>
       </c>
       <c r="W46" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>-0.1183452670827877</v>
       </c>
       <c r="X46" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>-0.17149858514250879</v>
       </c>
       <c r="Y46" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>0.3281387968954772</v>
       </c>
       <c r="Z46" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>0.37625606633113612</v>
       </c>
       <c r="AA46" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>-0.29411764705882343</v>
       </c>
       <c r="AB46" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>-0.30678599553894814</v>
       </c>
       <c r="AC46" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>0.370479286817474</v>
       </c>
       <c r="AD46" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="33"/>
         <v>0.65557145108044546</v>
       </c>
     </row>
@@ -9721,115 +9721,115 @@
         <v>0.39735970711951318</v>
       </c>
       <c r="C47" s="11">
-        <f t="shared" ref="C47:Q47" si="18">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C47:Q47" si="34">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.24333213169614379</v>
       </c>
       <c r="D47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.15789473684210531</v>
       </c>
       <c r="E47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.24333213169614387</v>
       </c>
       <c r="F47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.33062326126679037</v>
       </c>
       <c r="G47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>5.4073807043587475E-2</v>
       </c>
       <c r="H47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.21549855796030778</v>
       </c>
       <c r="I47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>-0.27144835701531839</v>
       </c>
       <c r="J47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>-8.6710996952411939E-2</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.21549855796030781</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.79582242575422191</v>
       </c>
       <c r="M47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>-0.39735970711951318</v>
       </c>
       <c r="N47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>-0.13245323570650452</v>
       </c>
       <c r="O47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>-0.24333213169614379</v>
       </c>
       <c r="P47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.47756693294091968</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="34"/>
         <v>0.21549855796030781</v>
       </c>
       <c r="R47" s="11">
-        <f>_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="R47:AD47" si="35">_xlfn.LET(_xlpm.a,R$2:R$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="S47" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="35"/>
         <v>0.41663054538992844</v>
       </c>
       <c r="T47" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="35"/>
         <v>0.18731716231633877</v>
       </c>
       <c r="U47" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="35"/>
         <v>-0.35147974578331898</v>
       </c>
       <c r="V47" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="35"/>
         <v>1.2926112238824795E-2</v>
       </c>
       <c r="W47" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="35"/>
         <v>8.6710996952412009E-2</v>
       </c>
       <c r="X47" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="35"/>
         <v>0.12565617248750865</v>
       </c>
       <c r="Y47" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="35"/>
         <v>-0.29730058149296784</v>
       </c>
       <c r="Z47" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="35"/>
         <v>0.36273812505500591</v>
       </c>
       <c r="AA47" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="35"/>
         <v>-0.41663054538992828</v>
       </c>
       <c r="AB47" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="35"/>
         <v>-0.18731716231633885</v>
       </c>
       <c r="AC47" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="35"/>
         <v>0.58167505074711112</v>
       </c>
       <c r="AD47" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="35"/>
         <v>0.22031667931983878</v>
       </c>
     </row>
@@ -9842,115 +9842,115 @@
         <v>0.54232614454664063</v>
       </c>
       <c r="C48" s="11">
-        <f t="shared" ref="C48:R48" si="19">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C48:R48" si="36">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.39852669849304279</v>
       </c>
       <c r="D48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>0.21549855796030784</v>
       </c>
       <c r="E48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>0.33210558207753577</v>
       </c>
       <c r="F48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>0.23063512107853829</v>
       </c>
       <c r="G48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>-8.8561488554009526E-2</v>
       </c>
       <c r="H48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>0.29411764705882359</v>
       </c>
       <c r="I48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>-0.37047928681747427</v>
       </c>
       <c r="J48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>-0.11834526708278766</v>
       </c>
       <c r="K48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="L48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>0.20579830217101069</v>
       </c>
       <c r="M48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>-0.10846522890932812</v>
       </c>
       <c r="N48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>-0.10846522890932812</v>
       </c>
       <c r="O48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>-8.8561488554009485E-2</v>
       </c>
       <c r="P48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>0.21057989315866549</v>
       </c>
       <c r="Q48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="R48" s="11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="36"/>
         <v>0.41663054538992844</v>
       </c>
       <c r="S48" s="11">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="S48:AD48" si="37">_xlfn.LET(_xlpm.a,S$2:S$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="T48" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="37"/>
         <v>0.25565499628245686</v>
       </c>
       <c r="U48" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="37"/>
         <v>-0.39852669849304295</v>
       </c>
       <c r="V48" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="37"/>
         <v>-0.37047928681747405</v>
       </c>
       <c r="W48" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="37"/>
         <v>0.11834526708278773</v>
       </c>
       <c r="X48" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="37"/>
         <v>0.17149858514250885</v>
       </c>
       <c r="Y48" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="37"/>
         <v>-9.5266102324493354E-2</v>
       </c>
       <c r="Z48" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="37"/>
         <v>-0.15842360687626783</v>
       </c>
       <c r="AA48" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="37"/>
         <v>-0.22352941176470587</v>
       </c>
       <c r="AB48" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="37"/>
         <v>-0.25565499628245697</v>
       </c>
       <c r="AC48" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="37"/>
         <v>0.79388418603744504</v>
       </c>
       <c r="AD48" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="37"/>
         <v>0.24829545422392901</v>
       </c>
     </row>
@@ -9963,115 +9963,115 @@
         <v>0.47140452079103168</v>
       </c>
       <c r="C49" s="11">
-        <f t="shared" ref="C49:S49" si="20">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C49:S49" si="38">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.28867513459481287</v>
       </c>
       <c r="D49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.49951243284357005</v>
       </c>
       <c r="E49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.76980035891950083</v>
       </c>
       <c r="F49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.56655772373253166</v>
       </c>
       <c r="G49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.28867513459481287</v>
       </c>
       <c r="H49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.86922698736035309</v>
       </c>
       <c r="I49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>-0.43704152091682424</v>
       </c>
       <c r="J49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.10286889997472788</v>
       </c>
       <c r="K49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.58800649144965034</v>
       </c>
       <c r="L49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.14907119849998599</v>
       </c>
       <c r="M49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.47140452079103168</v>
       </c>
       <c r="N49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.47140452079103168</v>
       </c>
       <c r="O49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.28867513459481287</v>
       </c>
       <c r="P49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.39223227027636826</v>
       </c>
       <c r="Q49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.58800649144965034</v>
       </c>
       <c r="R49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.18731716231633877</v>
       </c>
       <c r="S49" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="38"/>
         <v>0.25565499628245686</v>
       </c>
       <c r="T49" s="11">
-        <f>_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="T49:AD49" si="39">_xlfn.LET(_xlpm.a,T$2:T$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="U49" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="39"/>
         <v>0.50518148554092246</v>
       </c>
       <c r="V49" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="39"/>
         <v>0.32203059435976533</v>
       </c>
       <c r="W49" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="39"/>
         <v>0.46291004988627565</v>
       </c>
       <c r="X49" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="39"/>
         <v>0.26087459737497548</v>
       </c>
       <c r="Y49" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="39"/>
         <v>0.69006555934235436</v>
       </c>
       <c r="Z49" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="39"/>
         <v>0.51639777949432242</v>
       </c>
       <c r="AA49" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="39"/>
         <v>2.556549962824568E-2</v>
       </c>
       <c r="AB49" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="39"/>
         <v>-8.333333333333337E-2</v>
       </c>
       <c r="AC49" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="39"/>
         <v>0.32203059435976533</v>
       </c>
       <c r="AD49" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="39"/>
         <v>0.83457551393565255</v>
       </c>
     </row>
@@ -10084,115 +10084,115 @@
         <v>2.2662332591841973E-17</v>
       </c>
       <c r="C50" s="11">
-        <f t="shared" ref="C50:T50" si="21">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C50:T50" si="40">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.14583333333333334</v>
       </c>
       <c r="D50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.35147974578331886</v>
       </c>
       <c r="E50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.31249999999999994</v>
       </c>
       <c r="F50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.32081182634096872</v>
       </c>
       <c r="G50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.37499999999999994</v>
       </c>
       <c r="H50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.39852669849304279</v>
       </c>
       <c r="I50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>-1.9920476822239921E-2</v>
       </c>
       <c r="J50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.1336306209562122</v>
       </c>
       <c r="K50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.15498260496951666</v>
       </c>
       <c r="L50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>-0.16137430609197581</v>
       </c>
       <c r="M50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.61237243569579458</v>
       </c>
       <c r="N50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.61237243569579469</v>
       </c>
       <c r="O50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.37499999999999994</v>
       </c>
       <c r="P50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>9.4356419512049622E-2</v>
       </c>
       <c r="Q50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.15498260496951666</v>
       </c>
       <c r="R50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>-0.35147974578331898</v>
       </c>
       <c r="S50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>-0.39852669849304295</v>
       </c>
       <c r="T50" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="40"/>
         <v>0.50518148554092246</v>
       </c>
       <c r="U50" s="11">
-        <f>_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="U50:AD50" si="41">_xlfn.LET(_xlpm.a,U$2:U$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="V50" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="41"/>
         <v>0.41833001326703767</v>
       </c>
       <c r="W50" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="41"/>
         <v>0.35634832254989918</v>
       </c>
       <c r="X50" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="41"/>
         <v>0.1613743060919757</v>
       </c>
       <c r="Y50" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="41"/>
         <v>0.67729621195615652</v>
       </c>
       <c r="Z50" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="41"/>
         <v>0.26087459737497548</v>
       </c>
       <c r="AA50" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="41"/>
         <v>0.39852669849304267</v>
       </c>
       <c r="AB50" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="41"/>
         <v>0.28867513459481292</v>
       </c>
       <c r="AC50" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="41"/>
         <v>-0.23904572186687867</v>
       </c>
       <c r="AD50" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="41"/>
         <v>0.54795565683949232</v>
       </c>
     </row>
@@ -10205,115 +10205,115 @@
         <v>-9.7590007294853301E-2</v>
       </c>
       <c r="C51" s="11">
-        <f t="shared" ref="C51:U51" si="22">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C51:U51" si="42">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.19920476822239874</v>
       </c>
       <c r="D51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.27144835701531833</v>
       </c>
       <c r="E51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.19920476822239885</v>
       </c>
       <c r="F51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.36991017400652404</v>
       </c>
       <c r="G51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.45817096691151754</v>
       </c>
       <c r="H51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.37047928681747411</v>
       </c>
       <c r="I51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>-0.46666666666666679</v>
       </c>
       <c r="J51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>-0.14907119849998587</v>
       </c>
       <c r="K51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.37047928681747405</v>
       </c>
       <c r="L51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.12344267996967359</v>
       </c>
       <c r="M51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.29277002188456003</v>
       </c>
       <c r="N51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.48795003647426671</v>
       </c>
       <c r="O51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.23904572186687881</v>
       </c>
       <c r="P51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.2255549841503196</v>
       </c>
       <c r="Q51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.37047928681747405</v>
       </c>
       <c r="R51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>1.2926112238824795E-2</v>
       </c>
       <c r="S51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>-0.37047928681747405</v>
       </c>
       <c r="T51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.32203059435976533</v>
       </c>
       <c r="U51" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="42"/>
         <v>0.41833001326703767</v>
       </c>
       <c r="V51" s="11">
-        <f>_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="V51:AD51" si="43">_xlfn.LET(_xlpm.a,V$2:V$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="W51" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="43"/>
         <v>0.14907119849998599</v>
       </c>
       <c r="X51" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="43"/>
         <v>-0.12344267996967354</v>
       </c>
       <c r="Y51" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="43"/>
         <v>0.25714285714285706</v>
       </c>
       <c r="Z51" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="43"/>
         <v>0.62360956446232363</v>
       </c>
       <c r="AA51" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="43"/>
         <v>0.13760659224649033</v>
       </c>
       <c r="AB51" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="43"/>
         <v>0.18401748249129452</v>
       </c>
       <c r="AC51" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="43"/>
         <v>-0.25714285714285712</v>
       </c>
       <c r="AD51" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="43"/>
         <v>0.4259068799774548</v>
       </c>
     </row>
@@ -10326,115 +10326,115 @@
         <v>0.21821789023599239</v>
       </c>
       <c r="C52" s="11">
-        <f t="shared" ref="C52:V52" si="23">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C52:V52" si="44">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.13363062095621214</v>
       </c>
       <c r="D52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>-8.6710996952411995E-2</v>
       </c>
       <c r="E52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.35634832254989918</v>
       </c>
       <c r="F52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.26226526415648116</v>
       </c>
       <c r="G52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.13363062095621214</v>
       </c>
       <c r="H52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.40237390808147822</v>
       </c>
       <c r="I52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.14907119849998604</v>
       </c>
       <c r="J52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>4.7619047619047596E-2</v>
       </c>
       <c r="K52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>-0.1183452670827877</v>
       </c>
       <c r="L52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>6.9006555934235422E-2</v>
       </c>
       <c r="M52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.21821789023599239</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.21821789023599239</v>
       </c>
       <c r="O52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.13363062095621214</v>
       </c>
       <c r="P52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.18156825980064079</v>
       </c>
       <c r="Q52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>-0.1183452670827877</v>
       </c>
       <c r="R52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>8.6710996952412009E-2</v>
       </c>
       <c r="S52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.11834526708278773</v>
       </c>
       <c r="T52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.46291004988627565</v>
       </c>
       <c r="U52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.35634832254989918</v>
       </c>
       <c r="V52" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="44"/>
         <v>0.14907119849998599</v>
       </c>
       <c r="W52" s="11">
-        <f>_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="W52:AD52" si="45">_xlfn.LET(_xlpm.a,W$2:W$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="X52" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="45"/>
         <v>0.69006555934235425</v>
       </c>
       <c r="Y52" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="45"/>
         <v>0.31943828249997003</v>
       </c>
       <c r="Z52" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="45"/>
         <v>0.23904572186687872</v>
       </c>
       <c r="AA52" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="45"/>
         <v>0.40237390808147816</v>
       </c>
       <c r="AB52" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="45"/>
         <v>0.10286889997472795</v>
       </c>
       <c r="AC52" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="45"/>
         <v>0.14907119849998599</v>
       </c>
       <c r="AD52" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="45"/>
         <v>0.44563107633430088</v>
       </c>
     </row>
@@ -10447,115 +10447,115 @@
         <v>0.316227766016838</v>
       </c>
       <c r="C53" s="11">
-        <f t="shared" ref="C53:W53" si="24">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C53:W53" si="46">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.1936491673103708</v>
       </c>
       <c r="D53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>-0.12565617248750865</v>
       </c>
       <c r="E53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.51639777949432242</v>
       </c>
       <c r="F53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.38005847503304596</v>
       </c>
       <c r="G53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.1936491673103708</v>
       </c>
       <c r="H53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.20579830217101064</v>
       </c>
       <c r="I53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.21602468994692864</v>
       </c>
       <c r="J53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>6.9006555934235422E-2</v>
       </c>
       <c r="K53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>-0.17149858514250879</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.10000000000000006</v>
       </c>
       <c r="M53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.316227766016838</v>
       </c>
       <c r="N53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.316227766016838</v>
       </c>
       <c r="O53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.1936491673103708</v>
       </c>
       <c r="P53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>-5.847053462046857E-2</v>
       </c>
       <c r="Q53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>-0.17149858514250879</v>
       </c>
       <c r="R53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.12565617248750865</v>
       </c>
       <c r="S53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.17149858514250885</v>
       </c>
       <c r="T53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.26087459737497548</v>
       </c>
       <c r="U53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.1613743060919757</v>
       </c>
       <c r="V53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>-0.12344267996967354</v>
       </c>
       <c r="W53" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.69006555934235425</v>
       </c>
       <c r="X53" s="11">
-        <f>_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="X53:AD53" si="47">_xlfn.LET(_xlpm.a,X$2:X$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="Y53" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="47"/>
         <v>0.46291004988627593</v>
       </c>
       <c r="Z53" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="47"/>
         <v>2.8867513459481332E-2</v>
       </c>
       <c r="AA53" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="47"/>
         <v>0.5830951894845301</v>
       </c>
       <c r="AB53" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="47"/>
         <v>-0.26087459737497565</v>
       </c>
       <c r="AC53" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="47"/>
         <v>0.21602468994692864</v>
       </c>
       <c r="AD53" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="47"/>
         <v>0.41663276238517788</v>
       </c>
     </row>
@@ -10568,115 +10568,115 @@
         <v>0.29277002188455997</v>
       </c>
       <c r="C54" s="11">
-        <f t="shared" ref="C54:X54" si="25">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C54:X54" si="48">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.41833001326703773</v>
       </c>
       <c r="D54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.2973005814929679</v>
       </c>
       <c r="E54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.67729621195615652</v>
       </c>
       <c r="F54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.42404337020260074</v>
       </c>
       <c r="G54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.41833001326703761</v>
       </c>
       <c r="H54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.56101149146646112</v>
       </c>
       <c r="I54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>-0.16190476190476194</v>
       </c>
       <c r="J54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.14907119849998596</v>
       </c>
       <c r="K54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.3281387968954772</v>
       </c>
       <c r="L54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>-0.12344267996967354</v>
       </c>
       <c r="M54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.68313005106397329</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.68313005106397329</v>
       </c>
       <c r="O54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.41833001326703773</v>
       </c>
       <c r="P54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>-2.7066598098038415E-2</v>
       </c>
       <c r="Q54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.3281387968954772</v>
       </c>
       <c r="R54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>-0.29730058149296784</v>
       </c>
       <c r="S54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>-9.5266102324493354E-2</v>
       </c>
       <c r="T54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.69006555934235436</v>
       </c>
       <c r="U54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.67729621195615652</v>
       </c>
       <c r="V54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.25714285714285706</v>
       </c>
       <c r="W54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.31943828249997003</v>
       </c>
       <c r="X54" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="48"/>
         <v>0.46291004988627593</v>
       </c>
       <c r="Y54" s="11">
-        <f>_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="Y54:AD54" si="49">_xlfn.LET(_xlpm.a,Y$2:Y$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
       <c r="Z54" s="11">
-        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="49"/>
         <v>0.16035674514745471</v>
       </c>
       <c r="AA54" s="11">
-        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="49"/>
         <v>0.56101149146646079</v>
       </c>
       <c r="AB54" s="11">
-        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="49"/>
         <v>-0.18401748249129449</v>
       </c>
       <c r="AC54" s="11">
-        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="49"/>
         <v>4.7619047619047582E-2</v>
       </c>
       <c r="AD54" s="11">
-        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" si="49"/>
         <v>0.70555894456642543</v>
       </c>
     </row>
@@ -10689,95 +10689,95 @@
         <v>0.36514837167011077</v>
       </c>
       <c r="C55" s="11">
-        <f t="shared" ref="C55:Y55" si="26">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$Z$2:$Z$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C55:Y55" si="50">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$Z$2:$Z$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-5.5901699437494783E-2</v>
       </c>
       <c r="D55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.43528575006600717</v>
       </c>
       <c r="E55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.46584749531245623</v>
       </c>
       <c r="F55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.54012766244462229</v>
       </c>
       <c r="G55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.14907119849998601</v>
       </c>
       <c r="H55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.59408852578600457</v>
       </c>
       <c r="I55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>-0.55233989995234378</v>
       </c>
       <c r="J55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.19920476822239885</v>
       </c>
       <c r="K55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.37625606633113612</v>
       </c>
       <c r="L55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.28867513459481275</v>
       </c>
       <c r="M55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.18257418583505539</v>
       </c>
       <c r="N55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.36514837167011077</v>
       </c>
       <c r="O55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>-5.5901699437494783E-2</v>
       </c>
       <c r="P55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.3882167573820724</v>
       </c>
       <c r="Q55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.37625606633113612</v>
       </c>
       <c r="R55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.36273812505500591</v>
       </c>
       <c r="S55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>-0.15842360687626783</v>
       </c>
       <c r="T55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.51639777949432242</v>
       </c>
       <c r="U55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.26087459737497548</v>
       </c>
       <c r="V55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.62360956446232363</v>
       </c>
       <c r="W55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.23904572186687872</v>
       </c>
       <c r="X55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>2.8867513459481332E-2</v>
       </c>
       <c r="Y55" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="50"/>
         <v>0.16035674514745471</v>
       </c>
       <c r="Z55" s="11">
@@ -10810,99 +10810,99 @@
         <v>-0.10846522890932807</v>
       </c>
       <c r="C56" s="11">
-        <f t="shared" ref="C56:Z56" si="27">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$AA$2:$AA$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C56:Z56" si="51">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$AA$2:$AA$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.33210558207753582</v>
       </c>
       <c r="D56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>-0.2154985579603077</v>
       </c>
       <c r="E56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.15498260496951669</v>
       </c>
       <c r="F56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>-1.00276139599365E-2</v>
       </c>
       <c r="G56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.33210558207753582</v>
       </c>
       <c r="H56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>-3.5294117647058809E-2</v>
       </c>
       <c r="I56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.37047928681747405</v>
       </c>
       <c r="J56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.11834526708278767</v>
       </c>
       <c r="K56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>-0.29411764705882343</v>
       </c>
       <c r="L56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>-0.20579830217101072</v>
       </c>
       <c r="M56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.32539568672798408</v>
       </c>
       <c r="N56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.32539568672798397</v>
       </c>
       <c r="O56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.33210558207753582</v>
       </c>
       <c r="P56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>-0.21057989315866543</v>
       </c>
       <c r="Q56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>-0.29411764705882343</v>
       </c>
       <c r="R56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>-0.41663054538992828</v>
       </c>
       <c r="S56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>-0.22352941176470587</v>
       </c>
       <c r="T56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>2.556549962824568E-2</v>
       </c>
       <c r="U56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.39852669849304267</v>
       </c>
       <c r="V56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.13760659224649033</v>
       </c>
       <c r="W56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.40237390808147816</v>
       </c>
       <c r="X56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.5830951894845301</v>
       </c>
       <c r="Y56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>0.56101149146646079</v>
       </c>
       <c r="Z56" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="51"/>
         <v>-0.2772413120334688</v>
       </c>
       <c r="AA56" s="11">
@@ -10931,103 +10931,103 @@
         <v>-0.23570226039551592</v>
       </c>
       <c r="C57" s="11">
-        <f t="shared" ref="C57:AA57" si="28">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$AB$2:$AB$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C57:AA57" si="52">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$AB$2:$AB$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-2.4056261216234446E-2</v>
       </c>
       <c r="D57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0.18731716231633883</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-0.24056261216234415</v>
       </c>
       <c r="F57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-0.32686022523030678</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-2.4056261216234394E-2</v>
       </c>
       <c r="H57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-2.5565499628245711E-2</v>
       </c>
       <c r="I57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0.18401748249129454</v>
       </c>
       <c r="J57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0.46291004988627554</v>
       </c>
       <c r="K57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-0.30678599553894814</v>
       </c>
       <c r="L57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-0.1490711984999861</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-0.23570226039551587</v>
       </c>
       <c r="N57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-0.23570226039551587</v>
       </c>
       <c r="O57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-0.28867513459481287</v>
       </c>
       <c r="P57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>8.7162726728081827E-2</v>
       </c>
       <c r="Q57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-0.30678599553894814</v>
       </c>
       <c r="R57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-0.18731716231633885</v>
       </c>
       <c r="S57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-0.25565499628245697</v>
       </c>
       <c r="T57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-8.333333333333337E-2</v>
       </c>
       <c r="U57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0.28867513459481292</v>
       </c>
       <c r="V57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0.18401748249129452</v>
       </c>
       <c r="W57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0.10286889997472795</v>
       </c>
       <c r="X57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-0.26087459737497565</v>
       </c>
       <c r="Y57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-0.18401748249129449</v>
       </c>
       <c r="Z57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>0.19364916731037088</v>
       </c>
       <c r="AA57" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="52"/>
         <v>-2.55654996282457E-2</v>
       </c>
       <c r="AB57" s="11">
@@ -11052,107 +11052,107 @@
         <v>0.6831300510639734</v>
       </c>
       <c r="C58" s="11">
-        <f t="shared" ref="C58:AB58" si="29">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$AC$2:$AC$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C58:AB58" si="53">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$AC$2:$AC$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.45817096691151754</v>
       </c>
       <c r="D58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.27144835701531839</v>
       </c>
       <c r="E58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.41833001326703784</v>
       </c>
       <c r="F58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.36991017400652404</v>
       </c>
       <c r="G58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>1.9920476822239904E-2</v>
       </c>
       <c r="H58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.37047928681747405</v>
       </c>
       <c r="I58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>-0.46666666666666679</v>
       </c>
       <c r="J58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>-0.14907119849998587</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.370479286817474</v>
       </c>
       <c r="L58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.46291004988627593</v>
       </c>
       <c r="M58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>-9.7590007294853301E-2</v>
       </c>
       <c r="N58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>9.7590007294853329E-2</v>
       </c>
       <c r="O58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>-0.19920476822239877</v>
       </c>
       <c r="P58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.42404337020260074</v>
       </c>
       <c r="Q58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.370479286817474</v>
       </c>
       <c r="R58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.58167505074711112</v>
       </c>
       <c r="S58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.79388418603744504</v>
       </c>
       <c r="T58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.32203059435976533</v>
       </c>
       <c r="U58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>-0.23904572186687867</v>
       </c>
       <c r="V58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>-0.25714285714285712</v>
       </c>
       <c r="W58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.14907119849998599</v>
       </c>
       <c r="X58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>0.21602468994692864</v>
       </c>
       <c r="Y58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>4.7619047619047582E-2</v>
       </c>
       <c r="Z58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>3.5634832254989951E-2</v>
       </c>
       <c r="AA58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>-9.526610232449341E-2</v>
       </c>
       <c r="AB58" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="53"/>
         <v>-0.32203059435976522</v>
       </c>
       <c r="AC58" s="11">
@@ -11173,27 +11173,27 @@
         <v>0.55994110271857767</v>
       </c>
       <c r="C59" s="11">
-        <f t="shared" ref="C59:AC59" si="30">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$AD$2:$AD$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <f t="shared" ref="C59:AC59" si="54">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$AD$2:$AD$23,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.37650940838051</v>
       </c>
       <c r="D59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.52352478254219126</v>
       </c>
       <c r="E59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.89925238162309318</v>
       </c>
       <c r="F59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.82826517214017681</v>
       </c>
       <c r="G59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.52442381881571032</v>
       </c>
       <c r="H59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.89136281768158665</v>
       </c>
       <c r="I59" s="11">
@@ -11201,83 +11201,83 @@
         <v>-0.5464465629899421</v>
       </c>
       <c r="J59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>2.8750392021567799E-2</v>
       </c>
       <c r="K59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.65557145108044546</v>
       </c>
       <c r="L59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.24216779313638467</v>
       </c>
       <c r="M59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.64228538253013323</v>
       </c>
       <c r="N59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.77403623022862211</v>
       </c>
       <c r="O59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.37650940838051</v>
       </c>
       <c r="P59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.46133152051189991</v>
       </c>
       <c r="Q59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.65557145108044546</v>
       </c>
       <c r="R59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.22031667931983878</v>
       </c>
       <c r="S59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.24829545422392901</v>
       </c>
       <c r="T59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.83457551393565255</v>
       </c>
       <c r="U59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.54795565683949232</v>
       </c>
       <c r="V59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.4259068799774548</v>
       </c>
       <c r="W59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.44563107633430088</v>
       </c>
       <c r="X59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.41663276238517788</v>
       </c>
       <c r="Y59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.70555894456642543</v>
       </c>
       <c r="Z59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.54122183441167471</v>
       </c>
       <c r="AA59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.22328727897835332</v>
       </c>
       <c r="AB59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>-0.10868890414045711</v>
       </c>
       <c r="AC59" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="54"/>
         <v>0.4259068799774548</v>
       </c>
       <c r="AD59" s="11">

--- a/data/fc-typology-data-generator-rev1.xlsx
+++ b/data/fc-typology-data-generator-rev1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/FCA-grammar-typology/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01FF66D-A676-0042-B414-E08C72CB72D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BBEFE6-20F3-B946-A4CB-F609A560E2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32600" windowHeight="17700" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32560" windowHeight="17140" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="typology.data27a" sheetId="2" r:id="rId1"/>
-    <sheet name="typology.data26c" sheetId="1" r:id="rId2"/>
+    <sheet name="typology.data28a" sheetId="3" r:id="rId1"/>
+    <sheet name="typology.data27a" sheetId="2" r:id="rId2"/>
+    <sheet name="typology.data26c" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,6 +37,422 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Kow Kuroda</author>
+    <author>Kow KURODA</author>
+    <author>tc={491E588F-D5FB-B240-A3A1-469DAFE1ED69}</author>
+    <author>tc={1AC68849-7C2E-9740-8191-1522AC1C4360}</author>
+    <author>Kuroda, Kow</author>
+    <author>tc={6A3A9D1A-0892-F44B-88FA-29800B0BB727}</author>
+    <author>tc={FF9BC953-55B0-3241-B342-BBC8F4663882}</author>
+    <author>tc={7BB25491-0E7D-FE47-8BA1-B1A75032A3B4}</author>
+    <author>tc={57B13AC1-1D72-B143-93F0-32D6C5923C4E}</author>
+    <author>tc={6D18EE09-8FF1-4A41-8A60-9B4B0C955E27}</author>
+    <author>tc={63D52AE7-3771-B245-BE1F-41FD9BF2537F}</author>
+  </authors>
+  <commentList>
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{8D9E5F24-775C-D94D-A19D-A11DA905FC33}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kow Kuroda:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>questionable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="1" shapeId="0" xr:uid="{534B049C-6A02-094C-9CDC-B3D3C28FE7C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Kow KURODA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>on orthography alone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="1" shapeId="0" xr:uid="{083B45F2-107C-FF4B-99C3-28052B376179}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Kow KURODA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+on orthography alone</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC4" authorId="2" shapeId="0" xr:uid="{491E588F-D5FB-B240-A3A1-469DAFE1ED69}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    questionable</t>
+      </text>
+    </comment>
+    <comment ref="AC6" authorId="1" shapeId="0" xr:uid="{BBE9E7ED-0EA3-9145-8A4A-01959B30DD0C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Kow KURODA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>dubious</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="3" shapeId="0" xr:uid="{1AC68849-7C2E-9740-8191-1522AC1C4360}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Only locative</t>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="4" shapeId="0" xr:uid="{0B61D543-F851-9D45-BBDB-EC4AB68BA245}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kuroda, Kow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>locative only</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="5" shapeId="0" xr:uid="{6A3A9D1A-0892-F44B-88FA-29800B0BB727}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    only -que</t>
+      </text>
+    </comment>
+    <comment ref="U13" authorId="6" shapeId="0" xr:uid="{FF9BC953-55B0-3241-B342-BBC8F4663882}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    questionable</t>
+      </text>
+    </comment>
+    <comment ref="AC13" authorId="0" shapeId="0" xr:uid="{A8E685CC-24CF-B744-8EAA-3F35642A0773}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kow Kuroda:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>questionable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U14" authorId="7" shapeId="0" xr:uid="{7BB25491-0E7D-FE47-8BA1-B1A75032A3B4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    questionable</t>
+      </text>
+    </comment>
+    <comment ref="P16" authorId="1" shapeId="0" xr:uid="{4B233DF5-7DE0-3D4B-923E-D489BC5A02A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Kow KURODA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Osaka"/>
+            <family val="2"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Only AP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T20" authorId="8" shapeId="0" xr:uid="{57B13AC1-1D72-B143-93F0-32D6C5923C4E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    only voice</t>
+      </text>
+    </comment>
+    <comment ref="T21" authorId="9" shapeId="0" xr:uid="{6D18EE09-8FF1-4A41-8A60-9B4B0C955E27}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    only voice</t>
+      </text>
+    </comment>
+    <comment ref="T22" authorId="10" shapeId="0" xr:uid="{63D52AE7-3771-B245-BE1F-41FD9BF2537F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    only voice</t>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0" shapeId="0" xr:uid="{0999E8B8-FD07-1B4F-ADFD-155427B5142F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kow Kuroda:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Questionable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S23" authorId="0" shapeId="0" xr:uid="{082DC0CC-36D4-E84D-A340-EA51A60F2330}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kow Kuroda:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Somewhat questionable</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W23" authorId="0" shapeId="0" xr:uid="{C7DBEE71-6BC7-C843-A769-739287C7F69C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kow Kuroda:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Questionable</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kow Kuroda</author>
@@ -424,7 +841,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kow KURODA</author>
@@ -778,7 +1195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="91">
   <si>
     <t>Chinese</t>
     <phoneticPr fontId="1"/>
@@ -1795,7 +2212,17 @@
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="191">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4624,6 +5051,1446 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor rgb="FF000000"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -4646,42 +6513,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6813515-D4FA-9F4F-9988-42E80BF4FE39}" name="テーブル14" displayName="テーブル14" ref="A1:AD23" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{15E17D5F-AAAF-0943-B0BA-A1F19058C436}" name="テーブル146" displayName="テーブル146" ref="A1:AD23" totalsRowShown="0" headerRowDxfId="190" dataDxfId="189">
   <autoFilter ref="A1:AD23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD23">
     <sortCondition descending="1" ref="AD1:AD23"/>
   </sortState>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{4E183DB9-3887-6149-9F20-ADB413CE7DA0}" name="Language" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{6CC4B955-A7F3-5B45-8003-7D395270CD16}" name="has_definite_art" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{BFE2580C-9FA2-1B47-859C-435EBEE82600}" name="has_indefinite_art" dataDxfId="121"/>
-    <tableColumn id="27" xr3:uid="{8CD6E7AB-771D-D141-B096-8653ED219942}" name="has_personal_pro" dataDxfId="120"/>
-    <tableColumn id="4" xr3:uid="{CAE83823-EFDE-0841-8EAD-5C55B047950D}" name="N_encodes_plurality" dataDxfId="119"/>
-    <tableColumn id="5" xr3:uid="{9B9409FE-C2BB-5642-BCF4-68D0EEA5717C}" name="N_encodes_class" dataDxfId="118"/>
-    <tableColumn id="6" xr3:uid="{03628350-1230-CD42-8AE6-59B8A69B6735}" name="N_encodes_case" dataDxfId="117"/>
-    <tableColumn id="20" xr3:uid="{D9A50294-F25C-0B44-AB27-C2D601056CD2}" name="Relative_cl_follows_N" dataDxfId="116"/>
-    <tableColumn id="19" xr3:uid="{CC85F86E-7564-DA4E-BC63-E0EABE0B082C}" name="has_postpositions" dataDxfId="115"/>
-    <tableColumn id="30" xr3:uid="{5415F26A-B7C5-2541-901F-7FC8BDCB51FA}" name="postposition_agrees_w_Subj" dataDxfId="114"/>
-    <tableColumn id="7" xr3:uid="{BBD37D6B-31A4-D840-AC02-5EEBA32806CC}" name="has_prepositions" dataDxfId="113"/>
-    <tableColumn id="29" xr3:uid="{78CDA7B8-5E7E-0743-8C74-4A526B557E32}" name="preposition_agrees_w_Subj" dataDxfId="112"/>
-    <tableColumn id="16" xr3:uid="{E301F5FE-91F2-0A4A-9CAC-E6EA4D7E6D04}" name="A_agrees_w_Nplurality" dataDxfId="111"/>
-    <tableColumn id="17" xr3:uid="{8079B9CF-D8A7-1647-B09C-1210C5FEE56C}" name="A_agrees_w_Nclass" dataDxfId="110"/>
-    <tableColumn id="22" xr3:uid="{36EC1B73-3D25-7444-B1A9-9CCA6D8D20DB}" name="A_agrees_w_Ncase" dataDxfId="109"/>
-    <tableColumn id="8" xr3:uid="{7571900F-4294-EE4D-A159-072376FBA53D}" name="A_follows_N" dataDxfId="108"/>
-    <tableColumn id="9" xr3:uid="{2516CD4E-0D42-3F44-B7F0-3C936B4FEF3F}" name="Obj_follows_V" dataDxfId="107"/>
-    <tableColumn id="28" xr3:uid="{578D1017-9BBA-0847-BE69-BEE3E0B53F1C}" name="Subj_follows_V" dataDxfId="106"/>
-    <tableColumn id="18" xr3:uid="{F02B337A-48D8-9148-BC13-16ABCCFDA2D5}" name="Sentence_ requires_Subj" dataDxfId="105"/>
-    <tableColumn id="25" xr3:uid="{281B368D-8FA3-F042-B80A-9B6884D7367B}" name="V_agrees_w_Subj" dataDxfId="104"/>
-    <tableColumn id="12" xr3:uid="{BFA10B0D-E59D-124C-BC7D-9B682E13DD5B}" name="V_encodes_plurality" dataDxfId="103"/>
-    <tableColumn id="13" xr3:uid="{02A91772-4705-054A-AA9B-457A0621423D}" name="V_encodes_Nclass" dataDxfId="102"/>
-    <tableColumn id="14" xr3:uid="{139FD4E4-31A7-7A41-A2A3-DBEC13C9228C}" name="V_encodes_voice" dataDxfId="101"/>
-    <tableColumn id="21" xr3:uid="{27945233-46DA-2C4B-B006-EE936FA6308F}" name="V_encodes_tense" dataDxfId="100"/>
-    <tableColumn id="11" xr3:uid="{603E955C-80CC-2446-9DCC-D2A7DDCFF51E}" name="V_encodes_person" dataDxfId="99"/>
-    <tableColumn id="10" xr3:uid="{F752FBDF-55DF-A04F-827C-436545FA9657}" name="V_encodes_aspect" dataDxfId="98"/>
-    <tableColumn id="26" xr3:uid="{E9C8970B-2001-CD48-9A2F-CAA77DB4495F}" name="V_infinitive_is_derived" dataDxfId="97"/>
-    <tableColumn id="23" xr3:uid="{3241375F-FA0A-8447-AF56-740E202B3750}" name="V_agrees_w_Obj" dataDxfId="96"/>
-    <tableColumn id="15" xr3:uid="{F4AC1376-10AD-D244-9C08-7AB43543A00A}" name="Tense_agreement" dataDxfId="95"/>
-    <tableColumn id="24" xr3:uid="{A963D50A-A45A-8842-AEF7-231387556379}" name="sum" dataDxfId="94">
+    <tableColumn id="1" xr3:uid="{DC1C05FD-EFBC-984E-96B3-47ADB80DFB51}" name="Language" dataDxfId="188"/>
+    <tableColumn id="2" xr3:uid="{4919D23E-6D0C-4749-A0AA-FEBCAEAF31C5}" name="has_definite_art" dataDxfId="187"/>
+    <tableColumn id="3" xr3:uid="{F9335F87-EB40-244B-9815-C68D73E4080C}" name="has_indefinite_art" dataDxfId="186"/>
+    <tableColumn id="27" xr3:uid="{F23DDFDB-E38B-0E47-9308-F5F1E776BA6A}" name="has_personal_pro" dataDxfId="185"/>
+    <tableColumn id="4" xr3:uid="{8E79FF28-102F-504D-B86C-258C8674BEF5}" name="N_encodes_plurality" dataDxfId="184"/>
+    <tableColumn id="5" xr3:uid="{FA7E4057-CE22-7342-9088-F7E461D61FA8}" name="N_encodes_class" dataDxfId="183"/>
+    <tableColumn id="6" xr3:uid="{74B15D8C-E36D-0B43-B70A-D9A814D78693}" name="N_encodes_case" dataDxfId="182"/>
+    <tableColumn id="20" xr3:uid="{654824CE-7CCB-6848-AC92-A261E9E3365B}" name="Relative_cl_follows_N" dataDxfId="181"/>
+    <tableColumn id="19" xr3:uid="{B3EB9B2E-D688-A746-A571-278A116916C5}" name="has_postpositions" dataDxfId="180"/>
+    <tableColumn id="30" xr3:uid="{7719D728-6777-C24E-A566-4268C0CEBF72}" name="postposition_agrees_w_Subj" dataDxfId="179"/>
+    <tableColumn id="7" xr3:uid="{40477B5C-CE2B-BA44-A5C7-B5E8876FEF6F}" name="has_prepositions" dataDxfId="178"/>
+    <tableColumn id="29" xr3:uid="{162EDDBD-E611-5042-AB37-757EF5FF0911}" name="preposition_agrees_w_Subj" dataDxfId="177"/>
+    <tableColumn id="16" xr3:uid="{49DF456B-9C32-E243-9E2D-B9085BEC71E1}" name="A_agrees_w_Nplurality" dataDxfId="176"/>
+    <tableColumn id="17" xr3:uid="{193E4748-4B5E-5148-8847-22F8095E68AE}" name="A_agrees_w_Nclass" dataDxfId="175"/>
+    <tableColumn id="22" xr3:uid="{645270AC-8543-6949-B8B1-CF8EFEF3724A}" name="A_agrees_w_Ncase" dataDxfId="174"/>
+    <tableColumn id="8" xr3:uid="{7118FB5F-D41A-9E44-A14D-C05D838C4AC7}" name="A_follows_N" dataDxfId="173"/>
+    <tableColumn id="9" xr3:uid="{FD914D71-D6FF-7D46-B4B9-B618E79987F5}" name="Obj_follows_V" dataDxfId="172"/>
+    <tableColumn id="28" xr3:uid="{1D1374BC-CE69-F14F-9CE7-CCA3F5847C0A}" name="Subj_follows_V" dataDxfId="171"/>
+    <tableColumn id="18" xr3:uid="{7656D3C2-5945-454D-A505-3E9980826F8B}" name="Sentence_ requires_Subj" dataDxfId="170"/>
+    <tableColumn id="25" xr3:uid="{BBF29C63-A7B7-7147-8459-283715EA93E2}" name="V_agrees_w_Subj" dataDxfId="169"/>
+    <tableColumn id="12" xr3:uid="{CE43DB5B-AF31-5245-B56A-655F0D909D05}" name="V_encodes_plurality" dataDxfId="168"/>
+    <tableColumn id="13" xr3:uid="{4D562208-937A-7645-B288-823CD5998C97}" name="V_encodes_Nclass" dataDxfId="167"/>
+    <tableColumn id="14" xr3:uid="{2A57A324-16E7-EA47-BB7D-EAA331E56D76}" name="V_encodes_voice" dataDxfId="166"/>
+    <tableColumn id="21" xr3:uid="{56433B9A-DCDA-3041-828C-4A75F2947347}" name="V_encodes_tense" dataDxfId="165"/>
+    <tableColumn id="11" xr3:uid="{51433449-63D9-7848-8494-DB2590E61417}" name="V_encodes_person" dataDxfId="164"/>
+    <tableColumn id="10" xr3:uid="{13FAB398-84D0-D840-BDE3-628DAFBFA1D6}" name="V_encodes_aspect" dataDxfId="163"/>
+    <tableColumn id="26" xr3:uid="{94792207-746D-7642-8C8B-CA04197A2621}" name="V_infinitive_is_derived" dataDxfId="162"/>
+    <tableColumn id="23" xr3:uid="{20128833-883D-034A-BCF4-7A110357899B}" name="V_agrees_w_Obj" dataDxfId="161"/>
+    <tableColumn id="15" xr3:uid="{86B9DAB9-ECBB-8248-9F7A-52232B0C9FC1}" name="Tense_agreement" dataDxfId="160"/>
+    <tableColumn id="24" xr3:uid="{C70184A7-3843-CC4E-91B9-10168DBB35CC}" name="sum" dataDxfId="159">
       <calculatedColumnFormula>SUM(B2:AC2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4690,82 +6557,168 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0E7E103B-2E16-5040-986F-E72D092D4CC7}" name="Table25" displayName="Table25" ref="A30:AD59" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CCDB94CD-10D1-A047-8F4F-D830B2BA8FF1}" name="Table257" displayName="Table257" ref="A30:AD59" totalsRowShown="0" headerRowDxfId="158" dataDxfId="157">
   <autoFilter ref="A30:AD59" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:AD59">
     <sortCondition ref="A30:A59"/>
   </sortState>
   <tableColumns count="30">
-    <tableColumn id="1" xr3:uid="{3DCC83AD-9F69-EF48-A0C1-C9AE2BBE3469}" name="Correlation" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{EDD5F828-836B-1D44-9AF6-F5BE2836F660}" name="has_definite_art" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{079B382E-9E2A-094C-ACAF-52F32A6E00ED}" name="has_indefinite_art" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{0699A8AB-8F45-0E4C-9C72-D794E5EA649F}" name="has_personal_pro" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{CC2E7BDC-6C79-D644-AA7D-63768B008AEA}" name="N_encodes_plurality" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{24AD433B-82DA-4D41-88AA-8AA75DA6DC50}" name="N_encodes_class" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{7F84A447-649F-5647-9DF7-DA606E2425CB}" name="N_encodes_case" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{5048E75E-BFDE-D449-B5CB-0D50A5995F93}" name="Relative_cl_follows_N" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{75A45A7C-E8FB-1142-B0AB-08F22765003D}" name="has_postpositions" dataDxfId="83"/>
-    <tableColumn id="30" xr3:uid="{2255D9BB-8BEC-FA4C-90FB-A1B3E629F8C5}" name="preposition_agrees_w_Subj" dataDxfId="82"/>
-    <tableColumn id="10" xr3:uid="{2DB9B6AB-77FE-0B4F-BEE1-D8E15160D30A}" name="has_prepositions" dataDxfId="81"/>
-    <tableColumn id="29" xr3:uid="{CDB94EA5-4668-B24A-83B3-9110CF482470}" name="prepositions_agree_w_Subj" dataDxfId="80"/>
-    <tableColumn id="11" xr3:uid="{CF0609FE-AA6D-284A-BB2A-16137D303F3D}" name="A_agrees_w_Nplurality" dataDxfId="79"/>
-    <tableColumn id="12" xr3:uid="{A46192A6-71FF-F243-9312-4E581680187B}" name="A_agrees_w_Nclass" dataDxfId="78"/>
-    <tableColumn id="13" xr3:uid="{9C4AB670-519C-8E45-9A62-486886679CFE}" name="A_agrees_w_Ncase" dataDxfId="77"/>
-    <tableColumn id="14" xr3:uid="{31688CEE-1386-2B42-BA81-1F4BF4151A4C}" name="A_follows_N" dataDxfId="76"/>
-    <tableColumn id="15" xr3:uid="{8E6144BF-98BA-ED43-B5C0-02A25ADA5D40}" name="Obj_follows_V" dataDxfId="75"/>
-    <tableColumn id="16" xr3:uid="{F6A2BCFC-E8FA-4E4A-AAD2-C9002046954D}" name="Subj_follows_V" dataDxfId="74"/>
-    <tableColumn id="17" xr3:uid="{E1A4C817-EAB8-674E-84B5-2BFE6A648052}" name="Sentence requires_Subj" dataDxfId="73"/>
-    <tableColumn id="18" xr3:uid="{0C897990-532E-2449-BC29-948DE755BCAD}" name="V_agrees_w_Subj" dataDxfId="72"/>
-    <tableColumn id="19" xr3:uid="{3F9D7136-789F-D348-AB23-12E53BB8A048}" name="V_encodes_Subj_plurality" dataDxfId="71"/>
-    <tableColumn id="20" xr3:uid="{4BF97483-7554-C54D-B41C-727571954460}" name="V_encodes_Subj_class" dataDxfId="70"/>
-    <tableColumn id="21" xr3:uid="{3AD4C563-3D83-4249-9D34-6EC44F73ABA3}" name="V_encodes_voice" dataDxfId="69"/>
-    <tableColumn id="22" xr3:uid="{4034EB35-3F31-ED41-B01B-0C4CA6C11080}" name="V_encodes_tense" dataDxfId="68"/>
-    <tableColumn id="23" xr3:uid="{3FF6D798-6718-CD48-AEF0-0C0600F21483}" name="V_encodes_person" dataDxfId="67"/>
-    <tableColumn id="24" xr3:uid="{BB0780D0-38C9-304D-B945-583D4581D332}" name="V_encodes_aspect" dataDxfId="66"/>
-    <tableColumn id="25" xr3:uid="{E1F6D71A-EF54-BC44-8C72-994DE0A37790}" name="V_infinitive_is_derived" dataDxfId="65"/>
-    <tableColumn id="26" xr3:uid="{F529EFB6-AF79-3240-B005-D1D014AB4466}" name="V_agrees_w_Obj" dataDxfId="64"/>
-    <tableColumn id="27" xr3:uid="{F252060C-BAD7-A944-8280-A4AFFEAA93C1}" name="Tense_agreement" dataDxfId="63"/>
-    <tableColumn id="28" xr3:uid="{EA6E8513-3EA7-084D-A4B8-11D76045B135}" name="sum" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{41CED87D-5B49-564B-B18E-3B31F84C9E52}" name="Correlation" dataDxfId="156"/>
+    <tableColumn id="2" xr3:uid="{3E557B57-53DC-5442-A708-CBDCF088124F}" name="has_definite_art" dataDxfId="155"/>
+    <tableColumn id="3" xr3:uid="{A44B09F4-55DD-204C-8152-7A02016C20F0}" name="has_indefinite_art" dataDxfId="154"/>
+    <tableColumn id="4" xr3:uid="{1C97517B-6511-054B-8F3F-2B3A73245BEE}" name="has_personal_pro" dataDxfId="153"/>
+    <tableColumn id="5" xr3:uid="{085216B4-ECB7-7443-9FAF-F86CA2C55984}" name="N_encodes_plurality" dataDxfId="152"/>
+    <tableColumn id="6" xr3:uid="{E938C918-CCCC-0848-B6A0-3B01C852118E}" name="N_encodes_class" dataDxfId="151"/>
+    <tableColumn id="7" xr3:uid="{FC7EC5D0-D3BC-F141-B1A5-8DF2E7C54CBF}" name="N_encodes_case" dataDxfId="150"/>
+    <tableColumn id="8" xr3:uid="{091C4AF7-B107-3B4C-8E88-C0F3A496BDBE}" name="Relative_cl_follows_N" dataDxfId="149"/>
+    <tableColumn id="9" xr3:uid="{8A49027B-A8BC-534A-A9B8-8710533FE78F}" name="has_postpositions" dataDxfId="148"/>
+    <tableColumn id="30" xr3:uid="{A49FA513-A8CE-404D-A2F6-7CD7448201D3}" name="preposition_agrees_w_Subj" dataDxfId="147"/>
+    <tableColumn id="10" xr3:uid="{35FB6964-3BA5-B840-9E26-CEDB25D8EC22}" name="has_prepositions" dataDxfId="146"/>
+    <tableColumn id="29" xr3:uid="{1CA45335-0B28-A948-9CE8-891779C8B6FC}" name="prepositions_agree_w_Subj" dataDxfId="145"/>
+    <tableColumn id="11" xr3:uid="{537EEFF4-C6C8-154A-978B-B23EEAE3F201}" name="A_agrees_w_Nplurality" dataDxfId="144"/>
+    <tableColumn id="12" xr3:uid="{8CC7AFEE-B462-9A46-B987-4865B963F966}" name="A_agrees_w_Nclass" dataDxfId="143"/>
+    <tableColumn id="13" xr3:uid="{E7FE8FA1-A694-9548-9B2A-714D16883432}" name="A_agrees_w_Ncase" dataDxfId="142"/>
+    <tableColumn id="14" xr3:uid="{32775B48-5FEF-FD47-83DC-601403710350}" name="A_follows_N" dataDxfId="141"/>
+    <tableColumn id="15" xr3:uid="{CCDCD005-1773-794D-A787-D980A4D3CA65}" name="Obj_follows_V" dataDxfId="140"/>
+    <tableColumn id="16" xr3:uid="{E1B49B6D-8676-5448-9679-7016EC3E27E0}" name="Subj_follows_V" dataDxfId="139"/>
+    <tableColumn id="17" xr3:uid="{BC08AE95-1453-5C4A-AC04-D18B2E768DDD}" name="Sentence requires_Subj" dataDxfId="138"/>
+    <tableColumn id="18" xr3:uid="{58AC0C41-9AFD-FB47-AF23-4D00637FC693}" name="V_agrees_w_Subj" dataDxfId="137"/>
+    <tableColumn id="19" xr3:uid="{56C2387B-80FD-5F4A-910E-F7AFF1F98425}" name="V_encodes_Subj_plurality" dataDxfId="136"/>
+    <tableColumn id="20" xr3:uid="{5A582FBE-D7DE-A540-882E-FD95D98E06CE}" name="V_encodes_Subj_class" dataDxfId="135"/>
+    <tableColumn id="21" xr3:uid="{82ADE10C-0E62-B24A-9A17-2F643B8B7F4A}" name="V_encodes_voice" dataDxfId="134"/>
+    <tableColumn id="22" xr3:uid="{EE34DB5A-4047-5548-913F-59AAA8E9858A}" name="V_encodes_tense" dataDxfId="133"/>
+    <tableColumn id="23" xr3:uid="{D4E5E67D-752A-8E4E-AFF7-BC5748721FC2}" name="V_encodes_person" dataDxfId="132"/>
+    <tableColumn id="24" xr3:uid="{1E81A52C-C690-D94A-9CB5-BF0DF8C9160B}" name="V_encodes_aspect" dataDxfId="131"/>
+    <tableColumn id="25" xr3:uid="{A5EDA930-19FA-9541-BD03-79DBF2DAB2BB}" name="V_infinitive_is_derived" dataDxfId="130"/>
+    <tableColumn id="26" xr3:uid="{158BBB81-5062-1E46-8B16-76005C3379DC}" name="V_agrees_w_Obj" dataDxfId="129"/>
+    <tableColumn id="27" xr3:uid="{1778239D-7A1E-F24A-838D-EC220A71456C}" name="Tense_agreement" dataDxfId="128"/>
+    <tableColumn id="28" xr3:uid="{B0F5F9EB-4556-9448-BCAC-9C9F81536C2F}" name="sum" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:AB22" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6813515-D4FA-9F4F-9988-42E80BF4FE39}" name="テーブル14" displayName="テーブル14" ref="A1:AD23" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125">
+  <autoFilter ref="A1:AD23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD23">
+    <sortCondition descending="1" ref="AD1:AD23"/>
+  </sortState>
+  <tableColumns count="30">
+    <tableColumn id="1" xr3:uid="{4E183DB9-3887-6149-9F20-ADB413CE7DA0}" name="Language" dataDxfId="124"/>
+    <tableColumn id="2" xr3:uid="{6CC4B955-A7F3-5B45-8003-7D395270CD16}" name="has_definite_art" dataDxfId="123"/>
+    <tableColumn id="3" xr3:uid="{BFE2580C-9FA2-1B47-859C-435EBEE82600}" name="has_indefinite_art" dataDxfId="122"/>
+    <tableColumn id="27" xr3:uid="{8CD6E7AB-771D-D141-B096-8653ED219942}" name="has_personal_pro" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{CAE83823-EFDE-0841-8EAD-5C55B047950D}" name="N_encodes_plurality" dataDxfId="120"/>
+    <tableColumn id="5" xr3:uid="{9B9409FE-C2BB-5642-BCF4-68D0EEA5717C}" name="N_encodes_class" dataDxfId="119"/>
+    <tableColumn id="6" xr3:uid="{03628350-1230-CD42-8AE6-59B8A69B6735}" name="N_encodes_case" dataDxfId="118"/>
+    <tableColumn id="20" xr3:uid="{D9A50294-F25C-0B44-AB27-C2D601056CD2}" name="Relative_cl_follows_N" dataDxfId="117"/>
+    <tableColumn id="19" xr3:uid="{CC85F86E-7564-DA4E-BC63-E0EABE0B082C}" name="has_postpositions" dataDxfId="116"/>
+    <tableColumn id="30" xr3:uid="{5415F26A-B7C5-2541-901F-7FC8BDCB51FA}" name="postposition_agrees_w_Subj" dataDxfId="115"/>
+    <tableColumn id="7" xr3:uid="{BBD37D6B-31A4-D840-AC02-5EEBA32806CC}" name="has_prepositions" dataDxfId="114"/>
+    <tableColumn id="29" xr3:uid="{78CDA7B8-5E7E-0743-8C74-4A526B557E32}" name="preposition_agrees_w_Subj" dataDxfId="113"/>
+    <tableColumn id="16" xr3:uid="{E301F5FE-91F2-0A4A-9CAC-E6EA4D7E6D04}" name="A_agrees_w_Nplurality" dataDxfId="112"/>
+    <tableColumn id="17" xr3:uid="{8079B9CF-D8A7-1647-B09C-1210C5FEE56C}" name="A_agrees_w_Nclass" dataDxfId="111"/>
+    <tableColumn id="22" xr3:uid="{36EC1B73-3D25-7444-B1A9-9CCA6D8D20DB}" name="A_agrees_w_Ncase" dataDxfId="110"/>
+    <tableColumn id="8" xr3:uid="{7571900F-4294-EE4D-A159-072376FBA53D}" name="A_follows_N" dataDxfId="109"/>
+    <tableColumn id="9" xr3:uid="{2516CD4E-0D42-3F44-B7F0-3C936B4FEF3F}" name="Obj_follows_V" dataDxfId="108"/>
+    <tableColumn id="28" xr3:uid="{578D1017-9BBA-0847-BE69-BEE3E0B53F1C}" name="Subj_follows_V" dataDxfId="107"/>
+    <tableColumn id="18" xr3:uid="{F02B337A-48D8-9148-BC13-16ABCCFDA2D5}" name="Sentence_ requires_Subj" dataDxfId="106"/>
+    <tableColumn id="25" xr3:uid="{281B368D-8FA3-F042-B80A-9B6884D7367B}" name="V_agrees_w_Subj" dataDxfId="105"/>
+    <tableColumn id="12" xr3:uid="{BFA10B0D-E59D-124C-BC7D-9B682E13DD5B}" name="V_encodes_plurality" dataDxfId="104"/>
+    <tableColumn id="13" xr3:uid="{02A91772-4705-054A-AA9B-457A0621423D}" name="V_encodes_Nclass" dataDxfId="103"/>
+    <tableColumn id="14" xr3:uid="{139FD4E4-31A7-7A41-A2A3-DBEC13C9228C}" name="V_encodes_voice" dataDxfId="102"/>
+    <tableColumn id="21" xr3:uid="{27945233-46DA-2C4B-B006-EE936FA6308F}" name="V_encodes_tense" dataDxfId="101"/>
+    <tableColumn id="11" xr3:uid="{603E955C-80CC-2446-9DCC-D2A7DDCFF51E}" name="V_encodes_person" dataDxfId="100"/>
+    <tableColumn id="10" xr3:uid="{F752FBDF-55DF-A04F-827C-436545FA9657}" name="V_encodes_aspect" dataDxfId="99"/>
+    <tableColumn id="26" xr3:uid="{E9C8970B-2001-CD48-9A2F-CAA77DB4495F}" name="V_infinitive_is_derived" dataDxfId="98"/>
+    <tableColumn id="23" xr3:uid="{3241375F-FA0A-8447-AF56-740E202B3750}" name="V_agrees_w_Obj" dataDxfId="97"/>
+    <tableColumn id="15" xr3:uid="{F4AC1376-10AD-D244-9C08-7AB43543A00A}" name="Tense_agreement" dataDxfId="96"/>
+    <tableColumn id="24" xr3:uid="{A963D50A-A45A-8842-AEF7-231387556379}" name="sum" dataDxfId="95">
+      <calculatedColumnFormula>SUM(B2:AC2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0E7E103B-2E16-5040-986F-E72D092D4CC7}" name="Table25" displayName="Table25" ref="A30:AD59" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+  <autoFilter ref="A30:AD59" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:AD59">
+    <sortCondition ref="A30:A59"/>
+  </sortState>
+  <tableColumns count="30">
+    <tableColumn id="1" xr3:uid="{3DCC83AD-9F69-EF48-A0C1-C9AE2BBE3469}" name="Correlation" dataDxfId="92"/>
+    <tableColumn id="2" xr3:uid="{EDD5F828-836B-1D44-9AF6-F5BE2836F660}" name="has_definite_art" dataDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{079B382E-9E2A-094C-ACAF-52F32A6E00ED}" name="has_indefinite_art" dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{0699A8AB-8F45-0E4C-9C72-D794E5EA649F}" name="has_personal_pro" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{CC2E7BDC-6C79-D644-AA7D-63768B008AEA}" name="N_encodes_plurality" dataDxfId="88"/>
+    <tableColumn id="6" xr3:uid="{24AD433B-82DA-4D41-88AA-8AA75DA6DC50}" name="N_encodes_class" dataDxfId="87"/>
+    <tableColumn id="7" xr3:uid="{7F84A447-649F-5647-9DF7-DA606E2425CB}" name="N_encodes_case" dataDxfId="86"/>
+    <tableColumn id="8" xr3:uid="{5048E75E-BFDE-D449-B5CB-0D50A5995F93}" name="Relative_cl_follows_N" dataDxfId="85"/>
+    <tableColumn id="9" xr3:uid="{75A45A7C-E8FB-1142-B0AB-08F22765003D}" name="has_postpositions" dataDxfId="84"/>
+    <tableColumn id="30" xr3:uid="{2255D9BB-8BEC-FA4C-90FB-A1B3E629F8C5}" name="preposition_agrees_w_Subj" dataDxfId="83"/>
+    <tableColumn id="10" xr3:uid="{2DB9B6AB-77FE-0B4F-BEE1-D8E15160D30A}" name="has_prepositions" dataDxfId="82"/>
+    <tableColumn id="29" xr3:uid="{CDB94EA5-4668-B24A-83B3-9110CF482470}" name="prepositions_agree_w_Subj" dataDxfId="81"/>
+    <tableColumn id="11" xr3:uid="{CF0609FE-AA6D-284A-BB2A-16137D303F3D}" name="A_agrees_w_Nplurality" dataDxfId="80"/>
+    <tableColumn id="12" xr3:uid="{A46192A6-71FF-F243-9312-4E581680187B}" name="A_agrees_w_Nclass" dataDxfId="79"/>
+    <tableColumn id="13" xr3:uid="{9C4AB670-519C-8E45-9A62-486886679CFE}" name="A_agrees_w_Ncase" dataDxfId="78"/>
+    <tableColumn id="14" xr3:uid="{31688CEE-1386-2B42-BA81-1F4BF4151A4C}" name="A_follows_N" dataDxfId="77"/>
+    <tableColumn id="15" xr3:uid="{8E6144BF-98BA-ED43-B5C0-02A25ADA5D40}" name="Obj_follows_V" dataDxfId="76"/>
+    <tableColumn id="16" xr3:uid="{F6A2BCFC-E8FA-4E4A-AAD2-C9002046954D}" name="Subj_follows_V" dataDxfId="75"/>
+    <tableColumn id="17" xr3:uid="{E1A4C817-EAB8-674E-84B5-2BFE6A648052}" name="Sentence requires_Subj" dataDxfId="74"/>
+    <tableColumn id="18" xr3:uid="{0C897990-532E-2449-BC29-948DE755BCAD}" name="V_agrees_w_Subj" dataDxfId="73"/>
+    <tableColumn id="19" xr3:uid="{3F9D7136-789F-D348-AB23-12E53BB8A048}" name="V_encodes_Subj_plurality" dataDxfId="72"/>
+    <tableColumn id="20" xr3:uid="{4BF97483-7554-C54D-B41C-727571954460}" name="V_encodes_Subj_class" dataDxfId="71"/>
+    <tableColumn id="21" xr3:uid="{3AD4C563-3D83-4249-9D34-6EC44F73ABA3}" name="V_encodes_voice" dataDxfId="70"/>
+    <tableColumn id="22" xr3:uid="{4034EB35-3F31-ED41-B01B-0C4CA6C11080}" name="V_encodes_tense" dataDxfId="69"/>
+    <tableColumn id="23" xr3:uid="{3FF6D798-6718-CD48-AEF0-0C0600F21483}" name="V_encodes_person" dataDxfId="68"/>
+    <tableColumn id="24" xr3:uid="{BB0780D0-38C9-304D-B945-583D4581D332}" name="V_encodes_aspect" dataDxfId="67"/>
+    <tableColumn id="25" xr3:uid="{E1F6D71A-EF54-BC44-8C72-994DE0A37790}" name="V_infinitive_is_derived" dataDxfId="66"/>
+    <tableColumn id="26" xr3:uid="{F529EFB6-AF79-3240-B005-D1D014AB4466}" name="V_agrees_w_Obj" dataDxfId="65"/>
+    <tableColumn id="27" xr3:uid="{F252060C-BAD7-A944-8280-A4AFFEAA93C1}" name="Tense_agreement" dataDxfId="64"/>
+    <tableColumn id="28" xr3:uid="{EA6E8513-3EA7-084D-A4B8-11D76045B135}" name="sum" dataDxfId="63"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:AB22" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A1:AB22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB22">
     <sortCondition descending="1" ref="AB1:AB22"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Language" dataDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="has_definite_art" dataDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="has_indefinite_art" dataDxfId="57"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="has_personal_pro" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N_encodes_plurality" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N_encodes_class" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="N_encodes_case" dataDxfId="53"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Relative_cl_follows_N" dataDxfId="52"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="has_postpositions" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="has_prepositions" dataDxfId="50"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A_agrees_w_Nplurality" dataDxfId="49"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="A_agrees_w_Nclass" dataDxfId="48"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="A_agrees_w_Ncase" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A_follows_N" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Obj_follows_V" dataDxfId="45"/>
-    <tableColumn id="28" xr3:uid="{797B11B6-B034-5741-89AB-7E651574C23F}" name="Subj_follows_V" dataDxfId="44"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sentence requires_Subj" dataDxfId="43"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="V_agrees_w_Subj" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="V_encodes_plurality" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="V_encodes_class" dataDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="V_encodes_voice" dataDxfId="39"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="V_encodes_tense" dataDxfId="38"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="V_encodes_person" dataDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V_encodes_aspect" dataDxfId="36"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="V_infinitive_is_derived" dataDxfId="35"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="V_agrees_w_Obj" dataDxfId="34"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Tense_agreement" dataDxfId="33"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="sum" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Language" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="has_definite_art" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="has_indefinite_art" dataDxfId="58"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="has_personal_pro" dataDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N_encodes_plurality" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N_encodes_class" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="N_encodes_case" dataDxfId="54"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Relative_cl_follows_N" dataDxfId="53"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="has_postpositions" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="has_prepositions" dataDxfId="51"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A_agrees_w_Nplurality" dataDxfId="50"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="A_agrees_w_Nclass" dataDxfId="49"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="A_agrees_w_Ncase" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A_follows_N" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Obj_follows_V" dataDxfId="46"/>
+    <tableColumn id="28" xr3:uid="{797B11B6-B034-5741-89AB-7E651574C23F}" name="Subj_follows_V" dataDxfId="45"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sentence requires_Subj" dataDxfId="44"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="V_agrees_w_Subj" dataDxfId="43"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="V_encodes_plurality" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="V_encodes_class" dataDxfId="41"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="V_encodes_voice" dataDxfId="40"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="V_encodes_tense" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="V_encodes_person" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V_encodes_aspect" dataDxfId="37"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="V_infinitive_is_derived" dataDxfId="36"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="V_agrees_w_Obj" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Tense_agreement" dataDxfId="34"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="sum" dataDxfId="33">
       <calculatedColumnFormula>SUM(B2:AA2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4773,41 +6726,41 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}" name="Table2" displayName="Table2" ref="A28:AB55" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}" name="Table2" displayName="Table2" ref="A28:AB55" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A28:AB55" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:AB55">
     <sortCondition ref="AB28:AB55"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{E8A81ADF-8FDA-A64C-A57D-6FA12EDF766A}" name="Correlation" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00BEF632-EA2D-6246-90B6-C0014D489FA1}" name="has_definite_art" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{BAB19402-C14F-964E-8182-E44F3A7A9DD0}" name="has_indefinite_art" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{8CD330E1-23DA-F741-8743-2999A04D5858}" name="has_personal_pro" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{BA2A0D1E-8A0F-4447-B4BC-A7D7381CE6C4}" name="N_encodes_plurality" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{F4EE229A-AD64-7747-8F4D-B69696AF555D}" name="N_encodes_class" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{03E0F05A-4C08-7B43-AEEF-D8A2D52EA73A}" name="N_encodes_case" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{7703BD9E-18FB-7F46-AB65-5E5CC6C87088}" name="Relative_cl_follows_N" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{84530509-1909-DB4B-A3B9-3C585ACBF333}" name="has_postpositions" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{759F2737-4544-3F46-A130-5C9565DE5D13}" name="has_prepositions" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{34F851A4-14B4-FD4E-A4AA-AA0C8D5DD781}" name="A_agrees_w_Nplurality" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{70E5ECEE-041A-BE48-90AF-840467EB4978}" name="A_agrees_w_Nclass" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{EE07A013-1C93-0F44-9C18-4AE1CA4D1ED3}" name="A_agrees_w_Ncase" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{679BC547-A9D5-9A49-80A9-B648709020F4}" name="A_follows_N" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{C35FA572-1689-074B-B324-B7C386EEF087}" name="Obj_follows_V" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{20B38B28-DAA3-4D40-8DAF-FAF653DFD38F}" name="Subj_follows_V" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{E5B7A97D-7E5B-2A42-8C7C-7FDD1C5F3326}" name="Sentence requires_Subj" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{AC8542AF-1D36-3948-B68E-98A0602A1621}" name="V_agrees_w_Subj" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{C6BC0E80-1C56-F547-A12C-033A42B40B92}" name="V_encodes_plurality" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{AF0DCB71-D1DD-B94F-BDE4-76F27102195A}" name="V_encodes_class" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{BD15E09B-4E36-A845-AAEF-BA7F1369B9A0}" name="V_encodes_voice" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{CD1412AE-E0C8-EE41-B1C6-E8C51EBB2FF2}" name="V_encodes_tense" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{ABE62467-3422-8543-A8D9-8B13977C9B33}" name="V_encodes_person" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{BF0BC527-606E-5045-97AA-1E9BC47976E3}" name="V_encodes_aspect" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{9DF274E4-3C86-F049-9D0D-F7F7301719C4}" name="V_infinitive_is_derived" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{BB73562D-4A24-814C-8639-43EE7D8D8C4A}" name="V_agrees_w_Obj" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{21C0EF0B-E5A8-A14E-BDBA-C7268E1655EB}" name="Tense_agreement" dataDxfId="3"/>
-    <tableColumn id="28" xr3:uid="{1F4E77A4-0B94-184D-B025-77DA4D0B4E81}" name="sum" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E8A81ADF-8FDA-A64C-A57D-6FA12EDF766A}" name="Correlation" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{00BEF632-EA2D-6246-90B6-C0014D489FA1}" name="has_definite_art" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{BAB19402-C14F-964E-8182-E44F3A7A9DD0}" name="has_indefinite_art" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{8CD330E1-23DA-F741-8743-2999A04D5858}" name="has_personal_pro" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{BA2A0D1E-8A0F-4447-B4BC-A7D7381CE6C4}" name="N_encodes_plurality" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{F4EE229A-AD64-7747-8F4D-B69696AF555D}" name="N_encodes_class" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{03E0F05A-4C08-7B43-AEEF-D8A2D52EA73A}" name="N_encodes_case" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{7703BD9E-18FB-7F46-AB65-5E5CC6C87088}" name="Relative_cl_follows_N" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{84530509-1909-DB4B-A3B9-3C585ACBF333}" name="has_postpositions" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{759F2737-4544-3F46-A130-5C9565DE5D13}" name="has_prepositions" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{34F851A4-14B4-FD4E-A4AA-AA0C8D5DD781}" name="A_agrees_w_Nplurality" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{70E5ECEE-041A-BE48-90AF-840467EB4978}" name="A_agrees_w_Nclass" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{EE07A013-1C93-0F44-9C18-4AE1CA4D1ED3}" name="A_agrees_w_Ncase" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{679BC547-A9D5-9A49-80A9-B648709020F4}" name="A_follows_N" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{C35FA572-1689-074B-B324-B7C386EEF087}" name="Obj_follows_V" dataDxfId="16"/>
+    <tableColumn id="16" xr3:uid="{20B38B28-DAA3-4D40-8DAF-FAF653DFD38F}" name="Subj_follows_V" dataDxfId="15"/>
+    <tableColumn id="17" xr3:uid="{E5B7A97D-7E5B-2A42-8C7C-7FDD1C5F3326}" name="Sentence requires_Subj" dataDxfId="14"/>
+    <tableColumn id="18" xr3:uid="{AC8542AF-1D36-3948-B68E-98A0602A1621}" name="V_agrees_w_Subj" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{C6BC0E80-1C56-F547-A12C-033A42B40B92}" name="V_encodes_plurality" dataDxfId="12"/>
+    <tableColumn id="20" xr3:uid="{AF0DCB71-D1DD-B94F-BDE4-76F27102195A}" name="V_encodes_class" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{BD15E09B-4E36-A845-AAEF-BA7F1369B9A0}" name="V_encodes_voice" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{CD1412AE-E0C8-EE41-B1C6-E8C51EBB2FF2}" name="V_encodes_tense" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{ABE62467-3422-8543-A8D9-8B13977C9B33}" name="V_encodes_person" dataDxfId="8"/>
+    <tableColumn id="24" xr3:uid="{BF0BC527-606E-5045-97AA-1E9BC47976E3}" name="V_encodes_aspect" dataDxfId="7"/>
+    <tableColumn id="25" xr3:uid="{9DF274E4-3C86-F049-9D0D-F7F7301719C4}" name="V_infinitive_is_derived" dataDxfId="6"/>
+    <tableColumn id="26" xr3:uid="{BB73562D-4A24-814C-8639-43EE7D8D8C4A}" name="V_agrees_w_Obj" dataDxfId="5"/>
+    <tableColumn id="27" xr3:uid="{21C0EF0B-E5A8-A14E-BDBA-C7268E1655EB}" name="Tense_agreement" dataDxfId="4"/>
+    <tableColumn id="28" xr3:uid="{1F4E77A4-0B94-184D-B025-77DA4D0B4E81}" name="sum" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5135,6 +7088,35 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="AC4" dT="2024-07-01T03:43:53.00" personId="{9408DD04-EC8D-804C-AA3C-D54A08AC4BD3}" id="{491E588F-D5FB-B240-A3A1-469DAFE1ED69}">
+    <text>questionable</text>
+  </threadedComment>
+  <threadedComment ref="G7" dT="2024-02-06T06:08:36.53" personId="{966F3633-AABE-2A40-8B83-38837EE06320}" id="{1AC68849-7C2E-9740-8191-1522AC1C4360}">
+    <text>Only locative</text>
+  </threadedComment>
+  <threadedComment ref="I11" dT="2024-07-01T14:33:32.37" personId="{ACFEBE9A-2CB5-2F42-9110-605B1D565936}" id="{6A3A9D1A-0892-F44B-88FA-29800B0BB727}">
+    <text>only -que</text>
+  </threadedComment>
+  <threadedComment ref="U13" dT="2024-07-01T03:47:44.81" personId="{9408DD04-EC8D-804C-AA3C-D54A08AC4BD3}" id="{FF9BC953-55B0-3241-B342-BBC8F4663882}">
+    <text>questionable</text>
+  </threadedComment>
+  <threadedComment ref="U14" dT="2024-07-01T03:47:44.81" personId="{9408DD04-EC8D-804C-AA3C-D54A08AC4BD3}" id="{7BB25491-0E7D-FE47-8BA1-B1A75032A3B4}">
+    <text>questionable</text>
+  </threadedComment>
+  <threadedComment ref="T20" dT="2024-07-21T12:53:36.04" personId="{9408DD04-EC8D-804C-AA3C-D54A08AC4BD3}" id="{57B13AC1-1D72-B143-93F0-32D6C5923C4E}">
+    <text>only voice</text>
+  </threadedComment>
+  <threadedComment ref="T21" dT="2024-07-21T12:53:36.04" personId="{9408DD04-EC8D-804C-AA3C-D54A08AC4BD3}" id="{6D18EE09-8FF1-4A41-8A60-9B4B0C955E27}">
+    <text>only voice</text>
+  </threadedComment>
+  <threadedComment ref="T22" dT="2024-07-21T12:53:36.04" personId="{9408DD04-EC8D-804C-AA3C-D54A08AC4BD3}" id="{63D52AE7-3771-B245-BE1F-41FD9BF2537F}">
+    <text>only voice</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="AC4" dT="2024-07-01T03:43:53.00" personId="{9408DD04-EC8D-804C-AA3C-D54A08AC4BD3}" id="{55826923-6CA2-C94C-84CC-3A673871B098}">
     <text>questionable</text>
   </threadedComment>
@@ -5153,7 +7135,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="G10" dT="2024-02-06T06:08:36.53" personId="{966F3633-AABE-2A40-8B83-38837EE06320}" id="{346B38C6-799F-2047-94DE-E3C24A151880}">
     <text>Only locative</text>
@@ -5162,10 +7144,6176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8EF790-0749-B148-A4F0-1EB84BF92581}">
+  <dimension ref="A1:AG59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="8480" ySplit="5540" topLeftCell="E16" activePane="topRight"/>
+      <selection sqref="A1:AC23"/>
+      <selection pane="topRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
+    <col min="2" max="16" width="8.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.75" style="10" customWidth="1"/>
+    <col min="18" max="22" width="8.75" style="1" customWidth="1"/>
+    <col min="23" max="26" width="8.75" style="10" customWidth="1"/>
+    <col min="27" max="27" width="8.75" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.25" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.75" style="10" customWidth="1"/>
+    <col min="32" max="33" width="4" style="1" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="7.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="1">
+        <f t="shared" ref="AD2:AD23" si="0">SUM(B2:AC2)</f>
+        <v>21</v>
+      </c>
+      <c r="AE2" s="1"/>
+    </row>
+    <row r="3" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AE3" s="1"/>
+    </row>
+    <row r="4" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AE4" s="1"/>
+    </row>
+    <row r="5" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AE5" s="1"/>
+    </row>
+    <row r="6" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AE6" s="1"/>
+    </row>
+    <row r="7" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AE7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AE8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AE9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AE10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1</v>
+      </c>
+      <c r="U11" s="5">
+        <v>1</v>
+      </c>
+      <c r="V11" s="5">
+        <v>1</v>
+      </c>
+      <c r="W11" s="5">
+        <v>1</v>
+      </c>
+      <c r="X11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="AE11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1</v>
+      </c>
+      <c r="U12" s="5">
+        <v>1</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1</v>
+      </c>
+      <c r="W12" s="5">
+        <v>1</v>
+      </c>
+      <c r="X12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AE12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6">
+        <v>1</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
+        <v>1</v>
+      </c>
+      <c r="X13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6">
+        <v>1</v>
+      </c>
+      <c r="S14" s="6">
+        <v>1</v>
+      </c>
+      <c r="T14" s="5">
+        <v>1</v>
+      </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1</v>
+      </c>
+      <c r="X14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="AE14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>1</v>
+      </c>
+      <c r="U15" s="5">
+        <v>1</v>
+      </c>
+      <c r="V15" s="5">
+        <v>1</v>
+      </c>
+      <c r="W15" s="5">
+        <v>1</v>
+      </c>
+      <c r="X15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AE15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>1</v>
+      </c>
+      <c r="T16" s="5">
+        <v>1</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <v>0</v>
+      </c>
+      <c r="W16" s="5">
+        <v>1</v>
+      </c>
+      <c r="X16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AE16" s="1"/>
+    </row>
+    <row r="17" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="5">
+        <v>1</v>
+      </c>
+      <c r="U17" s="5">
+        <v>1</v>
+      </c>
+      <c r="V17" s="5">
+        <v>1</v>
+      </c>
+      <c r="W17" s="5">
+        <v>1</v>
+      </c>
+      <c r="X17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="AE17" s="1"/>
+    </row>
+    <row r="18" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>1</v>
+      </c>
+      <c r="R18" s="9">
+        <v>0</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0</v>
+      </c>
+      <c r="T18" s="8">
+        <v>1</v>
+      </c>
+      <c r="U18" s="8">
+        <v>0</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0</v>
+      </c>
+      <c r="W18" s="8">
+        <v>1</v>
+      </c>
+      <c r="X18" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="19" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AE19" s="1"/>
+    </row>
+    <row r="20" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AE20" s="1"/>
+    </row>
+    <row r="21" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0</v>
+      </c>
+      <c r="V21" s="8">
+        <v>0</v>
+      </c>
+      <c r="W21" s="8">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AE21" s="1"/>
+    </row>
+    <row r="22" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0</v>
+      </c>
+      <c r="V22" s="8">
+        <v>0</v>
+      </c>
+      <c r="W22" s="8">
+        <v>1</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AE22" s="1"/>
+    </row>
+    <row r="23" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0</v>
+      </c>
+      <c r="T23" s="8">
+        <v>0</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0</v>
+      </c>
+      <c r="V23" s="8">
+        <v>0</v>
+      </c>
+      <c r="W23" s="8">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE23" s="1"/>
+    </row>
+    <row r="25" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
+        <f>SUM(B$2:B$23)</f>
+        <v>11</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:J25" si="1">SUM(C2:C23)</f>
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <f>SUM(K2:K23)</f>
+        <v>17</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" ref="L25:AD25" si="2">SUM(L2:L23)</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="U25" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="V25" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="W25" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="X25" s="1">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="Y25" s="1">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AA25" s="1">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AC25" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AD25" s="1">
+        <f t="shared" si="2"/>
+        <v>333</v>
+      </c>
+      <c r="AE25" s="1"/>
+      <c r="AG25" s="10"/>
+    </row>
+    <row r="26" spans="1:33" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" ref="B26:AD26" si="3">AVERAGE(B$2:B$23)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="3"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="R26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="U26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="AA26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.81818181818181823</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AC26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="AD26" s="1">
+        <f t="shared" si="3"/>
+        <v>15.136363636363637</v>
+      </c>
+      <c r="AE26" s="1"/>
+      <c r="AG26" s="10"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1">
+        <v>9</v>
+      </c>
+      <c r="K29" s="1">
+        <v>10</v>
+      </c>
+      <c r="L29" s="1">
+        <v>11</v>
+      </c>
+      <c r="M29" s="1">
+        <v>12</v>
+      </c>
+      <c r="N29" s="1">
+        <v>13</v>
+      </c>
+      <c r="O29" s="1">
+        <v>14</v>
+      </c>
+      <c r="P29" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>16</v>
+      </c>
+      <c r="R29" s="1">
+        <v>17</v>
+      </c>
+      <c r="S29" s="1">
+        <v>18</v>
+      </c>
+      <c r="T29" s="1">
+        <v>19</v>
+      </c>
+      <c r="U29" s="1">
+        <v>20</v>
+      </c>
+      <c r="V29" s="1">
+        <v>21</v>
+      </c>
+      <c r="W29" s="1">
+        <v>22</v>
+      </c>
+      <c r="X29" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" ht="63" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE30" s="1"/>
+      <c r="AG30" s="10"/>
+    </row>
+    <row r="31" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="11">
+        <f t="shared" ref="B31:AD31" si="4">_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$B$2:$B$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.4879500364742666</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.47140452079103173</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.61237243569579458</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.61237243569579458</v>
+      </c>
+      <c r="G31" s="11">
+        <f t="shared" si="4"/>
+        <v>-0.1084652289093281</v>
+      </c>
+      <c r="H31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.5423261445466403</v>
+      </c>
+      <c r="I31" s="11">
+        <f t="shared" si="4"/>
+        <v>-0.48795003647426649</v>
+      </c>
+      <c r="J31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.21821789023599231</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.32539568672798419</v>
+      </c>
+      <c r="L31" s="11">
+        <f t="shared" si="4"/>
+        <v>-0.21821789023599231</v>
+      </c>
+      <c r="M31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.37796447300922714</v>
+      </c>
+      <c r="N31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.37796447300922714</v>
+      </c>
+      <c r="O31" s="11">
+        <f t="shared" si="4"/>
+        <v>-0.20412414523193159</v>
+      </c>
+      <c r="P31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.27735009811261463</v>
+      </c>
+      <c r="Q31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.32539568672798419</v>
+      </c>
+      <c r="R31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.39735970711951318</v>
+      </c>
+      <c r="S31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.54232614454664063</v>
+      </c>
+      <c r="T31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.21821789023599239</v>
+      </c>
+      <c r="U31" s="11">
+        <f t="shared" si="4"/>
+        <v>9.7590007294853315E-2</v>
+      </c>
+      <c r="V31" s="11">
+        <f t="shared" si="4"/>
+        <v>9.7590007294853315E-2</v>
+      </c>
+      <c r="W31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.21821789023599239</v>
+      </c>
+      <c r="X31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.21821789023599239</v>
+      </c>
+      <c r="Y31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.29277002188455997</v>
+      </c>
+      <c r="Z31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.36514837167011077</v>
+      </c>
+      <c r="AA31" s="11">
+        <f t="shared" si="4"/>
+        <v>-0.23570226039551578</v>
+      </c>
+      <c r="AB31" s="11">
+        <f t="shared" si="4"/>
+        <v>-0.23570226039551592</v>
+      </c>
+      <c r="AC31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.6831300510639734</v>
+      </c>
+      <c r="AD31" s="11">
+        <f t="shared" si="4"/>
+        <v>0.58862665012408355</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="11">
+        <f t="shared" ref="B32:AD32" si="5">_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$C$2:$C$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.4879500364742666</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.32203059435976517</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.19920476822239891</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.19920476822239891</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="5"/>
+        <v>-0.13760659224649036</v>
+      </c>
+      <c r="H32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.13760659224649038</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" si="5"/>
+        <v>-4.761904761904763E-2</v>
+      </c>
+      <c r="J32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.31943828249996992</v>
+      </c>
+      <c r="K32" s="11">
+        <f t="shared" si="5"/>
+        <v>-9.5266102324493424E-2</v>
+      </c>
+      <c r="L32" s="11">
+        <f t="shared" si="5"/>
+        <v>-0.14907119849998585</v>
+      </c>
+      <c r="M32" s="11">
+        <f t="shared" si="5"/>
+        <v>-9.2213889195414747E-2</v>
+      </c>
+      <c r="N32" s="11">
+        <f t="shared" si="5"/>
+        <v>-9.2213889195414747E-2</v>
+      </c>
+      <c r="O32" s="11">
+        <f t="shared" si="5"/>
+        <v>1.9920476822239904E-2</v>
+      </c>
+      <c r="P32" s="11">
+        <f t="shared" si="5"/>
+        <v>-0.17142178795424279</v>
+      </c>
+      <c r="Q32" s="11">
+        <f t="shared" si="5"/>
+        <v>-9.5266102324493424E-2</v>
+      </c>
+      <c r="R32" s="11">
+        <f t="shared" si="5"/>
+        <v>-0.27144835701531833</v>
+      </c>
+      <c r="S32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.32813879689547737</v>
+      </c>
+      <c r="T32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="U32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.25714285714285717</v>
+      </c>
+      <c r="V32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.25714285714285717</v>
+      </c>
+      <c r="W32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="X32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="Y32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="Z32" s="11">
+        <f t="shared" si="5"/>
+        <v>-0.1603567451474546</v>
+      </c>
+      <c r="AA32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.32203059435976533</v>
+      </c>
+      <c r="AB32" s="11">
+        <f t="shared" si="5"/>
+        <v>-6.9006555934235353E-2</v>
+      </c>
+      <c r="AC32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.37142857142857139</v>
+      </c>
+      <c r="AD32" s="11">
+        <f t="shared" si="5"/>
+        <v>0.29388057847945931</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="11">
+        <f t="shared" ref="B33:AD33" si="6">_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$D$2:$D$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.47140452079103173</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.32203059435976517</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.24056261216234406</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.24056261216234406</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.25565499628245703</v>
+      </c>
+      <c r="H33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.30678599553894814</v>
+      </c>
+      <c r="I33" s="11">
+        <f t="shared" si="6"/>
+        <v>-0.43704152091682436</v>
+      </c>
+      <c r="J33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.1028688999747279</v>
+      </c>
+      <c r="K33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.3067859955389482</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="6"/>
+        <v>-0.46291004988627538</v>
+      </c>
+      <c r="M33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.13363062095621228</v>
+      </c>
+      <c r="N33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.13363062095621228</v>
+      </c>
+      <c r="O33" s="11">
+        <f t="shared" si="6"/>
+        <v>2.4056261216234453E-2</v>
+      </c>
+      <c r="P33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.15253477177414321</v>
+      </c>
+      <c r="Q33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.3067859955389482</v>
+      </c>
+      <c r="R33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.18731716231633888</v>
+      </c>
+      <c r="S33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.25565499628245697</v>
+      </c>
+      <c r="T33" s="11">
+        <f t="shared" si="6"/>
+        <v>-0.10286889997472795</v>
+      </c>
+      <c r="U33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.18401748249129449</v>
+      </c>
+      <c r="V33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.18401748249129449</v>
+      </c>
+      <c r="W33" s="11">
+        <f t="shared" si="6"/>
+        <v>-0.10286889997472795</v>
+      </c>
+      <c r="X33" s="11">
+        <f t="shared" si="6"/>
+        <v>-0.10286889997472795</v>
+      </c>
+      <c r="Y33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.18401748249129454</v>
+      </c>
+      <c r="Z33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.27971546389275803</v>
+      </c>
+      <c r="AA33" s="11">
+        <f t="shared" si="6"/>
+        <v>-0.22222222222222227</v>
+      </c>
+      <c r="AB33" s="11">
+        <f t="shared" si="6"/>
+        <v>-8.3333333333333384E-2</v>
+      </c>
+      <c r="AC33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.32203059435976517</v>
+      </c>
+      <c r="AD33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.36595355097562632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="11">
+        <f t="shared" ref="B34:AD34" si="7">_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$E$2:$E$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.61237243569579458</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.19920476822239891</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.24056261216234406</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.33210558207753577</v>
+      </c>
+      <c r="H34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.88561488554009526</v>
+      </c>
+      <c r="I34" s="11">
+        <f t="shared" si="7"/>
+        <v>-0.4581709669115176</v>
+      </c>
+      <c r="J34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="K34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.64207079201656891</v>
+      </c>
+      <c r="L34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="M34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.81009258730098255</v>
+      </c>
+      <c r="N34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.81009258730098255</v>
+      </c>
+      <c r="O34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="P34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.30194054243855895</v>
+      </c>
+      <c r="Q34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.64207079201656891</v>
+      </c>
+      <c r="R34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.24333213169614387</v>
+      </c>
+      <c r="S34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.33210558207753577</v>
+      </c>
+      <c r="T34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="U34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.45817096691151771</v>
+      </c>
+      <c r="V34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.45817096691151771</v>
+      </c>
+      <c r="W34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="X34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="Y34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.67729621195615652</v>
+      </c>
+      <c r="Z34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.46584749531245623</v>
+      </c>
+      <c r="AA34" s="11">
+        <f t="shared" si="7"/>
+        <v>-2.4056261216234446E-2</v>
+      </c>
+      <c r="AB34" s="11">
+        <f t="shared" si="7"/>
+        <v>-0.24056261216234415</v>
+      </c>
+      <c r="AC34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.41833001326703784</v>
+      </c>
+      <c r="AD34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.91594828428850739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="11">
+        <f t="shared" ref="B35:AD35" si="8">_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$F$2:$F$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.61237243569579458</v>
+      </c>
+      <c r="C35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.19920476822239891</v>
+      </c>
+      <c r="D35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.24056261216234406</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.33210558207753577</v>
+      </c>
+      <c r="H35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.88561488554009526</v>
+      </c>
+      <c r="I35" s="11">
+        <f t="shared" si="8"/>
+        <v>-0.4581709669115176</v>
+      </c>
+      <c r="J35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="K35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.64207079201656891</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="M35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.81009258730098255</v>
+      </c>
+      <c r="N35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.81009258730098255</v>
+      </c>
+      <c r="O35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="P35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.30194054243855895</v>
+      </c>
+      <c r="Q35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.64207079201656891</v>
+      </c>
+      <c r="R35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.24333213169614387</v>
+      </c>
+      <c r="S35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.33210558207753577</v>
+      </c>
+      <c r="T35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="U35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.45817096691151771</v>
+      </c>
+      <c r="V35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.45817096691151771</v>
+      </c>
+      <c r="W35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="X35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="Y35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.67729621195615652</v>
+      </c>
+      <c r="Z35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.46584749531245623</v>
+      </c>
+      <c r="AA35" s="11">
+        <f t="shared" si="8"/>
+        <v>-2.4056261216234446E-2</v>
+      </c>
+      <c r="AB35" s="11">
+        <f t="shared" si="8"/>
+        <v>-0.24056261216234415</v>
+      </c>
+      <c r="AC35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.41833001326703784</v>
+      </c>
+      <c r="AD35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.91594828428850739</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.1084652289093281</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" ref="C36:AD36" si="9">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$G$2:$G$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.13760659224649036</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.25565499628245703</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.33210558207753577</v>
+      </c>
+      <c r="F36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.33210558207753577</v>
+      </c>
+      <c r="G36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="H36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.29411764705882365</v>
+      </c>
+      <c r="I36" s="11">
+        <f t="shared" si="9"/>
+        <v>-0.13760659224649047</v>
+      </c>
+      <c r="J36" s="11">
+        <f t="shared" si="9"/>
+        <v>-0.11834526708278767</v>
+      </c>
+      <c r="K36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.29411764705882359</v>
+      </c>
+      <c r="L36" s="11">
+        <f t="shared" si="9"/>
+        <v>-0.11834526708278757</v>
+      </c>
+      <c r="M36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.40996003084539417</v>
+      </c>
+      <c r="N36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.40996003084539417</v>
+      </c>
+      <c r="O36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.64207079201656903</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="9"/>
+        <v>-1.0027613959936387E-2</v>
+      </c>
+      <c r="Q36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.29411764705882359</v>
+      </c>
+      <c r="R36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.10056599371481025</v>
+      </c>
+      <c r="S36" s="11">
+        <f t="shared" si="9"/>
+        <v>-3.5294117647058899E-2</v>
+      </c>
+      <c r="T36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="U36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.37047928681747427</v>
+      </c>
+      <c r="V36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.37047928681747427</v>
+      </c>
+      <c r="W36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="X36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="Y36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.37047928681747427</v>
+      </c>
+      <c r="Z36" s="11">
+        <f t="shared" si="9"/>
+        <v>5.9408852578600478E-2</v>
+      </c>
+      <c r="AA36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.25565499628245703</v>
+      </c>
+      <c r="AB36" s="11">
+        <f t="shared" si="9"/>
+        <v>-0.25565499628245703</v>
+      </c>
+      <c r="AC36" s="11">
+        <f t="shared" si="9"/>
+        <v>9.5266102324493424E-2</v>
+      </c>
+      <c r="AD36" s="11">
+        <f t="shared" si="9"/>
+        <v>0.43396450607444664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.5423261445466403</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" ref="C37:AD37" si="10">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$H$2:$H$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.13760659224649038</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.30678599553894814</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.88561488554009526</v>
+      </c>
+      <c r="F37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.88561488554009526</v>
+      </c>
+      <c r="G37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.29411764705882365</v>
+      </c>
+      <c r="H37" s="11">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" si="10"/>
+        <v>-0.56101149146646101</v>
+      </c>
+      <c r="J37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.11834526708278764</v>
+      </c>
+      <c r="K37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.7411764705882351</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.11834526708278764</v>
+      </c>
+      <c r="M37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.71743005397943926</v>
+      </c>
+      <c r="N37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.71743005397943926</v>
+      </c>
+      <c r="O37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.33210558207753571</v>
+      </c>
+      <c r="P37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.45124262819714017</v>
+      </c>
+      <c r="Q37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.7411764705882351</v>
+      </c>
+      <c r="R37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.21549855796030778</v>
+      </c>
+      <c r="S37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.29411764705882359</v>
+      </c>
+      <c r="T37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.40237390808147822</v>
+      </c>
+      <c r="U37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.3281387968954772</v>
+      </c>
+      <c r="V37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.3281387968954772</v>
+      </c>
+      <c r="W37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.40237390808147822</v>
+      </c>
+      <c r="X37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.40237390808147822</v>
+      </c>
+      <c r="Y37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.56101149146646112</v>
+      </c>
+      <c r="Z37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.59408852578600457</v>
+      </c>
+      <c r="AA37" s="11">
+        <f t="shared" si="10"/>
+        <v>2.556549962824569E-2</v>
+      </c>
+      <c r="AB37" s="11">
+        <f t="shared" si="10"/>
+        <v>-2.5565499628245711E-2</v>
+      </c>
+      <c r="AC37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.37047928681747405</v>
+      </c>
+      <c r="AD37" s="11">
+        <f t="shared" si="10"/>
+        <v>0.88921085359817309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.48795003647426649</v>
+      </c>
+      <c r="C38" s="11">
+        <f t="shared" ref="C38:AD38" si="11">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$I$2:$I$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-4.761904761904763E-2</v>
+      </c>
+      <c r="D38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.43704152091682436</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.4581709669115176</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.4581709669115176</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.13760659224649047</v>
+      </c>
+      <c r="H38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.56101149146646101</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="11"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="J38" s="11">
+        <f t="shared" si="11"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="K38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.79388418603744482</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.14907119849998585</v>
+      </c>
+      <c r="M38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.49795500165523932</v>
+      </c>
+      <c r="N38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.49795500165523932</v>
+      </c>
+      <c r="O38" s="11">
+        <f t="shared" si="11"/>
+        <v>1.9920476822239921E-2</v>
+      </c>
+      <c r="P38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.36991017400652398</v>
+      </c>
+      <c r="Q38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.79388418603744482</v>
+      </c>
+      <c r="R38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.27144835701531839</v>
+      </c>
+      <c r="S38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.37047928681747427</v>
+      </c>
+      <c r="T38" s="11">
+        <f t="shared" si="11"/>
+        <v>0.14907119849998604</v>
+      </c>
+      <c r="U38" s="11">
+        <f t="shared" si="11"/>
+        <v>4.7619047619047623E-2</v>
+      </c>
+      <c r="V38" s="11">
+        <f t="shared" si="11"/>
+        <v>4.7619047619047623E-2</v>
+      </c>
+      <c r="W38" s="11">
+        <f t="shared" si="11"/>
+        <v>0.14907119849998604</v>
+      </c>
+      <c r="X38" s="11">
+        <f t="shared" si="11"/>
+        <v>0.14907119849998604</v>
+      </c>
+      <c r="Y38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.16190476190476194</v>
+      </c>
+      <c r="Z38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.55233989995234378</v>
+      </c>
+      <c r="AA38" s="11">
+        <f t="shared" si="11"/>
+        <v>0.32203059435976533</v>
+      </c>
+      <c r="AB38" s="11">
+        <f t="shared" si="11"/>
+        <v>0.18401748249129454</v>
+      </c>
+      <c r="AC38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.46666666666666679</v>
+      </c>
+      <c r="AD38" s="11">
+        <f t="shared" si="11"/>
+        <v>-0.45705506398080215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21821789023599231</v>
+      </c>
+      <c r="C39" s="11">
+        <f t="shared" ref="C39:AD39" si="12">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$J$2:$J$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.31943828249996992</v>
+      </c>
+      <c r="D39" s="11">
+        <f t="shared" si="12"/>
+        <v>0.1028688999747279</v>
+      </c>
+      <c r="E39" s="11">
+        <f t="shared" si="12"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="F39" s="11">
+        <f t="shared" si="12"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="G39" s="11">
+        <f t="shared" si="12"/>
+        <v>-0.11834526708278767</v>
+      </c>
+      <c r="H39" s="11">
+        <f t="shared" si="12"/>
+        <v>0.11834526708278764</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="12"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="J39" s="11">
+        <f t="shared" si="12"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="K39" s="11">
+        <f t="shared" si="12"/>
+        <v>-0.4023739080814781</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="12"/>
+        <v>-4.7619047619047589E-2</v>
+      </c>
+      <c r="M39" s="11">
+        <f t="shared" si="12"/>
+        <v>-0.28867513459481259</v>
+      </c>
+      <c r="N39" s="11">
+        <f t="shared" si="12"/>
+        <v>-0.28867513459481259</v>
+      </c>
+      <c r="O39" s="11">
+        <f t="shared" si="12"/>
+        <v>-0.13363062095621203</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" si="12"/>
+        <v>-0.1815682598006407</v>
+      </c>
+      <c r="Q39" s="11">
+        <f t="shared" si="12"/>
+        <v>-0.4023739080814781</v>
+      </c>
+      <c r="R39" s="11">
+        <f t="shared" si="12"/>
+        <v>-8.6710996952411939E-2</v>
+      </c>
+      <c r="S39" s="11">
+        <f t="shared" si="12"/>
+        <v>-0.11834526708278766</v>
+      </c>
+      <c r="T39" s="11">
+        <f t="shared" si="12"/>
+        <v>4.7619047619047596E-2</v>
+      </c>
+      <c r="U39" s="11">
+        <f t="shared" si="12"/>
+        <v>0.14907119849998596</v>
+      </c>
+      <c r="V39" s="11">
+        <f t="shared" si="12"/>
+        <v>0.14907119849998596</v>
+      </c>
+      <c r="W39" s="11">
+        <f t="shared" si="12"/>
+        <v>4.7619047619047596E-2</v>
+      </c>
+      <c r="X39" s="11">
+        <f t="shared" si="12"/>
+        <v>4.7619047619047596E-2</v>
+      </c>
+      <c r="Y39" s="11">
+        <f t="shared" si="12"/>
+        <v>0.14907119849998596</v>
+      </c>
+      <c r="Z39" s="11">
+        <f t="shared" si="12"/>
+        <v>0.19920476822239885</v>
+      </c>
+      <c r="AA39" s="11">
+        <f t="shared" si="12"/>
+        <v>0.1028688999747279</v>
+      </c>
+      <c r="AB39" s="11">
+        <f t="shared" si="12"/>
+        <v>0.46291004988627554</v>
+      </c>
+      <c r="AC39" s="11">
+        <f t="shared" si="12"/>
+        <v>-0.14907119849998587</v>
+      </c>
+      <c r="AD39" s="11">
+        <f t="shared" si="12"/>
+        <v>7.6324688330391896E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32539568672798419</v>
+      </c>
+      <c r="C40" s="11">
+        <f t="shared" ref="C40:AD40" si="13">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$K$2:$K$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.5266102324493424E-2</v>
+      </c>
+      <c r="D40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.3067859955389482</v>
+      </c>
+      <c r="E40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.64207079201656891</v>
+      </c>
+      <c r="F40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.64207079201656891</v>
+      </c>
+      <c r="G40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.29411764705882359</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.7411764705882351</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="13"/>
+        <v>-0.79388418603744482</v>
+      </c>
+      <c r="J40" s="11">
+        <f t="shared" si="13"/>
+        <v>-0.4023739080814781</v>
+      </c>
+      <c r="K40" s="11">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.11834526708278764</v>
+      </c>
+      <c r="M40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.71743005397943882</v>
+      </c>
+      <c r="N40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.71743005397943882</v>
+      </c>
+      <c r="O40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.33210558207753571</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.45124262819714017</v>
+      </c>
+      <c r="Q40" s="11">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="R40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.21549855796030781</v>
+      </c>
+      <c r="S40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="T40" s="11">
+        <f t="shared" si="13"/>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="U40" s="11">
+        <f t="shared" si="13"/>
+        <v>9.5266102324493382E-2</v>
+      </c>
+      <c r="V40" s="11">
+        <f t="shared" si="13"/>
+        <v>9.5266102324493382E-2</v>
+      </c>
+      <c r="W40" s="11">
+        <f t="shared" si="13"/>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="X40" s="11">
+        <f t="shared" si="13"/>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="Y40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.3281387968954772</v>
+      </c>
+      <c r="Z40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.37625606633113612</v>
+      </c>
+      <c r="AA40" s="11">
+        <f t="shared" si="13"/>
+        <v>-0.2556549962824568</v>
+      </c>
+      <c r="AB40" s="11">
+        <f t="shared" si="13"/>
+        <v>-0.30678599553894814</v>
+      </c>
+      <c r="AC40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.370479286817474</v>
+      </c>
+      <c r="AD40" s="11">
+        <f t="shared" si="13"/>
+        <v>0.60421923766868568</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.21821789023599231</v>
+      </c>
+      <c r="C41" s="11">
+        <f t="shared" ref="C41:AD41" si="14">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$L$2:$L$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.14907119849998585</v>
+      </c>
+      <c r="D41" s="11">
+        <f t="shared" si="14"/>
+        <v>-0.46291004988627538</v>
+      </c>
+      <c r="E41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="14"/>
+        <v>-0.11834526708278757</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.11834526708278764</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="14"/>
+        <v>-0.14907119849998585</v>
+      </c>
+      <c r="J41" s="11">
+        <f t="shared" si="14"/>
+        <v>-4.7619047619047589E-2</v>
+      </c>
+      <c r="K41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.11834526708278764</v>
+      </c>
+      <c r="L41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="M41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.16495721976846442</v>
+      </c>
+      <c r="N41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.16495721976846442</v>
+      </c>
+      <c r="O41" s="11">
+        <f t="shared" si="14"/>
+        <v>-0.13363062095621203</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.26226526415648094</v>
+      </c>
+      <c r="Q41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.11834526708278764</v>
+      </c>
+      <c r="R41" s="11">
+        <f t="shared" si="14"/>
+        <v>-8.6710996952411926E-2</v>
+      </c>
+      <c r="S41" s="11">
+        <f t="shared" si="14"/>
+        <v>-0.11834526708278764</v>
+      </c>
+      <c r="T41" s="11">
+        <f t="shared" si="14"/>
+        <v>4.7619047619047589E-2</v>
+      </c>
+      <c r="U41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.14907119849998593</v>
+      </c>
+      <c r="V41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.14907119849998593</v>
+      </c>
+      <c r="W41" s="11">
+        <f t="shared" si="14"/>
+        <v>4.7619047619047589E-2</v>
+      </c>
+      <c r="X41" s="11">
+        <f t="shared" si="14"/>
+        <v>4.7619047619047589E-2</v>
+      </c>
+      <c r="Y41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.14907119849998593</v>
+      </c>
+      <c r="Z41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.19920476822239883</v>
+      </c>
+      <c r="AA41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.10286889997472788</v>
+      </c>
+      <c r="AB41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.46291004988627532</v>
+      </c>
+      <c r="AC41" s="11">
+        <f t="shared" si="14"/>
+        <v>-0.14907119849998585</v>
+      </c>
+      <c r="AD41" s="11">
+        <f t="shared" si="14"/>
+        <v>0.11727939914182164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37796447300922714</v>
+      </c>
+      <c r="C42" s="11">
+        <f t="shared" ref="C42:AD42" si="15">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$M$2:$M$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.2213889195414747E-2</v>
+      </c>
+      <c r="D42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.13363062095621228</v>
+      </c>
+      <c r="E42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.81009258730098255</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.81009258730098255</v>
+      </c>
+      <c r="G42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.40996003084539417</v>
+      </c>
+      <c r="H42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.71743005397943926</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.49795500165523932</v>
+      </c>
+      <c r="J42" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.28867513459481259</v>
+      </c>
+      <c r="K42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.71743005397943882</v>
+      </c>
+      <c r="L42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.16495721976846442</v>
+      </c>
+      <c r="M42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="N42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="P42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.43678534863413288</v>
+      </c>
+      <c r="Q42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.71743005397943882</v>
+      </c>
+      <c r="R42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.3003757045930554</v>
+      </c>
+      <c r="S42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.18448201388042726</v>
+      </c>
+      <c r="T42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="U42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.49795500165523932</v>
+      </c>
+      <c r="V42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.49795500165523932</v>
+      </c>
+      <c r="W42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="X42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="Y42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.49795500165523932</v>
+      </c>
+      <c r="Z42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.44854261357253017</v>
+      </c>
+      <c r="AA42" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.11135885079684342</v>
+      </c>
+      <c r="AB42" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.37862009270926777</v>
+      </c>
+      <c r="AC42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.31352722326440985</v>
+      </c>
+      <c r="AD42" s="11">
+        <f t="shared" si="15"/>
+        <v>0.81737203288377758</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37796447300922714</v>
+      </c>
+      <c r="C43" s="11">
+        <f t="shared" ref="C43:AD43" si="16">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$N$2:$N$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.2213889195414747E-2</v>
+      </c>
+      <c r="D43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.13363062095621228</v>
+      </c>
+      <c r="E43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.81009258730098255</v>
+      </c>
+      <c r="F43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.81009258730098255</v>
+      </c>
+      <c r="G43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.40996003084539417</v>
+      </c>
+      <c r="H43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.71743005397943926</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="16"/>
+        <v>-0.49795500165523932</v>
+      </c>
+      <c r="J43" s="11">
+        <f t="shared" si="16"/>
+        <v>-0.28867513459481259</v>
+      </c>
+      <c r="K43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.71743005397943882</v>
+      </c>
+      <c r="L43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.16495721976846442</v>
+      </c>
+      <c r="M43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.43678534863413288</v>
+      </c>
+      <c r="Q43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.71743005397943882</v>
+      </c>
+      <c r="R43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.3003757045930554</v>
+      </c>
+      <c r="S43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.18448201388042726</v>
+      </c>
+      <c r="T43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="U43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.49795500165523932</v>
+      </c>
+      <c r="V43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.49795500165523932</v>
+      </c>
+      <c r="W43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="X43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="Y43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.49795500165523932</v>
+      </c>
+      <c r="Z43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.44854261357253017</v>
+      </c>
+      <c r="AA43" s="11">
+        <f t="shared" si="16"/>
+        <v>-0.11135885079684342</v>
+      </c>
+      <c r="AB43" s="11">
+        <f t="shared" si="16"/>
+        <v>-0.37862009270926777</v>
+      </c>
+      <c r="AC43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.31352722326440985</v>
+      </c>
+      <c r="AD43" s="11">
+        <f t="shared" si="16"/>
+        <v>0.81737203288377758</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.20412414523193159</v>
+      </c>
+      <c r="C44" s="11">
+        <f t="shared" ref="C44:AD44" si="17">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$O$2:$O$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.9920476822239904E-2</v>
+      </c>
+      <c r="D44" s="11">
+        <f t="shared" si="17"/>
+        <v>2.4056261216234453E-2</v>
+      </c>
+      <c r="E44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="G44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.64207079201656903</v>
+      </c>
+      <c r="H44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.33210558207753571</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="17"/>
+        <v>1.9920476822239921E-2</v>
+      </c>
+      <c r="J44" s="11">
+        <f t="shared" si="17"/>
+        <v>-0.13363062095621203</v>
+      </c>
+      <c r="K44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.33210558207753571</v>
+      </c>
+      <c r="L44" s="11">
+        <f t="shared" si="17"/>
+        <v>-0.13363062095621203</v>
+      </c>
+      <c r="M44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="N44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="O44" s="11">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="P44" s="11">
+        <f t="shared" si="17"/>
+        <v>-0.301940542438559</v>
+      </c>
+      <c r="Q44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.33210558207753571</v>
+      </c>
+      <c r="R44" s="11">
+        <f t="shared" si="17"/>
+        <v>-0.24333213169614379</v>
+      </c>
+      <c r="S44" s="11">
+        <f t="shared" si="17"/>
+        <v>-8.8561488554009485E-2</v>
+      </c>
+      <c r="T44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="U44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.41833001326703773</v>
+      </c>
+      <c r="V44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.41833001326703773</v>
+      </c>
+      <c r="W44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="X44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="Y44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.41833001326703773</v>
+      </c>
+      <c r="Z44" s="11">
+        <f t="shared" si="17"/>
+        <v>-5.5901699437494783E-2</v>
+      </c>
+      <c r="AA44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="AB44" s="11">
+        <f t="shared" si="17"/>
+        <v>-0.28867513459481287</v>
+      </c>
+      <c r="AC44" s="11">
+        <f t="shared" si="17"/>
+        <v>-0.19920476822239877</v>
+      </c>
+      <c r="AD44" s="11">
+        <f t="shared" si="17"/>
+        <v>0.38657893367309637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.27735009811261463</v>
+      </c>
+      <c r="C45" s="11">
+        <f t="shared" ref="C45:AD45" si="18">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$P$2:$P$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.17142178795424279</v>
+      </c>
+      <c r="D45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.15253477177414321</v>
+      </c>
+      <c r="E45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.30194054243855895</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.30194054243855895</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" si="18"/>
+        <v>-1.0027613959936387E-2</v>
+      </c>
+      <c r="H45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.45124262819714017</v>
+      </c>
+      <c r="I45" s="11">
+        <f t="shared" si="18"/>
+        <v>-0.36991017400652398</v>
+      </c>
+      <c r="J45" s="11">
+        <f t="shared" si="18"/>
+        <v>-0.1815682598006407</v>
+      </c>
+      <c r="K45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.45124262819714017</v>
+      </c>
+      <c r="L45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.26226526415648094</v>
+      </c>
+      <c r="M45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.43678534863413288</v>
+      </c>
+      <c r="N45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.43678534863413288</v>
+      </c>
+      <c r="O45" s="11">
+        <f t="shared" si="18"/>
+        <v>-0.301940542438559</v>
+      </c>
+      <c r="P45" s="11">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.45124262819714017</v>
+      </c>
+      <c r="R45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.47756693294091968</v>
+      </c>
+      <c r="S45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.21057989315866549</v>
+      </c>
+      <c r="T45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.18156825980064079</v>
+      </c>
+      <c r="U45" s="11">
+        <f t="shared" si="18"/>
+        <v>-2.7066598098038415E-2</v>
+      </c>
+      <c r="V45" s="11">
+        <f t="shared" si="18"/>
+        <v>-2.7066598098038415E-2</v>
+      </c>
+      <c r="W45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.18156825980064079</v>
+      </c>
+      <c r="X45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.18156825980064079</v>
+      </c>
+      <c r="Y45" s="11">
+        <f t="shared" si="18"/>
+        <v>-2.7066598098038415E-2</v>
+      </c>
+      <c r="Z45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.3882167573820724</v>
+      </c>
+      <c r="AA45" s="11">
+        <f t="shared" si="18"/>
+        <v>-8.7162726728081785E-2</v>
+      </c>
+      <c r="AB45" s="11">
+        <f t="shared" si="18"/>
+        <v>8.7162726728081827E-2</v>
+      </c>
+      <c r="AC45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.42404337020260074</v>
+      </c>
+      <c r="AD45" s="11">
+        <f t="shared" si="18"/>
+        <v>0.42982770166265583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32539568672798419</v>
+      </c>
+      <c r="C46" s="11">
+        <f t="shared" ref="C46:AD46" si="19">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$Q$2:$Q$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-9.5266102324493424E-2</v>
+      </c>
+      <c r="D46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.3067859955389482</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.64207079201656891</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.64207079201656891</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.29411764705882359</v>
+      </c>
+      <c r="H46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.7411764705882351</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.79388418603744482</v>
+      </c>
+      <c r="J46" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.4023739080814781</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.11834526708278764</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.71743005397943882</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.71743005397943882</v>
+      </c>
+      <c r="O46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.33210558207753571</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.45124262819714017</v>
+      </c>
+      <c r="Q46" s="11">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="R46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.21549855796030781</v>
+      </c>
+      <c r="S46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="T46" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="U46" s="11">
+        <f t="shared" si="19"/>
+        <v>9.5266102324493382E-2</v>
+      </c>
+      <c r="V46" s="11">
+        <f t="shared" si="19"/>
+        <v>9.5266102324493382E-2</v>
+      </c>
+      <c r="W46" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="X46" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="Y46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.3281387968954772</v>
+      </c>
+      <c r="Z46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.37625606633113612</v>
+      </c>
+      <c r="AA46" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.2556549962824568</v>
+      </c>
+      <c r="AB46" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.30678599553894814</v>
+      </c>
+      <c r="AC46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.370479286817474</v>
+      </c>
+      <c r="AD46" s="11">
+        <f t="shared" si="19"/>
+        <v>0.60421923766868568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.39735970711951318</v>
+      </c>
+      <c r="C47" s="11">
+        <f t="shared" ref="C47:AD47" si="20">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$R$2:$R$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.27144835701531833</v>
+      </c>
+      <c r="D47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.18731716231633888</v>
+      </c>
+      <c r="E47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.24333213169614387</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.24333213169614387</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.10056599371481025</v>
+      </c>
+      <c r="H47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.21549855796030778</v>
+      </c>
+      <c r="I47" s="11">
+        <f t="shared" si="20"/>
+        <v>-0.27144835701531839</v>
+      </c>
+      <c r="J47" s="11">
+        <f t="shared" si="20"/>
+        <v>-8.6710996952411939E-2</v>
+      </c>
+      <c r="K47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.21549855796030781</v>
+      </c>
+      <c r="L47" s="11">
+        <f t="shared" si="20"/>
+        <v>-8.6710996952411926E-2</v>
+      </c>
+      <c r="M47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.3003757045930554</v>
+      </c>
+      <c r="N47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.3003757045930554</v>
+      </c>
+      <c r="O47" s="11">
+        <f t="shared" si="20"/>
+        <v>-0.24333213169614379</v>
+      </c>
+      <c r="P47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.47756693294091968</v>
+      </c>
+      <c r="Q47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.21549855796030781</v>
+      </c>
+      <c r="R47" s="11">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="S47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.41663054538992844</v>
+      </c>
+      <c r="T47" s="11">
+        <f t="shared" si="20"/>
+        <v>8.6710996952412009E-2</v>
+      </c>
+      <c r="U47" s="11">
+        <f t="shared" si="20"/>
+        <v>-0.29730058149296784</v>
+      </c>
+      <c r="V47" s="11">
+        <f t="shared" si="20"/>
+        <v>-0.29730058149296784</v>
+      </c>
+      <c r="W47" s="11">
+        <f t="shared" si="20"/>
+        <v>8.6710996952412009E-2</v>
+      </c>
+      <c r="X47" s="11">
+        <f t="shared" si="20"/>
+        <v>8.6710996952412009E-2</v>
+      </c>
+      <c r="Y47" s="11">
+        <f t="shared" si="20"/>
+        <v>-0.29730058149296784</v>
+      </c>
+      <c r="Z47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.36273812505500591</v>
+      </c>
+      <c r="AA47" s="11">
+        <f t="shared" si="20"/>
+        <v>-0.49951243284357016</v>
+      </c>
+      <c r="AB47" s="11">
+        <f t="shared" si="20"/>
+        <v>-0.18731716231633885</v>
+      </c>
+      <c r="AC47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.58167505074711112</v>
+      </c>
+      <c r="AD47" s="11">
+        <f t="shared" si="20"/>
+        <v>0.23841625268340913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.54232614454664063</v>
+      </c>
+      <c r="C48" s="11">
+        <f t="shared" ref="C48:AD48" si="21">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$S$2:$S$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32813879689547737</v>
+      </c>
+      <c r="D48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.25565499628245697</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.33210558207753577</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.33210558207753577</v>
+      </c>
+      <c r="G48" s="11">
+        <f t="shared" si="21"/>
+        <v>-3.5294117647058899E-2</v>
+      </c>
+      <c r="H48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.29411764705882359</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" si="21"/>
+        <v>-0.37047928681747427</v>
+      </c>
+      <c r="J48" s="11">
+        <f t="shared" si="21"/>
+        <v>-0.11834526708278766</v>
+      </c>
+      <c r="K48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="21"/>
+        <v>-0.11834526708278764</v>
+      </c>
+      <c r="M48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.18448201388042726</v>
+      </c>
+      <c r="N48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.18448201388042726</v>
+      </c>
+      <c r="O48" s="11">
+        <f t="shared" si="21"/>
+        <v>-8.8561488554009485E-2</v>
+      </c>
+      <c r="P48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.21057989315866549</v>
+      </c>
+      <c r="Q48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="R48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.41663054538992844</v>
+      </c>
+      <c r="S48" s="11">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="T48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="U48" s="11">
+        <f t="shared" si="21"/>
+        <v>-0.32813879689547726</v>
+      </c>
+      <c r="V48" s="11">
+        <f t="shared" si="21"/>
+        <v>-0.32813879689547726</v>
+      </c>
+      <c r="W48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="X48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="Y48" s="11">
+        <f t="shared" si="21"/>
+        <v>-9.5266102324493354E-2</v>
+      </c>
+      <c r="Z48" s="11">
+        <f t="shared" si="21"/>
+        <v>-0.15842360687626783</v>
+      </c>
+      <c r="AA48" s="11">
+        <f t="shared" si="21"/>
+        <v>-0.30678599553894842</v>
+      </c>
+      <c r="AB48" s="11">
+        <f t="shared" si="21"/>
+        <v>-0.25565499628245697</v>
+      </c>
+      <c r="AC48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.79388418603744504</v>
+      </c>
+      <c r="AD48" s="11">
+        <f t="shared" si="21"/>
+        <v>0.29146869810970294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21821789023599239</v>
+      </c>
+      <c r="C49" s="11">
+        <f t="shared" ref="C49:AD49" si="22">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$T$2:$T$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="D49" s="11">
+        <f t="shared" si="22"/>
+        <v>-0.10286889997472795</v>
+      </c>
+      <c r="E49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="G49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="H49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.40237390808147822</v>
+      </c>
+      <c r="I49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.14907119849998604</v>
+      </c>
+      <c r="J49" s="11">
+        <f t="shared" si="22"/>
+        <v>4.7619047619047596E-2</v>
+      </c>
+      <c r="K49" s="11">
+        <f t="shared" si="22"/>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="L49" s="11">
+        <f t="shared" si="22"/>
+        <v>4.7619047619047589E-2</v>
+      </c>
+      <c r="M49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="N49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="O49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="P49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.18156825980064079</v>
+      </c>
+      <c r="Q49" s="11">
+        <f t="shared" si="22"/>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="R49" s="11">
+        <f t="shared" si="22"/>
+        <v>8.6710996952412009E-2</v>
+      </c>
+      <c r="S49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="T49" s="11">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="U49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="V49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="W49" s="11">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="X49" s="11">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="Y49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="Z49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.23904572186687872</v>
+      </c>
+      <c r="AA49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="AB49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.10286889997472795</v>
+      </c>
+      <c r="AC49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="AD49" s="11">
+        <f t="shared" si="22"/>
+        <v>0.49704126302962537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>9.7590007294853315E-2</v>
+      </c>
+      <c r="C50" s="11">
+        <f t="shared" ref="C50:AD50" si="23">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$U$2:$U$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.25714285714285717</v>
+      </c>
+      <c r="D50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.18401748249129449</v>
+      </c>
+      <c r="E50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.45817096691151771</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.45817096691151771</v>
+      </c>
+      <c r="G50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.37047928681747427</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.3281387968954772</v>
+      </c>
+      <c r="I50" s="11">
+        <f t="shared" si="23"/>
+        <v>4.7619047619047623E-2</v>
+      </c>
+      <c r="J50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.14907119849998596</v>
+      </c>
+      <c r="K50" s="11">
+        <f t="shared" si="23"/>
+        <v>9.5266102324493382E-2</v>
+      </c>
+      <c r="L50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.14907119849998593</v>
+      </c>
+      <c r="M50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.49795500165523932</v>
+      </c>
+      <c r="N50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.49795500165523932</v>
+      </c>
+      <c r="O50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.41833001326703773</v>
+      </c>
+      <c r="P50" s="11">
+        <f t="shared" si="23"/>
+        <v>-2.7066598098038415E-2</v>
+      </c>
+      <c r="Q50" s="11">
+        <f t="shared" si="23"/>
+        <v>9.5266102324493382E-2</v>
+      </c>
+      <c r="R50" s="11">
+        <f t="shared" si="23"/>
+        <v>-0.29730058149296784</v>
+      </c>
+      <c r="S50" s="11">
+        <f t="shared" si="23"/>
+        <v>-0.32813879689547726</v>
+      </c>
+      <c r="T50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="U50" s="11">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="V50" s="11">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="W50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="X50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="Y50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.79047619047619044</v>
+      </c>
+      <c r="Z50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.16035674514745471</v>
+      </c>
+      <c r="AA50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.43704152091682436</v>
+      </c>
+      <c r="AB50" s="11">
+        <f t="shared" si="23"/>
+        <v>6.9006555934235436E-2</v>
+      </c>
+      <c r="AC50" s="11">
+        <f t="shared" si="23"/>
+        <v>-0.161904761904762</v>
+      </c>
+      <c r="AD50" s="11">
+        <f t="shared" si="23"/>
+        <v>0.60357909177792635</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>9.7590007294853315E-2</v>
+      </c>
+      <c r="C51" s="11">
+        <f t="shared" ref="C51:AD51" si="24">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$V$2:$V$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.25714285714285717</v>
+      </c>
+      <c r="D51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.18401748249129449</v>
+      </c>
+      <c r="E51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.45817096691151771</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.45817096691151771</v>
+      </c>
+      <c r="G51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.37047928681747427</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.3281387968954772</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" si="24"/>
+        <v>4.7619047619047623E-2</v>
+      </c>
+      <c r="J51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.14907119849998596</v>
+      </c>
+      <c r="K51" s="11">
+        <f t="shared" si="24"/>
+        <v>9.5266102324493382E-2</v>
+      </c>
+      <c r="L51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.14907119849998593</v>
+      </c>
+      <c r="M51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.49795500165523932</v>
+      </c>
+      <c r="N51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.49795500165523932</v>
+      </c>
+      <c r="O51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.41833001326703773</v>
+      </c>
+      <c r="P51" s="11">
+        <f t="shared" si="24"/>
+        <v>-2.7066598098038415E-2</v>
+      </c>
+      <c r="Q51" s="11">
+        <f t="shared" si="24"/>
+        <v>9.5266102324493382E-2</v>
+      </c>
+      <c r="R51" s="11">
+        <f t="shared" si="24"/>
+        <v>-0.29730058149296784</v>
+      </c>
+      <c r="S51" s="11">
+        <f t="shared" si="24"/>
+        <v>-0.32813879689547726</v>
+      </c>
+      <c r="T51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="U51" s="11">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="V51" s="11">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="W51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="X51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="Y51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.79047619047619044</v>
+      </c>
+      <c r="Z51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.16035674514745471</v>
+      </c>
+      <c r="AA51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.43704152091682436</v>
+      </c>
+      <c r="AB51" s="11">
+        <f t="shared" si="24"/>
+        <v>6.9006555934235436E-2</v>
+      </c>
+      <c r="AC51" s="11">
+        <f t="shared" si="24"/>
+        <v>-0.161904761904762</v>
+      </c>
+      <c r="AD51" s="11">
+        <f t="shared" si="24"/>
+        <v>0.60357909177792635</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21821789023599239</v>
+      </c>
+      <c r="C52" s="11">
+        <f t="shared" ref="C52:AD52" si="25">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$W$2:$W$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="D52" s="11">
+        <f t="shared" si="25"/>
+        <v>-0.10286889997472795</v>
+      </c>
+      <c r="E52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.40237390808147822</v>
+      </c>
+      <c r="I52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.14907119849998604</v>
+      </c>
+      <c r="J52" s="11">
+        <f t="shared" si="25"/>
+        <v>4.7619047619047596E-2</v>
+      </c>
+      <c r="K52" s="11">
+        <f t="shared" si="25"/>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="L52" s="11">
+        <f t="shared" si="25"/>
+        <v>4.7619047619047589E-2</v>
+      </c>
+      <c r="M52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="N52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="O52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="P52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.18156825980064079</v>
+      </c>
+      <c r="Q52" s="11">
+        <f t="shared" si="25"/>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="R52" s="11">
+        <f t="shared" si="25"/>
+        <v>8.6710996952412009E-2</v>
+      </c>
+      <c r="S52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="T52" s="11">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="U52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="V52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="W52" s="11">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="X52" s="11">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Y52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="Z52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.23904572186687872</v>
+      </c>
+      <c r="AA52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="AB52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.10286889997472795</v>
+      </c>
+      <c r="AC52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="AD52" s="11">
+        <f t="shared" si="25"/>
+        <v>0.49704126302962537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.21821789023599239</v>
+      </c>
+      <c r="C53" s="11">
+        <f t="shared" ref="C53:AD53" si="26">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$X$2:$X$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="D53" s="11">
+        <f t="shared" si="26"/>
+        <v>-0.10286889997472795</v>
+      </c>
+      <c r="E53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.35634832254989918</v>
+      </c>
+      <c r="G53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="H53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.40237390808147822</v>
+      </c>
+      <c r="I53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.14907119849998604</v>
+      </c>
+      <c r="J53" s="11">
+        <f t="shared" si="26"/>
+        <v>4.7619047619047596E-2</v>
+      </c>
+      <c r="K53" s="11">
+        <f t="shared" si="26"/>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="L53" s="11">
+        <f t="shared" si="26"/>
+        <v>4.7619047619047589E-2</v>
+      </c>
+      <c r="M53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="N53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.28867513459481287</v>
+      </c>
+      <c r="O53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.13363062095621214</v>
+      </c>
+      <c r="P53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.18156825980064079</v>
+      </c>
+      <c r="Q53" s="11">
+        <f t="shared" si="26"/>
+        <v>-0.1183452670827877</v>
+      </c>
+      <c r="R53" s="11">
+        <f t="shared" si="26"/>
+        <v>8.6710996952412009E-2</v>
+      </c>
+      <c r="S53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.11834526708278773</v>
+      </c>
+      <c r="T53" s="11">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="U53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="V53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="W53" s="11">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="X53" s="11">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="Y53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="Z53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.23904572186687872</v>
+      </c>
+      <c r="AA53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="AB53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.10286889997472795</v>
+      </c>
+      <c r="AC53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="AD53" s="11">
+        <f t="shared" si="26"/>
+        <v>0.49704126302962537</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.29277002188455997</v>
+      </c>
+      <c r="C54" s="11">
+        <f t="shared" ref="C54:AD54" si="27">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$Y$2:$Y$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="D54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.18401748249129454</v>
+      </c>
+      <c r="E54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.67729621195615652</v>
+      </c>
+      <c r="F54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.67729621195615652</v>
+      </c>
+      <c r="G54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.37047928681747427</v>
+      </c>
+      <c r="H54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.56101149146646112</v>
+      </c>
+      <c r="I54" s="11">
+        <f t="shared" si="27"/>
+        <v>-0.16190476190476194</v>
+      </c>
+      <c r="J54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.14907119849998596</v>
+      </c>
+      <c r="K54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.3281387968954772</v>
+      </c>
+      <c r="L54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.14907119849998593</v>
+      </c>
+      <c r="M54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.49795500165523932</v>
+      </c>
+      <c r="N54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.49795500165523932</v>
+      </c>
+      <c r="O54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.41833001326703773</v>
+      </c>
+      <c r="P54" s="11">
+        <f t="shared" si="27"/>
+        <v>-2.7066598098038415E-2</v>
+      </c>
+      <c r="Q54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.3281387968954772</v>
+      </c>
+      <c r="R54" s="11">
+        <f t="shared" si="27"/>
+        <v>-0.29730058149296784</v>
+      </c>
+      <c r="S54" s="11">
+        <f t="shared" si="27"/>
+        <v>-9.5266102324493354E-2</v>
+      </c>
+      <c r="T54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="U54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.79047619047619044</v>
+      </c>
+      <c r="V54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.79047619047619044</v>
+      </c>
+      <c r="W54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="X54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.31943828249997003</v>
+      </c>
+      <c r="Y54" s="11">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="Z54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.16035674514745471</v>
+      </c>
+      <c r="AA54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.43704152091682436</v>
+      </c>
+      <c r="AB54" s="11">
+        <f t="shared" si="27"/>
+        <v>-0.18401748249129449</v>
+      </c>
+      <c r="AC54" s="11">
+        <f t="shared" si="27"/>
+        <v>4.7619047619047582E-2</v>
+      </c>
+      <c r="AD54" s="11">
+        <f t="shared" si="27"/>
+        <v>0.71347211262576971</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$Z$2:$Z$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.36514837167011077</v>
+      </c>
+      <c r="C55" s="11">
+        <f t="shared" ref="C55:Y55" si="28">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$Z$2:$Z$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.1603567451474546</v>
+      </c>
+      <c r="D55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.27971546389275803</v>
+      </c>
+      <c r="E55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.46584749531245623</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.46584749531245623</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="28"/>
+        <v>5.9408852578600478E-2</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.59408852578600457</v>
+      </c>
+      <c r="I55" s="11">
+        <f t="shared" si="28"/>
+        <v>-0.55233989995234378</v>
+      </c>
+      <c r="J55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.19920476822239885</v>
+      </c>
+      <c r="K55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.37625606633113612</v>
+      </c>
+      <c r="L55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.19920476822239883</v>
+      </c>
+      <c r="M55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.44854261357253017</v>
+      </c>
+      <c r="N55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.44854261357253017</v>
+      </c>
+      <c r="O55" s="11">
+        <f t="shared" si="28"/>
+        <v>-5.5901699437494783E-2</v>
+      </c>
+      <c r="P55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.3882167573820724</v>
+      </c>
+      <c r="Q55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.37625606633113612</v>
+      </c>
+      <c r="R55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.36273812505500591</v>
+      </c>
+      <c r="S55" s="11">
+        <f t="shared" si="28"/>
+        <v>-0.15842360687626783</v>
+      </c>
+      <c r="T55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.23904572186687872</v>
+      </c>
+      <c r="U55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.16035674514745471</v>
+      </c>
+      <c r="V55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.16035674514745471</v>
+      </c>
+      <c r="W55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.23904572186687872</v>
+      </c>
+      <c r="X55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.23904572186687872</v>
+      </c>
+      <c r="Y55" s="11">
+        <f t="shared" si="28"/>
+        <v>0.16035674514745471</v>
+      </c>
+      <c r="Z55" s="11">
+        <f>_xlfn.LET(_xlpm.a,Z$2:Z$23,_xlpm.b,$Z$2:$Z$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AA55" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$Z$2:$Z$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.19364916731037082</v>
+      </c>
+      <c r="AB55" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$Z$2:$Z$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.19364916731037088</v>
+      </c>
+      <c r="AC55" s="11">
+        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$Z$2:$Z$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>3.5634832254989951E-2</v>
+      </c>
+      <c r="AD55" s="11">
+        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$Z$2:$Z$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.48594240288482321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$AA$2:$AA$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.23570226039551578</v>
+      </c>
+      <c r="C56" s="11">
+        <f t="shared" ref="C56:Z56" si="29">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$AA$2:$AA$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.32203059435976533</v>
+      </c>
+      <c r="D56" s="11">
+        <f t="shared" si="29"/>
+        <v>-0.22222222222222227</v>
+      </c>
+      <c r="E56" s="11">
+        <f t="shared" si="29"/>
+        <v>-2.4056261216234446E-2</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="29"/>
+        <v>-2.4056261216234446E-2</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" si="29"/>
+        <v>0.25565499628245703</v>
+      </c>
+      <c r="H56" s="11">
+        <f t="shared" si="29"/>
+        <v>2.556549962824569E-2</v>
+      </c>
+      <c r="I56" s="11">
+        <f t="shared" si="29"/>
+        <v>0.32203059435976533</v>
+      </c>
+      <c r="J56" s="11">
+        <f t="shared" si="29"/>
+        <v>0.1028688999747279</v>
+      </c>
+      <c r="K56" s="11">
+        <f t="shared" si="29"/>
+        <v>-0.2556549962824568</v>
+      </c>
+      <c r="L56" s="11">
+        <f t="shared" si="29"/>
+        <v>0.10286889997472788</v>
+      </c>
+      <c r="M56" s="11">
+        <f t="shared" si="29"/>
+        <v>-0.11135885079684342</v>
+      </c>
+      <c r="N56" s="11">
+        <f t="shared" si="29"/>
+        <v>-0.11135885079684342</v>
+      </c>
+      <c r="O56" s="11">
+        <f t="shared" si="29"/>
+        <v>0.28867513459481292</v>
+      </c>
+      <c r="P56" s="11">
+        <f t="shared" si="29"/>
+        <v>-8.7162726728081785E-2</v>
+      </c>
+      <c r="Q56" s="11">
+        <f t="shared" si="29"/>
+        <v>-0.2556549962824568</v>
+      </c>
+      <c r="R56" s="11">
+        <f t="shared" si="29"/>
+        <v>-0.49951243284357016</v>
+      </c>
+      <c r="S56" s="11">
+        <f t="shared" si="29"/>
+        <v>-0.30678599553894842</v>
+      </c>
+      <c r="T56" s="11">
+        <f t="shared" si="29"/>
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="U56" s="11">
+        <f t="shared" si="29"/>
+        <v>0.43704152091682436</v>
+      </c>
+      <c r="V56" s="11">
+        <f t="shared" si="29"/>
+        <v>0.43704152091682436</v>
+      </c>
+      <c r="W56" s="11">
+        <f t="shared" si="29"/>
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="X56" s="11">
+        <f t="shared" si="29"/>
+        <v>0.46291004988627571</v>
+      </c>
+      <c r="Y56" s="11">
+        <f t="shared" si="29"/>
+        <v>0.43704152091682436</v>
+      </c>
+      <c r="Z56" s="11">
+        <f t="shared" si="29"/>
+        <v>-0.19364916731037082</v>
+      </c>
+      <c r="AA56" s="11">
+        <f>_xlfn.LET(_xlpm.a,AA$2:AA$23,_xlpm.b,$AA$2:$AA$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="AB56" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$AA$2:$AA$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.22222222222222227</v>
+      </c>
+      <c r="AC56" s="11">
+        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$AA$2:$AA$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.18401748249129449</v>
+      </c>
+      <c r="AD56" s="11">
+        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$AA$2:$AA$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.16689090511525817</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$AB$2:$AB$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.23570226039551592</v>
+      </c>
+      <c r="C57" s="11">
+        <f t="shared" ref="C57:AA57" si="30">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$AB$2:$AB$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-6.9006555934235353E-2</v>
+      </c>
+      <c r="D57" s="11">
+        <f t="shared" si="30"/>
+        <v>-8.3333333333333384E-2</v>
+      </c>
+      <c r="E57" s="11">
+        <f t="shared" si="30"/>
+        <v>-0.24056261216234415</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="30"/>
+        <v>-0.24056261216234415</v>
+      </c>
+      <c r="G57" s="11">
+        <f t="shared" si="30"/>
+        <v>-0.25565499628245703</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="30"/>
+        <v>-2.5565499628245711E-2</v>
+      </c>
+      <c r="I57" s="11">
+        <f t="shared" si="30"/>
+        <v>0.18401748249129454</v>
+      </c>
+      <c r="J57" s="11">
+        <f t="shared" si="30"/>
+        <v>0.46291004988627554</v>
+      </c>
+      <c r="K57" s="11">
+        <f t="shared" si="30"/>
+        <v>-0.30678599553894814</v>
+      </c>
+      <c r="L57" s="11">
+        <f t="shared" si="30"/>
+        <v>0.46291004988627532</v>
+      </c>
+      <c r="M57" s="11">
+        <f t="shared" si="30"/>
+        <v>-0.37862009270926777</v>
+      </c>
+      <c r="N57" s="11">
+        <f t="shared" si="30"/>
+        <v>-0.37862009270926777</v>
+      </c>
+      <c r="O57" s="11">
+        <f t="shared" si="30"/>
+        <v>-0.28867513459481287</v>
+      </c>
+      <c r="P57" s="11">
+        <f t="shared" si="30"/>
+        <v>8.7162726728081827E-2</v>
+      </c>
+      <c r="Q57" s="11">
+        <f t="shared" si="30"/>
+        <v>-0.30678599553894814</v>
+      </c>
+      <c r="R57" s="11">
+        <f t="shared" si="30"/>
+        <v>-0.18731716231633885</v>
+      </c>
+      <c r="S57" s="11">
+        <f t="shared" si="30"/>
+        <v>-0.25565499628245697</v>
+      </c>
+      <c r="T57" s="11">
+        <f t="shared" si="30"/>
+        <v>0.10286889997472795</v>
+      </c>
+      <c r="U57" s="11">
+        <f t="shared" si="30"/>
+        <v>6.9006555934235436E-2</v>
+      </c>
+      <c r="V57" s="11">
+        <f t="shared" si="30"/>
+        <v>6.9006555934235436E-2</v>
+      </c>
+      <c r="W57" s="11">
+        <f t="shared" si="30"/>
+        <v>0.10286889997472795</v>
+      </c>
+      <c r="X57" s="11">
+        <f t="shared" si="30"/>
+        <v>0.10286889997472795</v>
+      </c>
+      <c r="Y57" s="11">
+        <f t="shared" si="30"/>
+        <v>-0.18401748249129449</v>
+      </c>
+      <c r="Z57" s="11">
+        <f t="shared" si="30"/>
+        <v>0.19364916731037088</v>
+      </c>
+      <c r="AA57" s="11">
+        <f t="shared" si="30"/>
+        <v>0.22222222222222227</v>
+      </c>
+      <c r="AB57" s="11">
+        <f>_xlfn.LET(_xlpm.a,AB$2:AB$23,_xlpm.b,$AB$2:$AB$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="AC57" s="11">
+        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$AB$2:$AB$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.32203059435976522</v>
+      </c>
+      <c r="AD57" s="11">
+        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$AB$2:$AB$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.12265476159073194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$AC$2:$AC$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.6831300510639734</v>
+      </c>
+      <c r="C58" s="11">
+        <f t="shared" ref="C58:AB58" si="31">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$AC$2:$AC$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.37142857142857139</v>
+      </c>
+      <c r="D58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.32203059435976517</v>
+      </c>
+      <c r="E58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.41833001326703784</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.41833001326703784</v>
+      </c>
+      <c r="G58" s="11">
+        <f t="shared" si="31"/>
+        <v>9.5266102324493424E-2</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.37047928681747405</v>
+      </c>
+      <c r="I58" s="11">
+        <f t="shared" si="31"/>
+        <v>-0.46666666666666679</v>
+      </c>
+      <c r="J58" s="11">
+        <f t="shared" si="31"/>
+        <v>-0.14907119849998587</v>
+      </c>
+      <c r="K58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.370479286817474</v>
+      </c>
+      <c r="L58" s="11">
+        <f t="shared" si="31"/>
+        <v>-0.14907119849998585</v>
+      </c>
+      <c r="M58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.31352722326440985</v>
+      </c>
+      <c r="N58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.31352722326440985</v>
+      </c>
+      <c r="O58" s="11">
+        <f t="shared" si="31"/>
+        <v>-0.19920476822239877</v>
+      </c>
+      <c r="P58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.42404337020260074</v>
+      </c>
+      <c r="Q58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.370479286817474</v>
+      </c>
+      <c r="R58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.58167505074711112</v>
+      </c>
+      <c r="S58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.79388418603744504</v>
+      </c>
+      <c r="T58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="U58" s="11">
+        <f t="shared" si="31"/>
+        <v>-0.161904761904762</v>
+      </c>
+      <c r="V58" s="11">
+        <f t="shared" si="31"/>
+        <v>-0.161904761904762</v>
+      </c>
+      <c r="W58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="X58" s="11">
+        <f t="shared" si="31"/>
+        <v>0.14907119849998599</v>
+      </c>
+      <c r="Y58" s="11">
+        <f t="shared" si="31"/>
+        <v>4.7619047619047582E-2</v>
+      </c>
+      <c r="Z58" s="11">
+        <f t="shared" si="31"/>
+        <v>3.5634832254989951E-2</v>
+      </c>
+      <c r="AA58" s="11">
+        <f t="shared" si="31"/>
+        <v>-0.18401748249129449</v>
+      </c>
+      <c r="AB58" s="11">
+        <f t="shared" si="31"/>
+        <v>-0.32203059435976522</v>
+      </c>
+      <c r="AC58" s="11">
+        <f>_xlfn.LET(_xlpm.a,AC$2:AC$23,_xlpm.b,$AC$2:$AC$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AD58" s="11">
+        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$AC$2:$AC$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.45872010975122407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="11">
+        <f>_xlfn.LET(_xlpm.a,B$2:B$23,_xlpm.b,$AD$2:$AD$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.58862665012408355</v>
+      </c>
+      <c r="C59" s="11">
+        <f t="shared" ref="C59:AC59" si="32">_xlfn.LET(_xlpm.a,C$2:C$23,_xlpm.b,$AD$2:$AD$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.29388057847945931</v>
+      </c>
+      <c r="D59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.36595355097562632</v>
+      </c>
+      <c r="E59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.91594828428850739</v>
+      </c>
+      <c r="F59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.91594828428850739</v>
+      </c>
+      <c r="G59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.43396450607444664</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.88921085359817309</v>
+      </c>
+      <c r="I59" s="11">
+        <f>_xlfn.LET(_xlpm.a,I$2:I$23,_xlpm.b,$AD$2:$AD$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>-0.45705506398080215</v>
+      </c>
+      <c r="J59" s="11">
+        <f t="shared" si="32"/>
+        <v>7.6324688330391896E-2</v>
+      </c>
+      <c r="K59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.60421923766868568</v>
+      </c>
+      <c r="L59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.11727939914182164</v>
+      </c>
+      <c r="M59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.81737203288377758</v>
+      </c>
+      <c r="N59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.81737203288377758</v>
+      </c>
+      <c r="O59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.38657893367309637</v>
+      </c>
+      <c r="P59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.42982770166265583</v>
+      </c>
+      <c r="Q59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.60421923766868568</v>
+      </c>
+      <c r="R59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.23841625268340913</v>
+      </c>
+      <c r="S59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.29146869810970294</v>
+      </c>
+      <c r="T59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.49704126302962537</v>
+      </c>
+      <c r="U59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.60357909177792635</v>
+      </c>
+      <c r="V59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.60357909177792635</v>
+      </c>
+      <c r="W59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.49704126302962537</v>
+      </c>
+      <c r="X59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.49704126302962537</v>
+      </c>
+      <c r="Y59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.71347211262576971</v>
+      </c>
+      <c r="Z59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.48594240288482321</v>
+      </c>
+      <c r="AA59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.16689090511525817</v>
+      </c>
+      <c r="AB59" s="11">
+        <f t="shared" si="32"/>
+        <v>-0.12265476159073194</v>
+      </c>
+      <c r="AC59" s="11">
+        <f t="shared" si="32"/>
+        <v>0.45872010975122407</v>
+      </c>
+      <c r="AD59" s="11">
+        <f>_xlfn.LET(_xlpm.a,AD$2:AD$23,_xlpm.b,$AD$2:$AD$23,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="AE59" s="1"/>
+      <c r="AG59" s="10"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:R23 T2:AC23">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="&quot;&quot;">
+      <formula>NOT(ISERROR(SEARCH("""""",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:AC26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <color theme="0"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:AD59">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <color theme="0"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCBA829-B2C3-7F45-90B5-C286C02D0432}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane xSplit="8480" ySplit="5540" topLeftCell="D22" activePane="topRight"/>
       <selection sqref="A1:AC23"/>
       <selection pane="topRight" activeCell="H20" sqref="H20"/>
@@ -11327,7 +19475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE55"/>
   <sheetViews>
